--- a/SuHeon/기록.xlsx
+++ b/SuHeon/기록.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoneyWater\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoneyWater\Desktop\Practice\SuHeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,84 +19,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+  <x:si>
+    <x:t>lgbm_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 각도</x:t>
+  </x:si>
   <x:si>
     <x:t>모델파일</x:t>
   </x:si>
   <x:si>
+    <x:t>2D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습 정확도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn</x:t>
+  </x:si>
+  <x:si>
     <x:t>rf</x:t>
   </x:si>
   <x:si>
-    <x:t>dnn</x:t>
-  </x:si>
-  <x:si>
     <x:t>xgb</x:t>
   </x:si>
   <x:si>
-    <x:t>lgb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도</x:t>
+    <x:t>rf_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul3_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 각도, 거리</x:t>
   </x:si>
   <x:si>
     <x:t>simul1_3</x:t>
   </x:si>
   <x:si>
-    <x:t>simul3_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도, 거리</x:t>
+    <x:t>simul2_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul1_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul2_2</x:t>
   </x:si>
   <x:si>
     <x:t>simul3_3</x:t>
   </x:si>
   <x:si>
-    <x:t>simul2_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_2</x:t>
-  </x:si>
-  <x:si>
     <x:t>simul3_2</x:t>
   </x:si>
   <x:si>
-    <x:t>simul2_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_3</x:t>
-  </x:si>
-  <x:si>
     <x:t>n_estimators=200, random_state=66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습 정확도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_point.joblib</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1004,20 +1016,21 @@
   <x:dimension ref="A1:S52"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="I20" activeCellId="0" sqref="I20:I20"/>
+      <x:selection activeCell="F17" activeCellId="0" sqref="F17:F17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="11.0078125" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="9.00390625" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="5" width="9.00390625" bestFit="1" customWidth="1"/>
     <x:col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
     <x:col min="9" max="9" width="9.00390625" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="9.00390625" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B1" s="9"/>
       <x:c r="C1" s="9"/>
@@ -1025,7 +1038,7 @@
       <x:c r="E1" s="9"/>
       <x:c r="F1" s="1"/>
       <x:c r="G1" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="9"/>
       <x:c r="I1" s="9"/>
@@ -1034,7 +1047,7 @@
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
         <x:v>6</x:v>
@@ -1068,274 +1081,318 @@
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="1"/>
       <x:c r="G3" s="2"/>
       <x:c r="H3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2"/>
       <x:c r="C4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="2"/>
-      <x:c r="E4" s="2"/>
+      <x:c r="E4" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="F4" s="1"/>
       <x:c r="G4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H4" s="2"/>
       <x:c r="I4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J4" s="2"/>
-      <x:c r="K4" s="2"/>
+      <x:c r="K4" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="2"/>
       <x:c r="C5" s="2">
         <x:v>0.90600000000000003</x:v>
       </x:c>
       <x:c r="D5" s="2"/>
-      <x:c r="E5" s="2"/>
+      <x:c r="E5" s="2">
+        <x:v>0.91700000000000004</x:v>
+      </x:c>
       <x:c r="F5" s="1"/>
       <x:c r="G5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H5" s="2"/>
       <x:c r="I5" s="2">
         <x:v>0.97499999999999998</x:v>
       </x:c>
       <x:c r="J5" s="2"/>
-      <x:c r="K5" s="2"/>
+      <x:c r="K5" s="2">
+        <x:v>0.97899999999999998</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="4"/>
       <x:c r="C6" s="4">
         <x:v>0.69299999999999995</x:v>
       </x:c>
       <x:c r="D6" s="4"/>
-      <x:c r="E6" s="4"/>
+      <x:c r="E6" s="4">
+        <x:v>0.67800000000000005</x:v>
+      </x:c>
       <x:c r="F6" s="1"/>
       <x:c r="G6" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H6" s="4"/>
       <x:c r="I6" s="4">
         <x:v>0.66700000000000004</x:v>
       </x:c>
       <x:c r="J6" s="4"/>
-      <x:c r="K6" s="4"/>
+      <x:c r="K6" s="4">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4">
         <x:v>0.63500000000000001</x:v>
       </x:c>
       <x:c r="D7" s="4"/>
-      <x:c r="E7" s="4"/>
+      <x:c r="E7" s="4">
+        <x:v>0.60199999999999998</x:v>
+      </x:c>
       <x:c r="F7" s="1"/>
       <x:c r="G7" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H7" s="4"/>
       <x:c r="I7" s="4">
         <x:v>0.628</x:v>
       </x:c>
       <x:c r="J7" s="4"/>
-      <x:c r="K7" s="4"/>
+      <x:c r="K7" s="4">
+        <x:v>0.53900000000000003</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:19">
       <x:c r="A8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4">
         <x:v>0.67200000000000004</x:v>
       </x:c>
       <x:c r="D8" s="4"/>
-      <x:c r="E8" s="4"/>
+      <x:c r="E8" s="4">
+        <x:v>0.64600000000000002</x:v>
+      </x:c>
       <x:c r="F8" s="1"/>
       <x:c r="G8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H8" s="4"/>
       <x:c r="I8" s="4">
         <x:v>0.71299999999999997</x:v>
       </x:c>
       <x:c r="J8" s="4"/>
-      <x:c r="K8" s="4"/>
+      <x:c r="K8" s="4">
+        <x:v>0.62</x:v>
+      </x:c>
       <x:c r="S8" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="A9" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B9" s="6"/>
       <x:c r="C9" s="6">
         <x:v>0.48699999999999999</x:v>
       </x:c>
       <x:c r="D9" s="6"/>
-      <x:c r="E9" s="6"/>
+      <x:c r="E9" s="6">
+        <x:v>0.44400000000000001</x:v>
+      </x:c>
       <x:c r="F9" s="1"/>
       <x:c r="G9" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H9" s="6"/>
       <x:c r="I9" s="6">
         <x:v>0.47399999999999998</x:v>
       </x:c>
       <x:c r="J9" s="6"/>
-      <x:c r="K9" s="6"/>
+      <x:c r="K9" s="6">
+        <x:v>0.41999999999999998</x:v>
+      </x:c>
       <x:c r="S9" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="A10" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B10" s="6"/>
       <x:c r="C10" s="6">
         <x:v>0.55700000000000005</x:v>
       </x:c>
       <x:c r="D10" s="6"/>
-      <x:c r="E10" s="6"/>
+      <x:c r="E10" s="6">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
       <x:c r="F10" s="1"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6">
         <x:v>0.61099999999999999</x:v>
       </x:c>
       <x:c r="J10" s="6"/>
-      <x:c r="K10" s="6"/>
+      <x:c r="K10" s="6">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
       <x:c r="S10" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="A11" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B11" s="6"/>
       <x:c r="C11" s="6">
         <x:v>0.64800000000000002</x:v>
       </x:c>
       <x:c r="D11" s="6"/>
-      <x:c r="E11" s="6"/>
+      <x:c r="E11" s="6">
+        <x:v>0.65400000000000003</x:v>
+      </x:c>
       <x:c r="F11" s="1"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6">
         <x:v>0.67800000000000005</x:v>
       </x:c>
       <x:c r="J11" s="6"/>
-      <x:c r="K11" s="6"/>
+      <x:c r="K11" s="6">
+        <x:v>0.504</x:v>
+      </x:c>
       <x:c r="S11" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B12" s="7"/>
       <x:c r="C12" s="7">
         <x:v>0.60199999999999998</x:v>
       </x:c>
       <x:c r="D12" s="7"/>
-      <x:c r="E12" s="7"/>
+      <x:c r="E12" s="7">
+        <x:v>0.55600000000000005</x:v>
+      </x:c>
       <x:c r="F12" s="1"/>
       <x:c r="G12" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H12" s="7"/>
       <x:c r="I12" s="7">
         <x:v>0.55400000000000005</x:v>
       </x:c>
       <x:c r="J12" s="7"/>
-      <x:c r="K12" s="7"/>
+      <x:c r="K12" s="7">
+        <x:v>0.50700000000000001</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7">
         <x:v>0.59599999999999997</x:v>
       </x:c>
       <x:c r="D13" s="7"/>
-      <x:c r="E13" s="7"/>
+      <x:c r="E13" s="7">
+        <x:v>0.60699999999999998</x:v>
+      </x:c>
       <x:c r="F13" s="1"/>
       <x:c r="G13" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H13" s="7"/>
       <x:c r="I13" s="7">
         <x:v>0.64100000000000001</x:v>
       </x:c>
       <x:c r="J13" s="7"/>
-      <x:c r="K13" s="7"/>
+      <x:c r="K13" s="7">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7">
         <x:v>0.63100000000000001</x:v>
       </x:c>
       <x:c r="D14" s="7"/>
-      <x:c r="E14" s="7"/>
+      <x:c r="E14" s="7">
+        <x:v>0.61899999999999999</x:v>
+      </x:c>
       <x:c r="F14" s="1"/>
       <x:c r="G14" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H14" s="7"/>
       <x:c r="I14" s="7">
         <x:v>0.64300000000000002</x:v>
       </x:c>
       <x:c r="J14" s="7"/>
-      <x:c r="K14" s="7"/>
+      <x:c r="K14" s="7">
+        <x:v>0.57399999999999995</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="6:11">
       <x:c r="F15" s="1"/>
@@ -1347,7 +1404,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B16" s="9"/>
       <x:c r="C16" s="9"/>
@@ -1355,7 +1412,7 @@
       <x:c r="E16" s="9"/>
       <x:c r="F16" s="1"/>
       <x:c r="G16" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H16" s="9"/>
       <x:c r="I16" s="9"/>
@@ -1364,7 +1421,7 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
         <x:v>6</x:v>
@@ -1380,7 +1437,7 @@
       </x:c>
       <x:c r="F17" s="1"/>
       <x:c r="G17" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H17" s="10" t="s">
         <x:v>6</x:v>
@@ -1398,262 +1455,306 @@
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F18" s="1"/>
       <x:c r="G18" s="2"/>
       <x:c r="H18" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J18" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K18" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:11">
       <x:c r="A19" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B19" s="2"/>
       <x:c r="C19" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D19" s="2"/>
-      <x:c r="E19" s="2"/>
+      <x:c r="E19" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="F19" s="1"/>
       <x:c r="G19" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H19" s="2"/>
       <x:c r="I19" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="2"/>
-      <x:c r="K19" s="2"/>
+      <x:c r="K19" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="1:11">
       <x:c r="A20" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B20" s="2"/>
       <x:c r="C20" s="2">
         <x:v>0.89100000000000001</x:v>
       </x:c>
       <x:c r="D20" s="2"/>
-      <x:c r="E20" s="2"/>
+      <x:c r="E20" s="2">
+        <x:v>0.91100000000000003</x:v>
+      </x:c>
       <x:c r="F20" s="1"/>
       <x:c r="G20" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H20" s="2"/>
       <x:c r="I20" s="2">
         <x:v>0.97899999999999998</x:v>
       </x:c>
       <x:c r="J20" s="2"/>
-      <x:c r="K20" s="2"/>
+      <x:c r="K20" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
     </x:row>
     <x:row r="21" spans="1:11">
       <x:c r="A21" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B21" s="4"/>
       <x:c r="C21" s="4">
         <x:v>0.55000000000000004</x:v>
       </x:c>
       <x:c r="D21" s="4"/>
-      <x:c r="E21" s="4"/>
+      <x:c r="E21" s="4">
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
       <x:c r="F21" s="1"/>
       <x:c r="G21" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H21" s="4"/>
       <x:c r="I21" s="4">
         <x:v>0.73499999999999999</x:v>
       </x:c>
       <x:c r="J21" s="4"/>
-      <x:c r="K21" s="4"/>
+      <x:c r="K21" s="4">
+        <x:v>0.68000000000000005</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:11">
       <x:c r="A22" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B22" s="4"/>
       <x:c r="C22" s="4">
         <x:v>0.56899999999999995</x:v>
       </x:c>
       <x:c r="D22" s="4"/>
-      <x:c r="E22" s="4"/>
+      <x:c r="E22" s="4">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
       <x:c r="F22" s="1"/>
       <x:c r="G22" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H22" s="4"/>
       <x:c r="I22" s="4">
         <x:v>0.60599999999999998</x:v>
       </x:c>
       <x:c r="J22" s="4"/>
-      <x:c r="K22" s="4"/>
+      <x:c r="K22" s="4">
+        <x:v>0.60699999999999998</x:v>
+      </x:c>
     </x:row>
     <x:row r="23" spans="1:11">
       <x:c r="A23" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B23" s="4"/>
       <x:c r="C23" s="4">
         <x:v>0.54800000000000004</x:v>
       </x:c>
       <x:c r="D23" s="4"/>
-      <x:c r="E23" s="4"/>
+      <x:c r="E23" s="4">
+        <x:v>0.58899999999999997</x:v>
+      </x:c>
       <x:c r="F23" s="1"/>
       <x:c r="G23" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H23" s="4"/>
       <x:c r="I23" s="4">
         <x:v>0.70699999999999996</x:v>
       </x:c>
       <x:c r="J23" s="4"/>
-      <x:c r="K23" s="4"/>
+      <x:c r="K23" s="4">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="1:11">
       <x:c r="A24" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B24" s="6"/>
       <x:c r="C24" s="6">
         <x:v>0.41099999999999998</x:v>
       </x:c>
       <x:c r="D24" s="6"/>
-      <x:c r="E24" s="6"/>
+      <x:c r="E24" s="6">
+        <x:v>0.38700000000000001</x:v>
+      </x:c>
       <x:c r="F24" s="1"/>
       <x:c r="G24" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="6">
         <x:v>0.52000000000000002</x:v>
       </x:c>
       <x:c r="J24" s="6"/>
-      <x:c r="K24" s="6"/>
+      <x:c r="K24" s="6">
+        <x:v>0.435</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="1:11">
       <x:c r="A25" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B25" s="6"/>
       <x:c r="C25" s="6">
         <x:v>0.58299999999999996</x:v>
       </x:c>
       <x:c r="D25" s="6"/>
-      <x:c r="E25" s="6"/>
+      <x:c r="E25" s="6">
+        <x:v>0.52200000000000002</x:v>
+      </x:c>
       <x:c r="F25" s="1"/>
       <x:c r="G25" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H25" s="6"/>
       <x:c r="I25" s="6">
         <x:v>0.63100000000000001</x:v>
       </x:c>
       <x:c r="J25" s="6"/>
-      <x:c r="K25" s="6"/>
+      <x:c r="K25" s="6">
+        <x:v>0.59799999999999998</x:v>
+      </x:c>
     </x:row>
     <x:row r="26" spans="1:11">
       <x:c r="A26" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B26" s="6"/>
       <x:c r="C26" s="6">
         <x:v>0.59999999999999998</x:v>
       </x:c>
       <x:c r="D26" s="6"/>
-      <x:c r="E26" s="6"/>
+      <x:c r="E26" s="6">
+        <x:v>0.56299999999999994</x:v>
+      </x:c>
       <x:c r="F26" s="1"/>
       <x:c r="G26" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H26" s="6"/>
       <x:c r="I26" s="6">
         <x:v>0.69099999999999995</x:v>
       </x:c>
       <x:c r="J26" s="6"/>
-      <x:c r="K26" s="6"/>
+      <x:c r="K26" s="6">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="1:11">
       <x:c r="A27" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B27" s="7"/>
       <x:c r="C27" s="7">
         <x:v>0.56499999999999995</x:v>
       </x:c>
       <x:c r="D27" s="7"/>
-      <x:c r="E27" s="7"/>
+      <x:c r="E27" s="7">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
       <x:c r="F27" s="1"/>
       <x:c r="G27" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H27" s="7"/>
       <x:c r="I27" s="7">
         <x:v>0.66100000000000003</x:v>
       </x:c>
       <x:c r="J27" s="7"/>
-      <x:c r="K27" s="7"/>
+      <x:c r="K27" s="7">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:11">
       <x:c r="A28" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B28" s="7"/>
       <x:c r="C28" s="7">
         <x:v>0.54600000000000004</x:v>
       </x:c>
       <x:c r="D28" s="7"/>
-      <x:c r="E28" s="7"/>
+      <x:c r="E28" s="7">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
       <x:c r="F28" s="1"/>
       <x:c r="G28" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H28" s="7"/>
       <x:c r="I28" s="7">
         <x:v>0.61499999999999999</x:v>
       </x:c>
       <x:c r="J28" s="7"/>
-      <x:c r="K28" s="7"/>
+      <x:c r="K28" s="7">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:11">
       <x:c r="A29" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="7"/>
       <x:c r="C29" s="7">
         <x:v>0.55400000000000005</x:v>
       </x:c>
       <x:c r="D29" s="7"/>
-      <x:c r="E29" s="7"/>
+      <x:c r="E29" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
       <x:c r="F29" s="1"/>
       <x:c r="G29" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H29" s="7"/>
       <x:c r="I29" s="7">
         <x:v>0.66500000000000004</x:v>
       </x:c>
       <x:c r="J29" s="7"/>
-      <x:c r="K29" s="7"/>
+      <x:c r="K29" s="7">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1"/>
@@ -1815,7 +1916,7 @@
     <x:mergeCell ref="A17:E17"/>
     <x:mergeCell ref="G17:K17"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/SuHeon/기록.xlsx
+++ b/SuHeon/기록.xlsx
@@ -19,18 +19,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+  <x:si>
+    <x:t>rf_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul3_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul3_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_estimators=200, random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul2_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul1_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul2_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_angle.joblib</x:t>
+  </x:si>
   <x:si>
     <x:t>lgbm_model_3D_angle.joblib</x:t>
   </x:si>
   <x:si>
+    <x:t>lgbm_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
     <x:t>lgbm_model_2D_point.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>lgbm_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_3D_point.joblib</x:t>
+    <x:t>2D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul1_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul3_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb</x:t>
   </x:si>
   <x:si>
     <x:t>2D 각도</x:t>
@@ -39,76 +99,28 @@
     <x:t>모델파일</x:t>
   </x:si>
   <x:si>
+    <x:t>3D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도</x:t>
+  </x:si>
+  <x:si>
     <x:t>2D 점</x:t>
   </x:si>
   <x:si>
-    <x:t>3D 각도</x:t>
-  </x:si>
-  <x:si>
     <x:t>학습 정확도</x:t>
   </x:si>
   <x:si>
-    <x:t>3D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul3_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul3_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul3_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_estimators=200, random_state=66</x:t>
+    <x:t>xgb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_point.joblib</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1016,7 +1028,7 @@
   <x:dimension ref="A1:S52"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="F17" activeCellId="0" sqref="F17:F17"/>
+      <x:selection activeCell="M8" activeCellId="0" sqref="M8:M8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1024,13 +1036,12 @@
     <x:col min="1" max="1" width="11.0078125" bestFit="1" customWidth="1"/>
     <x:col min="3" max="5" width="9.00390625" bestFit="1" customWidth="1"/>
     <x:col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="9.00390625" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="9.00390625" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="11" width="9.00390625" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B1" s="9"/>
       <x:c r="C1" s="9"/>
@@ -1038,7 +1049,7 @@
       <x:c r="E1" s="9"/>
       <x:c r="F1" s="1"/>
       <x:c r="G1" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1" s="9"/>
       <x:c r="I1" s="9"/>
@@ -1047,349 +1058,393 @@
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F2" s="1"/>
       <x:c r="G2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K2" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F3" s="1"/>
       <x:c r="G3" s="2"/>
       <x:c r="H3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B4" s="2"/>
       <x:c r="C4" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D4" s="2"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="1"/>
       <x:c r="G4" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H4" s="2"/>
       <x:c r="I4" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J4" s="2"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B5" s="2"/>
       <x:c r="C5" s="2">
         <x:v>0.90600000000000003</x:v>
       </x:c>
-      <x:c r="D5" s="2"/>
+      <x:c r="D5" s="2">
+        <x:v>0.90500000000000003</x:v>
+      </x:c>
       <x:c r="E5" s="2">
         <x:v>0.91700000000000004</x:v>
       </x:c>
       <x:c r="F5" s="1"/>
       <x:c r="G5" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H5" s="2"/>
       <x:c r="I5" s="2">
         <x:v>0.97499999999999998</x:v>
       </x:c>
-      <x:c r="J5" s="2"/>
+      <x:c r="J5" s="2">
+        <x:v>0.97399999999999998</x:v>
+      </x:c>
       <x:c r="K5" s="2">
         <x:v>0.97899999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B6" s="4"/>
       <x:c r="C6" s="4">
         <x:v>0.69299999999999995</x:v>
       </x:c>
-      <x:c r="D6" s="4"/>
+      <x:c r="D6" s="4">
+        <x:v>0.65000000000000002</x:v>
+      </x:c>
       <x:c r="E6" s="4">
         <x:v>0.67800000000000005</x:v>
       </x:c>
       <x:c r="F6" s="1"/>
       <x:c r="G6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H6" s="4"/>
       <x:c r="I6" s="4">
         <x:v>0.66700000000000004</x:v>
       </x:c>
-      <x:c r="J6" s="4"/>
+      <x:c r="J6" s="4">
+        <x:v>0.63100000000000001</x:v>
+      </x:c>
       <x:c r="K6" s="4">
         <x:v>0.61299999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4">
         <x:v>0.63500000000000001</x:v>
       </x:c>
-      <x:c r="D7" s="4"/>
+      <x:c r="D7" s="4">
+        <x:v>0.63</x:v>
+      </x:c>
       <x:c r="E7" s="4">
         <x:v>0.60199999999999998</x:v>
       </x:c>
       <x:c r="F7" s="1"/>
       <x:c r="G7" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H7" s="4"/>
       <x:c r="I7" s="4">
         <x:v>0.628</x:v>
       </x:c>
-      <x:c r="J7" s="4"/>
+      <x:c r="J7" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
       <x:c r="K7" s="4">
         <x:v>0.53900000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:19">
       <x:c r="A8" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4">
         <x:v>0.67200000000000004</x:v>
       </x:c>
-      <x:c r="D8" s="4"/>
+      <x:c r="D8" s="4">
+        <x:v>0.64600000000000002</x:v>
+      </x:c>
       <x:c r="E8" s="4">
         <x:v>0.64600000000000002</x:v>
       </x:c>
       <x:c r="F8" s="1"/>
       <x:c r="G8" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="4"/>
       <x:c r="I8" s="4">
         <x:v>0.71299999999999997</x:v>
       </x:c>
-      <x:c r="J8" s="4"/>
+      <x:c r="J8" s="4">
+        <x:v>0.58699999999999997</x:v>
+      </x:c>
       <x:c r="K8" s="4">
         <x:v>0.62</x:v>
       </x:c>
       <x:c r="S8" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="A9" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="6"/>
       <x:c r="C9" s="6">
         <x:v>0.48699999999999999</x:v>
       </x:c>
-      <x:c r="D9" s="6"/>
+      <x:c r="D9" s="6">
+        <x:v>0.45000000000000001</x:v>
+      </x:c>
       <x:c r="E9" s="6">
         <x:v>0.44400000000000001</x:v>
       </x:c>
       <x:c r="F9" s="1"/>
       <x:c r="G9" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="6"/>
       <x:c r="I9" s="6">
         <x:v>0.47399999999999998</x:v>
       </x:c>
-      <x:c r="J9" s="6"/>
+      <x:c r="J9" s="6">
+        <x:v>0.40400000000000003</x:v>
+      </x:c>
       <x:c r="K9" s="6">
         <x:v>0.41999999999999998</x:v>
       </x:c>
       <x:c r="S9" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="A10" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B10" s="6"/>
       <x:c r="C10" s="6">
         <x:v>0.55700000000000005</x:v>
       </x:c>
-      <x:c r="D10" s="6"/>
+      <x:c r="D10" s="6">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
       <x:c r="E10" s="6">
         <x:v>0.51900000000000002</x:v>
       </x:c>
       <x:c r="F10" s="1"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H10" s="6"/>
       <x:c r="I10" s="6">
         <x:v>0.61099999999999999</x:v>
       </x:c>
-      <x:c r="J10" s="6"/>
+      <x:c r="J10" s="6">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
       <x:c r="K10" s="6">
         <x:v>0.56899999999999995</x:v>
       </x:c>
       <x:c r="S10" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="A11" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="6"/>
       <x:c r="C11" s="6">
         <x:v>0.64800000000000002</x:v>
       </x:c>
-      <x:c r="D11" s="6"/>
+      <x:c r="D11" s="6">
+        <x:v>0.65200000000000002</x:v>
+      </x:c>
       <x:c r="E11" s="6">
         <x:v>0.65400000000000003</x:v>
       </x:c>
       <x:c r="F11" s="1"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="6"/>
       <x:c r="I11" s="6">
         <x:v>0.67800000000000005</x:v>
       </x:c>
-      <x:c r="J11" s="6"/>
+      <x:c r="J11" s="6">
+        <x:v>0.55700000000000005</x:v>
+      </x:c>
       <x:c r="K11" s="6">
         <x:v>0.504</x:v>
       </x:c>
       <x:c r="S11" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B12" s="7"/>
       <x:c r="C12" s="7">
         <x:v>0.60199999999999998</x:v>
       </x:c>
-      <x:c r="D12" s="7"/>
+      <x:c r="D12" s="7">
+        <x:v>0.59399999999999997</x:v>
+      </x:c>
       <x:c r="E12" s="7">
         <x:v>0.55600000000000005</x:v>
       </x:c>
       <x:c r="F12" s="1"/>
       <x:c r="G12" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H12" s="7"/>
       <x:c r="I12" s="7">
         <x:v>0.55400000000000005</x:v>
       </x:c>
-      <x:c r="J12" s="7"/>
+      <x:c r="J12" s="7">
+        <x:v>0.47799999999999998</x:v>
+      </x:c>
       <x:c r="K12" s="7">
         <x:v>0.50700000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7">
         <x:v>0.59599999999999997</x:v>
       </x:c>
-      <x:c r="D13" s="7"/>
+      <x:c r="D13" s="7">
+        <x:v>0.59399999999999997</x:v>
+      </x:c>
       <x:c r="E13" s="7">
         <x:v>0.60699999999999998</x:v>
       </x:c>
       <x:c r="F13" s="1"/>
       <x:c r="G13" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H13" s="7"/>
       <x:c r="I13" s="7">
         <x:v>0.64100000000000001</x:v>
       </x:c>
-      <x:c r="J13" s="7"/>
+      <x:c r="J13" s="7">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
       <x:c r="K13" s="7">
         <x:v>0.57599999999999996</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7">
         <x:v>0.63100000000000001</x:v>
       </x:c>
-      <x:c r="D14" s="7"/>
+      <x:c r="D14" s="7">
+        <x:v>0.628</x:v>
+      </x:c>
       <x:c r="E14" s="7">
         <x:v>0.61899999999999999</x:v>
       </x:c>
       <x:c r="F14" s="1"/>
       <x:c r="G14" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H14" s="7"/>
       <x:c r="I14" s="7">
         <x:v>0.64300000000000002</x:v>
       </x:c>
-      <x:c r="J14" s="7"/>
+      <x:c r="J14" s="7">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
       <x:c r="K14" s="7">
         <x:v>0.57399999999999995</x:v>
       </x:c>
@@ -1404,7 +1459,7 @@
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B16" s="9"/>
       <x:c r="C16" s="9"/>
@@ -1412,7 +1467,7 @@
       <x:c r="E16" s="9"/>
       <x:c r="F16" s="1"/>
       <x:c r="G16" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H16" s="9"/>
       <x:c r="I16" s="9"/>
@@ -1421,337 +1476,381 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C17" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E17" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F17" s="1"/>
       <x:c r="G17" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H17" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I17" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J17" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K17" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F18" s="1"/>
       <x:c r="G18" s="2"/>
       <x:c r="H18" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J18" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K18" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:11">
       <x:c r="A19" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B19" s="2"/>
       <x:c r="C19" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="D19" s="2"/>
-      <x:c r="E19" s="2" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="1"/>
       <x:c r="G19" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H19" s="2"/>
       <x:c r="I19" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J19" s="2"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J19" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="K19" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:11">
       <x:c r="A20" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B20" s="2"/>
       <x:c r="C20" s="2">
         <x:v>0.89100000000000001</x:v>
       </x:c>
-      <x:c r="D20" s="2"/>
+      <x:c r="D20" s="2">
+        <x:v>0.90300000000000002</x:v>
+      </x:c>
       <x:c r="E20" s="2">
         <x:v>0.91100000000000003</x:v>
       </x:c>
       <x:c r="F20" s="1"/>
       <x:c r="G20" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H20" s="2"/>
       <x:c r="I20" s="2">
         <x:v>0.97899999999999998</x:v>
       </x:c>
-      <x:c r="J20" s="2"/>
+      <x:c r="J20" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
       <x:c r="K20" s="2">
         <x:v>0.98099999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:11">
       <x:c r="A21" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B21" s="4"/>
       <x:c r="C21" s="4">
         <x:v>0.55000000000000004</x:v>
       </x:c>
-      <x:c r="D21" s="4"/>
+      <x:c r="D21" s="4">
+        <x:v>0.53700000000000003</x:v>
+      </x:c>
       <x:c r="E21" s="4">
         <x:v>0.53000000000000003</x:v>
       </x:c>
       <x:c r="F21" s="1"/>
       <x:c r="G21" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H21" s="4"/>
       <x:c r="I21" s="4">
         <x:v>0.73499999999999999</x:v>
       </x:c>
-      <x:c r="J21" s="4"/>
+      <x:c r="J21" s="4">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
       <x:c r="K21" s="4">
         <x:v>0.68000000000000005</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:11">
       <x:c r="A22" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B22" s="4"/>
       <x:c r="C22" s="4">
         <x:v>0.56899999999999995</x:v>
       </x:c>
-      <x:c r="D22" s="4"/>
+      <x:c r="D22" s="4">
+        <x:v>0.50900000000000001</x:v>
+      </x:c>
       <x:c r="E22" s="4">
         <x:v>0.53100000000000003</x:v>
       </x:c>
       <x:c r="F22" s="1"/>
       <x:c r="G22" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H22" s="4"/>
       <x:c r="I22" s="4">
         <x:v>0.60599999999999998</x:v>
       </x:c>
-      <x:c r="J22" s="4"/>
+      <x:c r="J22" s="4">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
       <x:c r="K22" s="4">
         <x:v>0.60699999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:11">
       <x:c r="A23" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B23" s="4"/>
       <x:c r="C23" s="4">
         <x:v>0.54800000000000004</x:v>
       </x:c>
-      <x:c r="D23" s="4"/>
+      <x:c r="D23" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
       <x:c r="E23" s="4">
         <x:v>0.58899999999999997</x:v>
       </x:c>
       <x:c r="F23" s="1"/>
       <x:c r="G23" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H23" s="4"/>
       <x:c r="I23" s="4">
         <x:v>0.70699999999999996</x:v>
       </x:c>
-      <x:c r="J23" s="4"/>
+      <x:c r="J23" s="4">
+        <x:v>0.64800000000000002</x:v>
+      </x:c>
       <x:c r="K23" s="4">
         <x:v>0.68100000000000005</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:11">
       <x:c r="A24" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B24" s="6"/>
       <x:c r="C24" s="6">
         <x:v>0.41099999999999998</x:v>
       </x:c>
-      <x:c r="D24" s="6"/>
+      <x:c r="D24" s="6">
+        <x:v>0.39400000000000002</x:v>
+      </x:c>
       <x:c r="E24" s="6">
         <x:v>0.38700000000000001</x:v>
       </x:c>
       <x:c r="F24" s="1"/>
       <x:c r="G24" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H24" s="6"/>
       <x:c r="I24" s="6">
         <x:v>0.52000000000000002</x:v>
       </x:c>
-      <x:c r="J24" s="6"/>
+      <x:c r="J24" s="6">
+        <x:v>0.36099999999999999</x:v>
+      </x:c>
       <x:c r="K24" s="6">
         <x:v>0.435</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:11">
       <x:c r="A25" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B25" s="6"/>
       <x:c r="C25" s="6">
         <x:v>0.58299999999999996</x:v>
       </x:c>
-      <x:c r="D25" s="6"/>
+      <x:c r="D25" s="6">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
       <x:c r="E25" s="6">
         <x:v>0.52200000000000002</x:v>
       </x:c>
       <x:c r="F25" s="1"/>
       <x:c r="G25" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H25" s="6"/>
       <x:c r="I25" s="6">
         <x:v>0.63100000000000001</x:v>
       </x:c>
-      <x:c r="J25" s="6"/>
+      <x:c r="J25" s="6">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
       <x:c r="K25" s="6">
         <x:v>0.59799999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:11">
       <x:c r="A26" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B26" s="6"/>
       <x:c r="C26" s="6">
         <x:v>0.59999999999999998</x:v>
       </x:c>
-      <x:c r="D26" s="6"/>
+      <x:c r="D26" s="6">
+        <x:v>0.48899999999999999</x:v>
+      </x:c>
       <x:c r="E26" s="6">
         <x:v>0.56299999999999994</x:v>
       </x:c>
       <x:c r="F26" s="1"/>
       <x:c r="G26" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="6"/>
       <x:c r="I26" s="6">
         <x:v>0.69099999999999995</x:v>
       </x:c>
-      <x:c r="J26" s="6"/>
+      <x:c r="J26" s="6">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
       <x:c r="K26" s="6">
         <x:v>0.68100000000000005</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:11">
       <x:c r="A27" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B27" s="7"/>
       <x:c r="C27" s="7">
         <x:v>0.56499999999999995</x:v>
       </x:c>
-      <x:c r="D27" s="7"/>
+      <x:c r="D27" s="7">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
       <x:c r="E27" s="7">
         <x:v>0.51900000000000002</x:v>
       </x:c>
       <x:c r="F27" s="1"/>
       <x:c r="G27" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H27" s="7"/>
       <x:c r="I27" s="7">
         <x:v>0.66100000000000003</x:v>
       </x:c>
-      <x:c r="J27" s="7"/>
+      <x:c r="J27" s="7">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
       <x:c r="K27" s="7">
         <x:v>0.61499999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:11">
       <x:c r="A28" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B28" s="7"/>
       <x:c r="C28" s="7">
         <x:v>0.54600000000000004</x:v>
       </x:c>
-      <x:c r="D28" s="7"/>
+      <x:c r="D28" s="7">
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
       <x:c r="E28" s="7">
         <x:v>0.53300000000000003</x:v>
       </x:c>
       <x:c r="F28" s="1"/>
       <x:c r="G28" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H28" s="7"/>
       <x:c r="I28" s="7">
         <x:v>0.61499999999999999</x:v>
       </x:c>
-      <x:c r="J28" s="7"/>
+      <x:c r="J28" s="7">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
       <x:c r="K28" s="7">
         <x:v>0.59999999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:11">
       <x:c r="A29" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B29" s="7"/>
       <x:c r="C29" s="7">
         <x:v>0.55400000000000005</x:v>
       </x:c>
-      <x:c r="D29" s="7"/>
+      <x:c r="D29" s="7">
+        <x:v>0.52800000000000002</x:v>
+      </x:c>
       <x:c r="E29" s="7">
         <x:v>0.54400000000000004</x:v>
       </x:c>
       <x:c r="F29" s="1"/>
       <x:c r="G29" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="7"/>
       <x:c r="I29" s="7">
         <x:v>0.66500000000000004</x:v>
       </x:c>
-      <x:c r="J29" s="7"/>
+      <x:c r="J29" s="7">
+        <x:v>0.61899999999999999</x:v>
+      </x:c>
       <x:c r="K29" s="7">
         <x:v>0.67600000000000005</x:v>
       </x:c>
@@ -1916,7 +2015,7 @@
     <x:mergeCell ref="A17:E17"/>
     <x:mergeCell ref="G17:K17"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/SuHeon/기록.xlsx
+++ b/SuHeon/기록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11430" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,108 +19,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
+  <x:si>
+    <x:t>rf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_angle.joblib</x:t>
+  </x:si>
   <x:si>
     <x:t>rf_model_2D_point.joblib</x:t>
   </x:si>
   <x:si>
+    <x:t>rf_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
     <x:t>rf_model_3D_point.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>rf_model_3D_angle.joblib</x:t>
+    <x:t>xgb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_estimators=200, random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tf=66, GlorotUniform(seed=66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습 정확도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul1_3</x:t>
   </x:si>
   <x:si>
     <x:t>simul3_3</x:t>
   </x:si>
   <x:si>
+    <x:t>simul2_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>simul3_2</x:t>
   </x:si>
   <x:si>
-    <x:t>xgb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_estimators=200, random_state=66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도, 거리</x:t>
+    <x:t>simul2_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simul3_1</x:t>
   </x:si>
   <x:si>
     <x:t>simul1_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul3_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습 정확도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_point.joblib</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -256,13 +265,16 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -305,8 +317,11 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
@@ -1025,133 +1040,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:S52"/>
+  <x:dimension ref="A1:Q52"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="M8" activeCellId="0" sqref="M8:M8"/>
+      <x:selection activeCell="Q16" activeCellId="0" sqref="Q16:Q16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="11.0078125" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="5" width="9.00390625" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="5" width="9.00390625" bestFit="1" customWidth="1"/>
     <x:col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="11" width="9.00390625" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="11" width="9.00390625" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
-      <x:c r="A1" s="9" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B1" s="9"/>
-      <x:c r="C1" s="9"/>
+    <x:row r="1" spans="2:12">
+      <x:c r="B1" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="D1" s="9"/>
       <x:c r="E1" s="9"/>
       <x:c r="F1" s="1"/>
-      <x:c r="G1" s="9" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="9"/>
-      <x:c r="I1" s="9"/>
-      <x:c r="J1" s="9"/>
+      <x:c r="H1" s="1"/>
+      <x:c r="I1" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J1" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="K1" s="9"/>
-    </x:row>
-    <x:row r="2" spans="1:11">
+      <x:c r="L1" s="9"/>
+    </x:row>
+    <x:row r="2" spans="1:12">
       <x:c r="A2" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D2" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E2" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F2" s="1"/>
-      <x:c r="G2" s="10" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="H2" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I2" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J2" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K2" s="10" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:11">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L2" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="F3" s="1"/>
+      <x:c r="H3" s="2"/>
+      <x:c r="I3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:12">
+      <x:c r="A4" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F3" s="1"/>
-      <x:c r="G3" s="2"/>
-      <x:c r="H3" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
+      <x:c r="B4" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F4" s="1"/>
+      <x:c r="G4" s="11"/>
+      <x:c r="H4" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:11">
-      <x:c r="A4" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B4" s="2"/>
-      <x:c r="C4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F4" s="1"/>
-      <x:c r="G4" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H4" s="2"/>
       <x:c r="I4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:11">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:12">
       <x:c r="A5" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B5" s="2"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="2">
+        <x:v>0.81399999999999995</x:v>
+      </x:c>
       <x:c r="C5" s="2">
         <x:v>0.90600000000000003</x:v>
       </x:c>
@@ -1162,25 +1187,29 @@
         <x:v>0.91700000000000004</x:v>
       </x:c>
       <x:c r="F5" s="1"/>
-      <x:c r="G5" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H5" s="2"/>
+      <x:c r="H5" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="I5" s="2">
+        <x:v>0.90800000000000003</x:v>
+      </x:c>
+      <x:c r="J5" s="2">
         <x:v>0.97499999999999998</x:v>
       </x:c>
-      <x:c r="J5" s="2">
+      <x:c r="K5" s="2">
         <x:v>0.97399999999999998</x:v>
       </x:c>
-      <x:c r="K5" s="2">
+      <x:c r="L5" s="2">
         <x:v>0.97899999999999998</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:11">
+    <x:row r="6" spans="1:17">
       <x:c r="A6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B6" s="4"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B6" s="4">
+        <x:v>0.70899999999999996</x:v>
+      </x:c>
       <x:c r="C6" s="4">
         <x:v>0.69299999999999995</x:v>
       </x:c>
@@ -1191,25 +1220,35 @@
         <x:v>0.67800000000000005</x:v>
       </x:c>
       <x:c r="F6" s="1"/>
-      <x:c r="G6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H6" s="4"/>
+      <x:c r="H6" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="I6" s="4">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
+      <x:c r="J6" s="4">
         <x:v>0.66700000000000004</x:v>
       </x:c>
-      <x:c r="J6" s="4">
+      <x:c r="K6" s="4">
         <x:v>0.63100000000000001</x:v>
       </x:c>
-      <x:c r="K6" s="4">
+      <x:c r="L6" s="4">
         <x:v>0.61299999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:11">
+      <x:c r="O6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:17">
       <x:c r="A7" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B7" s="4"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B7" s="4">
+        <x:v>0.63900000000000001</x:v>
+      </x:c>
       <x:c r="C7" s="4">
         <x:v>0.63500000000000001</x:v>
       </x:c>
@@ -1220,25 +1259,35 @@
         <x:v>0.60199999999999998</x:v>
       </x:c>
       <x:c r="F7" s="1"/>
-      <x:c r="G7" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H7" s="4"/>
+      <x:c r="H7" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="I7" s="4">
+        <x:v>0.63700000000000001</x:v>
+      </x:c>
+      <x:c r="J7" s="4">
         <x:v>0.628</x:v>
       </x:c>
-      <x:c r="J7" s="4">
+      <x:c r="K7" s="4">
         <x:v>0.55900000000000005</x:v>
       </x:c>
-      <x:c r="K7" s="4">
+      <x:c r="L7" s="4">
         <x:v>0.53900000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:19">
+      <x:c r="O7" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q7" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:17">
       <x:c r="A8" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B8" s="4"/>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B8" s="4">
+        <x:v>0.65600000000000003</x:v>
+      </x:c>
       <x:c r="C8" s="4">
         <x:v>0.67200000000000004</x:v>
       </x:c>
@@ -1249,28 +1298,35 @@
         <x:v>0.64600000000000002</x:v>
       </x:c>
       <x:c r="F8" s="1"/>
-      <x:c r="G8" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H8" s="4"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="I8" s="4">
+        <x:v>0.64300000000000002</x:v>
+      </x:c>
+      <x:c r="J8" s="4">
         <x:v>0.71299999999999997</x:v>
       </x:c>
-      <x:c r="J8" s="4">
+      <x:c r="K8" s="4">
         <x:v>0.58699999999999997</x:v>
       </x:c>
-      <x:c r="K8" s="4">
+      <x:c r="L8" s="4">
         <x:v>0.62</x:v>
       </x:c>
-      <x:c r="S8" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:19">
+      <x:c r="O8" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q8" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:17">
       <x:c r="A9" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="6"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B9" s="6">
+        <x:v>0.498</x:v>
+      </x:c>
       <x:c r="C9" s="6">
         <x:v>0.48699999999999999</x:v>
       </x:c>
@@ -1281,28 +1337,35 @@
         <x:v>0.44400000000000001</x:v>
       </x:c>
       <x:c r="F9" s="1"/>
-      <x:c r="G9" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H9" s="6"/>
+      <x:c r="H9" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="I9" s="6">
+        <x:v>0.443</x:v>
+      </x:c>
+      <x:c r="J9" s="6">
         <x:v>0.47399999999999998</x:v>
       </x:c>
-      <x:c r="J9" s="6">
+      <x:c r="K9" s="6">
         <x:v>0.40400000000000003</x:v>
       </x:c>
-      <x:c r="K9" s="6">
+      <x:c r="L9" s="6">
         <x:v>0.41999999999999998</x:v>
       </x:c>
-      <x:c r="S9" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:19">
+      <x:c r="O9" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q9" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:17">
       <x:c r="A10" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B10" s="6"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B10" s="6">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
       <x:c r="C10" s="6">
         <x:v>0.55700000000000005</x:v>
       </x:c>
@@ -1313,28 +1376,35 @@
         <x:v>0.51900000000000002</x:v>
       </x:c>
       <x:c r="F10" s="1"/>
-      <x:c r="G10" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H10" s="6"/>
+      <x:c r="H10" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="I10" s="6">
+        <x:v>0.51300000000000001</x:v>
+      </x:c>
+      <x:c r="J10" s="6">
         <x:v>0.61099999999999999</x:v>
       </x:c>
-      <x:c r="J10" s="6">
+      <x:c r="K10" s="6">
         <x:v>0.51900000000000002</x:v>
       </x:c>
-      <x:c r="K10" s="6">
+      <x:c r="L10" s="6">
         <x:v>0.56899999999999995</x:v>
       </x:c>
-      <x:c r="S10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:19">
+      <x:c r="O10" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q10" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:17">
       <x:c r="A11" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B11" s="6"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B11" s="6">
+        <x:v>0.65200000000000002</x:v>
+      </x:c>
       <x:c r="C11" s="6">
         <x:v>0.64800000000000002</x:v>
       </x:c>
@@ -1345,28 +1415,35 @@
         <x:v>0.65400000000000003</x:v>
       </x:c>
       <x:c r="F11" s="1"/>
-      <x:c r="G11" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H11" s="6"/>
+      <x:c r="H11" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="I11" s="6">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+      <x:c r="J11" s="6">
         <x:v>0.67800000000000005</x:v>
       </x:c>
-      <x:c r="J11" s="6">
+      <x:c r="K11" s="6">
         <x:v>0.55700000000000005</x:v>
       </x:c>
-      <x:c r="K11" s="6">
+      <x:c r="L11" s="6">
         <x:v>0.504</x:v>
       </x:c>
-      <x:c r="S11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:11">
+      <x:c r="O11" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q11" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:17">
       <x:c r="A12" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B12" s="7"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B12" s="7">
+        <x:v>0.62</x:v>
+      </x:c>
       <x:c r="C12" s="7">
         <x:v>0.60199999999999998</x:v>
       </x:c>
@@ -1377,25 +1454,35 @@
         <x:v>0.55600000000000005</x:v>
       </x:c>
       <x:c r="F12" s="1"/>
-      <x:c r="G12" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H12" s="7"/>
+      <x:c r="H12" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
       <x:c r="I12" s="7">
+        <x:v>0.60599999999999998</x:v>
+      </x:c>
+      <x:c r="J12" s="7">
         <x:v>0.55400000000000005</x:v>
       </x:c>
-      <x:c r="J12" s="7">
+      <x:c r="K12" s="7">
         <x:v>0.47799999999999998</x:v>
       </x:c>
-      <x:c r="K12" s="7">
+      <x:c r="L12" s="7">
         <x:v>0.50700000000000001</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:11">
+      <x:c r="O12" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q12" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:17">
       <x:c r="A13" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B13" s="7"/>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B13" s="7">
+        <x:v>0.59799999999999998</x:v>
+      </x:c>
       <x:c r="C13" s="7">
         <x:v>0.59599999999999997</x:v>
       </x:c>
@@ -1406,25 +1493,35 @@
         <x:v>0.60699999999999998</x:v>
       </x:c>
       <x:c r="F13" s="1"/>
-      <x:c r="G13" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H13" s="7"/>
+      <x:c r="H13" s="8" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="I13" s="7">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="J13" s="7">
         <x:v>0.64100000000000001</x:v>
       </x:c>
-      <x:c r="J13" s="7">
+      <x:c r="K13" s="7">
         <x:v>0.57999999999999996</x:v>
       </x:c>
-      <x:c r="K13" s="7">
+      <x:c r="L13" s="7">
         <x:v>0.57599999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:11">
+      <x:c r="O13" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q13" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:17">
       <x:c r="A14" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B14" s="7"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B14" s="7">
+        <x:v>0.63500000000000001</x:v>
+      </x:c>
       <x:c r="C14" s="7">
         <x:v>0.63100000000000001</x:v>
       </x:c>
@@ -1435,141 +1532,159 @@
         <x:v>0.61899999999999999</x:v>
       </x:c>
       <x:c r="F14" s="1"/>
-      <x:c r="G14" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H14" s="7"/>
+      <x:c r="H14" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="I14" s="7">
+        <x:v>0.68500000000000005</x:v>
+      </x:c>
+      <x:c r="J14" s="7">
         <x:v>0.64300000000000002</x:v>
       </x:c>
-      <x:c r="J14" s="7">
+      <x:c r="K14" s="7">
         <x:v>0.57599999999999996</x:v>
       </x:c>
-      <x:c r="K14" s="7">
+      <x:c r="L14" s="7">
         <x:v>0.57399999999999995</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="6:11">
+      <x:c r="O14" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q14" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="6:12">
       <x:c r="F15" s="1"/>
-      <x:c r="G15" s="1"/>
       <x:c r="H15" s="1"/>
       <x:c r="I15" s="1"/>
       <x:c r="J15" s="1"/>
       <x:c r="K15" s="1"/>
-    </x:row>
-    <x:row r="16" spans="1:11">
-      <x:c r="A16" s="9" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B16" s="9"/>
-      <x:c r="C16" s="9"/>
+      <x:c r="L15" s="1"/>
+    </x:row>
+    <x:row r="16" spans="1:12">
+      <x:c r="A16" s="1"/>
+      <x:c r="B16" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C16" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="D16" s="9"/>
       <x:c r="E16" s="9"/>
       <x:c r="F16" s="1"/>
-      <x:c r="G16" s="9" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H16" s="9"/>
-      <x:c r="I16" s="9"/>
-      <x:c r="J16" s="9"/>
+      <x:c r="H16" s="1"/>
+      <x:c r="I16" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J16" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="K16" s="9"/>
-    </x:row>
-    <x:row r="17" spans="1:11">
+      <x:c r="L16" s="9"/>
+    </x:row>
+    <x:row r="17" spans="1:12">
       <x:c r="A17" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C17" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E17" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="1"/>
-      <x:c r="G17" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="H17" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I17" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J17" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K17" s="10" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:11">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L17" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:12">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="F18" s="1"/>
+      <x:c r="H18" s="2"/>
+      <x:c r="I18" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J18" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K18" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L18" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:12">
+      <x:c r="A19" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E18" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F18" s="1"/>
-      <x:c r="G18" s="2"/>
-      <x:c r="H18" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I18" s="2" t="s">
+      <x:c r="B19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="1"/>
+      <x:c r="H19" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="J18" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K18" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:11">
-      <x:c r="A19" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B19" s="2"/>
-      <x:c r="C19" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E19" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F19" s="1"/>
-      <x:c r="G19" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H19" s="2"/>
       <x:c r="I19" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J19" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K19" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:11">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L19" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:12">
       <x:c r="A20" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B20" s="2"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B20" s="2">
+        <x:v>0.82399999999999995</x:v>
+      </x:c>
       <x:c r="C20" s="2">
         <x:v>0.89100000000000001</x:v>
       </x:c>
@@ -1580,25 +1695,29 @@
         <x:v>0.91100000000000003</x:v>
       </x:c>
       <x:c r="F20" s="1"/>
-      <x:c r="G20" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H20" s="2"/>
+      <x:c r="H20" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="I20" s="2">
+        <x:v>0.93400000000000005</x:v>
+      </x:c>
+      <x:c r="J20" s="2">
         <x:v>0.97899999999999998</x:v>
-      </x:c>
-      <x:c r="J20" s="2">
-        <x:v>0.98099999999999998</x:v>
       </x:c>
       <x:c r="K20" s="2">
         <x:v>0.98099999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:11">
+      <x:c r="L20" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:17">
       <x:c r="A21" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B21" s="4"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B21" s="4">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
       <x:c r="C21" s="4">
         <x:v>0.55000000000000004</x:v>
       </x:c>
@@ -1609,25 +1728,35 @@
         <x:v>0.53000000000000003</x:v>
       </x:c>
       <x:c r="F21" s="1"/>
-      <x:c r="G21" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H21" s="4"/>
+      <x:c r="H21" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="I21" s="4">
+        <x:v>0.67400000000000004</x:v>
+      </x:c>
+      <x:c r="J21" s="4">
         <x:v>0.73499999999999999</x:v>
       </x:c>
-      <x:c r="J21" s="4">
+      <x:c r="K21" s="4">
         <x:v>0.67600000000000005</x:v>
       </x:c>
-      <x:c r="K21" s="4">
+      <x:c r="L21" s="4">
         <x:v>0.68000000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:11">
+      <x:c r="O21" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q21" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:17">
       <x:c r="A22" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B22" s="4"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B22" s="4">
+        <x:v>0.52400000000000002</x:v>
+      </x:c>
       <x:c r="C22" s="4">
         <x:v>0.56899999999999995</x:v>
       </x:c>
@@ -1638,25 +1767,35 @@
         <x:v>0.53100000000000003</x:v>
       </x:c>
       <x:c r="F22" s="1"/>
-      <x:c r="G22" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H22" s="4"/>
+      <x:c r="H22" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="I22" s="4">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+      <x:c r="J22" s="4">
         <x:v>0.60599999999999998</x:v>
       </x:c>
-      <x:c r="J22" s="4">
+      <x:c r="K22" s="4">
         <x:v>0.53100000000000003</x:v>
       </x:c>
-      <x:c r="K22" s="4">
+      <x:c r="L22" s="4">
         <x:v>0.60699999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:11">
+      <x:c r="O22" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q22" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:17">
       <x:c r="A23" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B23" s="4"/>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B23" s="4">
+        <x:v>0.439</x:v>
+      </x:c>
       <x:c r="C23" s="4">
         <x:v>0.54800000000000004</x:v>
       </x:c>
@@ -1667,25 +1806,35 @@
         <x:v>0.58899999999999997</x:v>
       </x:c>
       <x:c r="F23" s="1"/>
-      <x:c r="G23" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H23" s="4"/>
+      <x:c r="H23" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="I23" s="4">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="J23" s="4">
         <x:v>0.70699999999999996</x:v>
       </x:c>
-      <x:c r="J23" s="4">
+      <x:c r="K23" s="4">
         <x:v>0.64800000000000002</x:v>
       </x:c>
-      <x:c r="K23" s="4">
+      <x:c r="L23" s="4">
         <x:v>0.68100000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:11">
+      <x:c r="O23" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q23" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:17">
       <x:c r="A24" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B24" s="6"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B24" s="6">
+        <x:v>0.35699999999999998</x:v>
+      </x:c>
       <x:c r="C24" s="6">
         <x:v>0.41099999999999998</x:v>
       </x:c>
@@ -1696,25 +1845,35 @@
         <x:v>0.38700000000000001</x:v>
       </x:c>
       <x:c r="F24" s="1"/>
-      <x:c r="G24" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H24" s="6"/>
+      <x:c r="H24" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="I24" s="6">
+        <x:v>0.41099999999999998</x:v>
+      </x:c>
+      <x:c r="J24" s="6">
         <x:v>0.52000000000000002</x:v>
       </x:c>
-      <x:c r="J24" s="6">
+      <x:c r="K24" s="6">
         <x:v>0.36099999999999999</x:v>
       </x:c>
-      <x:c r="K24" s="6">
+      <x:c r="L24" s="6">
         <x:v>0.435</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:11">
+      <x:c r="O24" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q24" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:17">
       <x:c r="A25" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B25" s="6"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B25" s="6">
+        <x:v>0.49399999999999999</x:v>
+      </x:c>
       <x:c r="C25" s="6">
         <x:v>0.58299999999999996</x:v>
       </x:c>
@@ -1725,25 +1884,35 @@
         <x:v>0.52200000000000002</x:v>
       </x:c>
       <x:c r="F25" s="1"/>
-      <x:c r="G25" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H25" s="6"/>
+      <x:c r="H25" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="I25" s="6">
+        <x:v>0.56499999999999995</x:v>
+      </x:c>
+      <x:c r="J25" s="6">
         <x:v>0.63100000000000001</x:v>
       </x:c>
-      <x:c r="J25" s="6">
+      <x:c r="K25" s="6">
         <x:v>0.57999999999999996</x:v>
       </x:c>
-      <x:c r="K25" s="6">
+      <x:c r="L25" s="6">
         <x:v>0.59799999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:11">
+      <x:c r="O25" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q25" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:17">
       <x:c r="A26" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B26" s="6"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B26" s="6">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
       <x:c r="C26" s="6">
         <x:v>0.59999999999999998</x:v>
       </x:c>
@@ -1754,25 +1923,35 @@
         <x:v>0.56299999999999994</x:v>
       </x:c>
       <x:c r="F26" s="1"/>
-      <x:c r="G26" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H26" s="6"/>
+      <x:c r="H26" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="I26" s="6">
+        <x:v>0.626</x:v>
+      </x:c>
+      <x:c r="J26" s="6">
         <x:v>0.69099999999999995</x:v>
       </x:c>
-      <x:c r="J26" s="6">
+      <x:c r="K26" s="6">
         <x:v>0.60899999999999999</x:v>
       </x:c>
-      <x:c r="K26" s="6">
+      <x:c r="L26" s="6">
         <x:v>0.68100000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:11">
+      <x:c r="O26" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q26" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:17">
       <x:c r="A27" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B27" s="7"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B27" s="7">
+        <x:v>0.504</x:v>
+      </x:c>
       <x:c r="C27" s="7">
         <x:v>0.56499999999999995</x:v>
       </x:c>
@@ -1783,25 +1962,35 @@
         <x:v>0.51900000000000002</x:v>
       </x:c>
       <x:c r="F27" s="1"/>
-      <x:c r="G27" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H27" s="7"/>
+      <x:c r="H27" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
       <x:c r="I27" s="7">
+        <x:v>0.56999999999999995</x:v>
+      </x:c>
+      <x:c r="J27" s="7">
         <x:v>0.66100000000000003</x:v>
       </x:c>
-      <x:c r="J27" s="7">
+      <x:c r="K27" s="7">
         <x:v>0.57999999999999996</x:v>
       </x:c>
-      <x:c r="K27" s="7">
+      <x:c r="L27" s="7">
         <x:v>0.61499999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:11">
+      <x:c r="O27" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q27" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:17">
       <x:c r="A28" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B28" s="7"/>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B28" s="7">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
       <x:c r="C28" s="7">
         <x:v>0.54600000000000004</x:v>
       </x:c>
@@ -1812,25 +2001,35 @@
         <x:v>0.53300000000000003</x:v>
       </x:c>
       <x:c r="F28" s="1"/>
-      <x:c r="G28" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H28" s="7"/>
+      <x:c r="H28" s="8" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="I28" s="7">
+        <x:v>0.59399999999999997</x:v>
+      </x:c>
+      <x:c r="J28" s="7">
         <x:v>0.61499999999999999</x:v>
       </x:c>
-      <x:c r="J28" s="7">
+      <x:c r="K28" s="7">
         <x:v>0.55900000000000005</x:v>
       </x:c>
-      <x:c r="K28" s="7">
+      <x:c r="L28" s="7">
         <x:v>0.59999999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:11">
+      <x:c r="O28" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q28" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:17">
       <x:c r="A29" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B29" s="7"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B29" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
       <x:c r="C29" s="7">
         <x:v>0.55400000000000005</x:v>
       </x:c>
@@ -1841,18 +2040,26 @@
         <x:v>0.54400000000000004</x:v>
       </x:c>
       <x:c r="F29" s="1"/>
-      <x:c r="G29" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H29" s="7"/>
+      <x:c r="H29" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="I29" s="7">
+        <x:v>0.63900000000000001</x:v>
+      </x:c>
+      <x:c r="J29" s="7">
         <x:v>0.66500000000000004</x:v>
       </x:c>
-      <x:c r="J29" s="7">
+      <x:c r="K29" s="7">
         <x:v>0.61899999999999999</x:v>
       </x:c>
-      <x:c r="K29" s="7">
+      <x:c r="L29" s="7">
         <x:v>0.67600000000000005</x:v>
+      </x:c>
+      <x:c r="O29" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q29" s="2" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -2006,14 +2213,14 @@
     </x:row>
   </x:sheetData>
   <x:mergeCells count="8">
-    <x:mergeCell ref="A1:E1"/>
-    <x:mergeCell ref="G1:K1"/>
+    <x:mergeCell ref="C1:E1"/>
+    <x:mergeCell ref="J1:L1"/>
     <x:mergeCell ref="A2:E2"/>
-    <x:mergeCell ref="G2:K2"/>
-    <x:mergeCell ref="A16:E16"/>
-    <x:mergeCell ref="G16:K16"/>
+    <x:mergeCell ref="H2:L2"/>
+    <x:mergeCell ref="C16:E16"/>
+    <x:mergeCell ref="J16:L16"/>
     <x:mergeCell ref="A17:E17"/>
-    <x:mergeCell ref="G17:K17"/>
+    <x:mergeCell ref="H17:L17"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/SuHeon/기록.xlsx
+++ b/SuHeon/기록.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+  <x:si>
+    <x:t>n_estimators=200, random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb</x:t>
+  </x:si>
   <x:si>
     <x:t>rf</x:t>
   </x:si>
@@ -27,109 +33,103 @@
     <x:t>dnn</x:t>
   </x:si>
   <x:si>
-    <x:t>xgb</x:t>
+    <x:t>모델파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습 정확도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_point.joblib</x:t>
   </x:si>
   <x:si>
     <x:t>xgb_model_3D_angle.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>xgb_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_3D_angle.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_3D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_angle.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_angle.joblib</x:t>
+    <x:t>lgbm_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_point.joblib</x:t>
   </x:si>
   <x:si>
     <x:t>rf_model_3D_point.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>xgb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
     <x:t>lgbm_model_3D_angle.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>lgbm_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_estimators=200, random_state=66</x:t>
+    <x:t>test1_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도, 거리</x:t>
   </x:si>
   <x:si>
     <x:t>tf=66, GlorotUniform(seed=66)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습 정확도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul3_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul3_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul2_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul3_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simul1_2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -179,7 +179,7 @@
       <x:b val="1"/>
     </x:font>
   </x:fonts>
-  <x:fills count="10">
+  <x:fills count="11">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -234,6 +234,12 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffff00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="2">
     <x:border>
@@ -265,16 +271,13 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="12">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -317,11 +320,11 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="2">
+  <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
@@ -1040,139 +1043,81 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:Q52"/>
+  <x:dimension ref="A1:E59"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="Q16" activeCellId="0" sqref="Q16:Q16"/>
+      <x:selection activeCell="C36" activeCellId="0" sqref="C36:C36"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="11.0078125" bestFit="1" customWidth="1"/>
     <x:col min="2" max="5" width="9.00390625" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="11" width="9.00390625" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="15" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="2:12">
+    <x:row r="1" spans="2:5">
       <x:c r="B1" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C1" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D1" s="9"/>
       <x:c r="E1" s="9"/>
-      <x:c r="F1" s="1"/>
-      <x:c r="H1" s="1"/>
-      <x:c r="I1" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J1" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K1" s="9"/>
-      <x:c r="L1" s="9"/>
-    </x:row>
-    <x:row r="2" spans="1:12">
+    </x:row>
+    <x:row r="2" spans="1:5">
       <x:c r="A2" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E2" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F2" s="1"/>
-      <x:c r="H2" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I2" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J2" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K2" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L2" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:12">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="E3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F3" s="1"/>
-      <x:c r="H3" s="2"/>
-      <x:c r="I3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="A4" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F4" s="1"/>
-      <x:c r="G4" s="11"/>
-      <x:c r="H4" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I4" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J4" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L4" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:12">
+    </x:row>
+    <x:row r="5" spans="1:5">
       <x:c r="A5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2">
         <x:v>0.81399999999999995</x:v>
@@ -1186,28 +1131,12 @@
       <x:c r="E5" s="2">
         <x:v>0.91700000000000004</x:v>
       </x:c>
-      <x:c r="F5" s="1"/>
-      <x:c r="H5" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I5" s="2">
-        <x:v>0.90800000000000003</x:v>
-      </x:c>
-      <x:c r="J5" s="2">
-        <x:v>0.97499999999999998</x:v>
-      </x:c>
-      <x:c r="K5" s="2">
-        <x:v>0.97399999999999998</x:v>
-      </x:c>
-      <x:c r="L5" s="2">
-        <x:v>0.97899999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:17">
+    </x:row>
+    <x:row r="6" spans="1:5">
       <x:c r="A6" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B6" s="4">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="11">
         <x:v>0.70899999999999996</x:v>
       </x:c>
       <x:c r="C6" s="4">
@@ -1219,34 +1148,12 @@
       <x:c r="E6" s="4">
         <x:v>0.67800000000000005</x:v>
       </x:c>
-      <x:c r="F6" s="1"/>
-      <x:c r="H6" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I6" s="4">
-        <x:v>0.67600000000000005</x:v>
-      </x:c>
-      <x:c r="J6" s="4">
-        <x:v>0.66700000000000004</x:v>
-      </x:c>
-      <x:c r="K6" s="4">
-        <x:v>0.63100000000000001</x:v>
-      </x:c>
-      <x:c r="L6" s="4">
-        <x:v>0.61299999999999999</x:v>
-      </x:c>
-      <x:c r="O6" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q6" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:17">
+    </x:row>
+    <x:row r="7" spans="1:5">
       <x:c r="A7" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B7" s="4">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B7" s="11">
         <x:v>0.63900000000000001</x:v>
       </x:c>
       <x:c r="C7" s="4">
@@ -1258,37 +1165,15 @@
       <x:c r="E7" s="4">
         <x:v>0.60199999999999998</x:v>
       </x:c>
-      <x:c r="F7" s="1"/>
-      <x:c r="H7" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I7" s="4">
-        <x:v>0.63700000000000001</x:v>
-      </x:c>
-      <x:c r="J7" s="4">
-        <x:v>0.628</x:v>
-      </x:c>
-      <x:c r="K7" s="4">
-        <x:v>0.55900000000000005</x:v>
-      </x:c>
-      <x:c r="L7" s="4">
-        <x:v>0.53900000000000003</x:v>
-      </x:c>
-      <x:c r="O7" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q7" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:17">
+    </x:row>
+    <x:row r="8" spans="1:5">
       <x:c r="A8" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B8" s="4">
         <x:v>0.65600000000000003</x:v>
       </x:c>
-      <x:c r="C8" s="4">
+      <x:c r="C8" s="11">
         <x:v>0.67200000000000004</x:v>
       </x:c>
       <x:c r="D8" s="4">
@@ -1297,34 +1182,12 @@
       <x:c r="E8" s="4">
         <x:v>0.64600000000000002</x:v>
       </x:c>
-      <x:c r="F8" s="1"/>
-      <x:c r="H8" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I8" s="4">
-        <x:v>0.64300000000000002</x:v>
-      </x:c>
-      <x:c r="J8" s="4">
-        <x:v>0.71299999999999997</x:v>
-      </x:c>
-      <x:c r="K8" s="4">
-        <x:v>0.58699999999999997</x:v>
-      </x:c>
-      <x:c r="L8" s="4">
-        <x:v>0.62</x:v>
-      </x:c>
-      <x:c r="O8" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q8" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:17">
+    </x:row>
+    <x:row r="9" spans="1:5">
       <x:c r="A9" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B9" s="6">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B9" s="11">
         <x:v>0.498</x:v>
       </x:c>
       <x:c r="C9" s="6">
@@ -1336,34 +1199,12 @@
       <x:c r="E9" s="6">
         <x:v>0.44400000000000001</x:v>
       </x:c>
-      <x:c r="F9" s="1"/>
-      <x:c r="H9" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I9" s="6">
-        <x:v>0.443</x:v>
-      </x:c>
-      <x:c r="J9" s="6">
-        <x:v>0.47399999999999998</x:v>
-      </x:c>
-      <x:c r="K9" s="6">
-        <x:v>0.40400000000000003</x:v>
-      </x:c>
-      <x:c r="L9" s="6">
-        <x:v>0.41999999999999998</x:v>
-      </x:c>
-      <x:c r="O9" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:17">
+    </x:row>
+    <x:row r="10" spans="1:5">
       <x:c r="A10" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B10" s="6">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B10" s="11">
         <x:v>0.60899999999999999</x:v>
       </x:c>
       <x:c r="C10" s="6">
@@ -1375,32 +1216,10 @@
       <x:c r="E10" s="6">
         <x:v>0.51900000000000002</x:v>
       </x:c>
-      <x:c r="F10" s="1"/>
-      <x:c r="H10" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I10" s="6">
-        <x:v>0.51300000000000001</x:v>
-      </x:c>
-      <x:c r="J10" s="6">
-        <x:v>0.61099999999999999</x:v>
-      </x:c>
-      <x:c r="K10" s="6">
-        <x:v>0.51900000000000002</x:v>
-      </x:c>
-      <x:c r="L10" s="6">
-        <x:v>0.56899999999999995</x:v>
-      </x:c>
-      <x:c r="O10" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q10" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:17">
+    </x:row>
+    <x:row r="11" spans="1:5">
       <x:c r="A11" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>0.65200000000000002</x:v>
@@ -1411,37 +1230,15 @@
       <x:c r="D11" s="6">
         <x:v>0.65200000000000002</x:v>
       </x:c>
-      <x:c r="E11" s="6">
+      <x:c r="E11" s="11">
         <x:v>0.65400000000000003</x:v>
       </x:c>
-      <x:c r="F11" s="1"/>
-      <x:c r="H11" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I11" s="6">
-        <x:v>0.61299999999999999</x:v>
-      </x:c>
-      <x:c r="J11" s="6">
-        <x:v>0.67800000000000005</x:v>
-      </x:c>
-      <x:c r="K11" s="6">
-        <x:v>0.55700000000000005</x:v>
-      </x:c>
-      <x:c r="L11" s="6">
-        <x:v>0.504</x:v>
-      </x:c>
-      <x:c r="O11" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q11" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:17">
+    </x:row>
+    <x:row r="12" spans="1:5">
       <x:c r="A12" s="8" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B12" s="7">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="11">
         <x:v>0.62</x:v>
       </x:c>
       <x:c r="C12" s="7">
@@ -1453,32 +1250,10 @@
       <x:c r="E12" s="7">
         <x:v>0.55600000000000005</x:v>
       </x:c>
-      <x:c r="F12" s="1"/>
-      <x:c r="H12" s="8" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I12" s="7">
-        <x:v>0.60599999999999998</x:v>
-      </x:c>
-      <x:c r="J12" s="7">
-        <x:v>0.55400000000000005</x:v>
-      </x:c>
-      <x:c r="K12" s="7">
-        <x:v>0.47799999999999998</x:v>
-      </x:c>
-      <x:c r="L12" s="7">
-        <x:v>0.50700000000000001</x:v>
-      </x:c>
-      <x:c r="O12" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q12" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:17">
+    </x:row>
+    <x:row r="13" spans="1:5">
       <x:c r="A13" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="7">
         <x:v>0.59799999999999998</x:v>
@@ -1489,37 +1264,15 @@
       <x:c r="D13" s="7">
         <x:v>0.59399999999999997</x:v>
       </x:c>
-      <x:c r="E13" s="7">
+      <x:c r="E13" s="11">
         <x:v>0.60699999999999998</x:v>
       </x:c>
-      <x:c r="F13" s="1"/>
-      <x:c r="H13" s="8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I13" s="7">
-        <x:v>0.61699999999999999</x:v>
-      </x:c>
-      <x:c r="J13" s="7">
-        <x:v>0.64100000000000001</x:v>
-      </x:c>
-      <x:c r="K13" s="7">
-        <x:v>0.57999999999999996</x:v>
-      </x:c>
-      <x:c r="L13" s="7">
-        <x:v>0.57599999999999996</x:v>
-      </x:c>
-      <x:c r="O13" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q13" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:17">
+    </x:row>
+    <x:row r="14" spans="1:5">
       <x:c r="A14" s="8" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B14" s="7">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="11">
         <x:v>0.63500000000000001</x:v>
       </x:c>
       <x:c r="C14" s="7">
@@ -1531,696 +1284,721 @@
       <x:c r="E14" s="7">
         <x:v>0.61899999999999999</x:v>
       </x:c>
-      <x:c r="F14" s="1"/>
-      <x:c r="H14" s="8" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I14" s="7">
-        <x:v>0.68500000000000005</x:v>
-      </x:c>
-      <x:c r="J14" s="7">
-        <x:v>0.64300000000000002</x:v>
-      </x:c>
-      <x:c r="K14" s="7">
-        <x:v>0.57599999999999996</x:v>
-      </x:c>
-      <x:c r="L14" s="7">
-        <x:v>0.57399999999999995</x:v>
-      </x:c>
-      <x:c r="O14" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q14" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="6:12">
-      <x:c r="F15" s="1"/>
-      <x:c r="H15" s="1"/>
-      <x:c r="I15" s="1"/>
-      <x:c r="J15" s="1"/>
-      <x:c r="K15" s="1"/>
-      <x:c r="L15" s="1"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
+    </x:row>
+    <x:row r="16" spans="1:5">
       <x:c r="A16" s="1"/>
       <x:c r="B16" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C16" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D16" s="9"/>
       <x:c r="E16" s="9"/>
-      <x:c r="F16" s="1"/>
-      <x:c r="H16" s="1"/>
-      <x:c r="I16" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J16" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K16" s="9"/>
-      <x:c r="L16" s="9"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
+    </x:row>
+    <x:row r="17" spans="1:5">
       <x:c r="A17" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C17" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E17" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F17" s="1"/>
-      <x:c r="H17" s="10" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I17" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J17" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K17" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L17" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:12">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F18" s="1"/>
-      <x:c r="H18" s="2"/>
-      <x:c r="I18" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J18" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K18" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L18" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:12">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
       <x:c r="A19" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="B20" s="2">
+        <x:v>0.90800000000000003</x:v>
+      </x:c>
+      <x:c r="C20" s="2">
+        <x:v>0.97499999999999998</x:v>
+      </x:c>
+      <x:c r="D20" s="2">
+        <x:v>0.97399999999999998</x:v>
+      </x:c>
+      <x:c r="E20" s="2">
+        <x:v>0.97899999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E19" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F19" s="1"/>
-      <x:c r="H19" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I19" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J19" s="2" t="s">
+      <x:c r="B21" s="11">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
+      <x:c r="C21" s="4">
+        <x:v>0.66700000000000004</x:v>
+      </x:c>
+      <x:c r="D21" s="4">
+        <x:v>0.63100000000000001</x:v>
+      </x:c>
+      <x:c r="E21" s="4">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B22" s="11">
+        <x:v>0.63700000000000001</x:v>
+      </x:c>
+      <x:c r="C22" s="4">
+        <x:v>0.628</x:v>
+      </x:c>
+      <x:c r="D22" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="E22" s="4">
+        <x:v>0.53900000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B23" s="4">
+        <x:v>0.64300000000000002</x:v>
+      </x:c>
+      <x:c r="C23" s="11">
+        <x:v>0.71299999999999997</x:v>
+      </x:c>
+      <x:c r="D23" s="4">
+        <x:v>0.58699999999999997</x:v>
+      </x:c>
+      <x:c r="E23" s="4">
+        <x:v>0.62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B24" s="6">
+        <x:v>0.443</x:v>
+      </x:c>
+      <x:c r="C24" s="11">
+        <x:v>0.47399999999999998</x:v>
+      </x:c>
+      <x:c r="D24" s="6">
+        <x:v>0.40400000000000003</x:v>
+      </x:c>
+      <x:c r="E24" s="6">
+        <x:v>0.41999999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B25" s="6">
+        <x:v>0.51300000000000001</x:v>
+      </x:c>
+      <x:c r="C25" s="11">
+        <x:v>0.61099999999999999</x:v>
+      </x:c>
+      <x:c r="D25" s="6">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
+      <x:c r="E25" s="6">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B26" s="6">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+      <x:c r="C26" s="11">
+        <x:v>0.67800000000000005</x:v>
+      </x:c>
+      <x:c r="D26" s="6">
+        <x:v>0.55700000000000005</x:v>
+      </x:c>
+      <x:c r="E26" s="6">
+        <x:v>0.504</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="K19" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L19" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:12">
-      <x:c r="A20" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B20" s="2">
-        <x:v>0.82399999999999995</x:v>
-      </x:c>
-      <x:c r="C20" s="2">
-        <x:v>0.89100000000000001</x:v>
-      </x:c>
-      <x:c r="D20" s="2">
-        <x:v>0.90300000000000002</x:v>
-      </x:c>
-      <x:c r="E20" s="2">
-        <x:v>0.91100000000000003</x:v>
-      </x:c>
-      <x:c r="F20" s="1"/>
-      <x:c r="H20" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I20" s="2">
-        <x:v>0.93400000000000005</x:v>
-      </x:c>
-      <x:c r="J20" s="2">
-        <x:v>0.97899999999999998</x:v>
-      </x:c>
-      <x:c r="K20" s="2">
-        <x:v>0.98099999999999998</x:v>
-      </x:c>
-      <x:c r="L20" s="2">
-        <x:v>0.98099999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:17">
-      <x:c r="A21" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B21" s="4">
-        <x:v>0.54400000000000004</x:v>
-      </x:c>
-      <x:c r="C21" s="4">
-        <x:v>0.55000000000000004</x:v>
-      </x:c>
-      <x:c r="D21" s="4">
-        <x:v>0.53700000000000003</x:v>
-      </x:c>
-      <x:c r="E21" s="4">
-        <x:v>0.53000000000000003</x:v>
-      </x:c>
-      <x:c r="F21" s="1"/>
-      <x:c r="H21" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I21" s="4">
-        <x:v>0.67400000000000004</x:v>
-      </x:c>
-      <x:c r="J21" s="4">
-        <x:v>0.73499999999999999</x:v>
-      </x:c>
-      <x:c r="K21" s="4">
-        <x:v>0.67600000000000005</x:v>
-      </x:c>
-      <x:c r="L21" s="4">
-        <x:v>0.68000000000000005</x:v>
-      </x:c>
-      <x:c r="O21" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q21" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:17">
-      <x:c r="A22" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B22" s="4">
-        <x:v>0.52400000000000002</x:v>
-      </x:c>
-      <x:c r="C22" s="4">
-        <x:v>0.56899999999999995</x:v>
-      </x:c>
-      <x:c r="D22" s="4">
-        <x:v>0.50900000000000001</x:v>
-      </x:c>
-      <x:c r="E22" s="4">
-        <x:v>0.53100000000000003</x:v>
-      </x:c>
-      <x:c r="F22" s="1"/>
-      <x:c r="H22" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I22" s="4">
-        <x:v>0.61299999999999999</x:v>
-      </x:c>
-      <x:c r="J22" s="4">
+      <x:c r="B27" s="11">
         <x:v>0.60599999999999998</x:v>
       </x:c>
-      <x:c r="K22" s="4">
-        <x:v>0.53100000000000003</x:v>
-      </x:c>
-      <x:c r="L22" s="4">
-        <x:v>0.60699999999999998</x:v>
-      </x:c>
-      <x:c r="O22" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q22" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:17">
-      <x:c r="A23" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B23" s="4">
-        <x:v>0.439</x:v>
-      </x:c>
-      <x:c r="C23" s="4">
-        <x:v>0.54800000000000004</x:v>
-      </x:c>
-      <x:c r="D23" s="4">
-        <x:v>0.55900000000000005</x:v>
-      </x:c>
-      <x:c r="E23" s="4">
-        <x:v>0.58899999999999997</x:v>
-      </x:c>
-      <x:c r="F23" s="1"/>
-      <x:c r="H23" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I23" s="4">
+      <x:c r="C27" s="7">
+        <x:v>0.55400000000000005</x:v>
+      </x:c>
+      <x:c r="D27" s="7">
+        <x:v>0.47799999999999998</x:v>
+      </x:c>
+      <x:c r="E27" s="7">
+        <x:v>0.50700000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="8" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B28" s="7">
         <x:v>0.61699999999999999</x:v>
       </x:c>
-      <x:c r="J23" s="4">
-        <x:v>0.70699999999999996</x:v>
-      </x:c>
-      <x:c r="K23" s="4">
-        <x:v>0.64800000000000002</x:v>
-      </x:c>
-      <x:c r="L23" s="4">
-        <x:v>0.68100000000000005</x:v>
-      </x:c>
-      <x:c r="O23" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q23" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:17">
-      <x:c r="A24" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B24" s="6">
-        <x:v>0.35699999999999998</x:v>
-      </x:c>
-      <x:c r="C24" s="6">
-        <x:v>0.41099999999999998</x:v>
-      </x:c>
-      <x:c r="D24" s="6">
-        <x:v>0.39400000000000002</x:v>
-      </x:c>
-      <x:c r="E24" s="6">
-        <x:v>0.38700000000000001</x:v>
-      </x:c>
-      <x:c r="F24" s="1"/>
-      <x:c r="H24" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I24" s="6">
-        <x:v>0.41099999999999998</x:v>
-      </x:c>
-      <x:c r="J24" s="6">
-        <x:v>0.52000000000000002</x:v>
-      </x:c>
-      <x:c r="K24" s="6">
-        <x:v>0.36099999999999999</x:v>
-      </x:c>
-      <x:c r="L24" s="6">
-        <x:v>0.435</x:v>
-      </x:c>
-      <x:c r="O24" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q24" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:17">
-      <x:c r="A25" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B25" s="6">
-        <x:v>0.49399999999999999</x:v>
-      </x:c>
-      <x:c r="C25" s="6">
-        <x:v>0.58299999999999996</x:v>
-      </x:c>
-      <x:c r="D25" s="6">
-        <x:v>0.51700000000000002</x:v>
-      </x:c>
-      <x:c r="E25" s="6">
-        <x:v>0.52200000000000002</x:v>
-      </x:c>
-      <x:c r="F25" s="1"/>
-      <x:c r="H25" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I25" s="6">
-        <x:v>0.56499999999999995</x:v>
-      </x:c>
-      <x:c r="J25" s="6">
-        <x:v>0.63100000000000001</x:v>
-      </x:c>
-      <x:c r="K25" s="6">
+      <x:c r="C28" s="11">
+        <x:v>0.64100000000000001</x:v>
+      </x:c>
+      <x:c r="D28" s="7">
         <x:v>0.57999999999999996</x:v>
       </x:c>
-      <x:c r="L25" s="6">
-        <x:v>0.59799999999999998</x:v>
-      </x:c>
-      <x:c r="O25" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q25" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:17">
-      <x:c r="A26" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B26" s="6">
-        <x:v>0.51700000000000002</x:v>
-      </x:c>
-      <x:c r="C26" s="6">
-        <x:v>0.59999999999999998</x:v>
-      </x:c>
-      <x:c r="D26" s="6">
-        <x:v>0.48899999999999999</x:v>
-      </x:c>
-      <x:c r="E26" s="6">
-        <x:v>0.56299999999999994</x:v>
-      </x:c>
-      <x:c r="F26" s="1"/>
-      <x:c r="H26" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I26" s="6">
-        <x:v>0.626</x:v>
-      </x:c>
-      <x:c r="J26" s="6">
-        <x:v>0.69099999999999995</x:v>
-      </x:c>
-      <x:c r="K26" s="6">
-        <x:v>0.60899999999999999</x:v>
-      </x:c>
-      <x:c r="L26" s="6">
-        <x:v>0.68100000000000005</x:v>
-      </x:c>
-      <x:c r="O26" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q26" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:17">
-      <x:c r="A27" s="8" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B27" s="7">
-        <x:v>0.504</x:v>
-      </x:c>
-      <x:c r="C27" s="7">
-        <x:v>0.56499999999999995</x:v>
-      </x:c>
-      <x:c r="D27" s="7">
-        <x:v>0.53300000000000003</x:v>
-      </x:c>
-      <x:c r="E27" s="7">
-        <x:v>0.51900000000000002</x:v>
-      </x:c>
-      <x:c r="F27" s="1"/>
-      <x:c r="H27" s="8" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I27" s="7">
-        <x:v>0.56999999999999995</x:v>
-      </x:c>
-      <x:c r="J27" s="7">
-        <x:v>0.66100000000000003</x:v>
-      </x:c>
-      <x:c r="K27" s="7">
-        <x:v>0.57999999999999996</x:v>
-      </x:c>
-      <x:c r="L27" s="7">
-        <x:v>0.61499999999999999</x:v>
-      </x:c>
-      <x:c r="O27" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q27" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:17">
-      <x:c r="A28" s="8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B28" s="7">
-        <x:v>0.51700000000000002</x:v>
-      </x:c>
-      <x:c r="C28" s="7">
-        <x:v>0.54600000000000004</x:v>
-      </x:c>
-      <x:c r="D28" s="7">
-        <x:v>0.53000000000000003</x:v>
-      </x:c>
       <x:c r="E28" s="7">
-        <x:v>0.53300000000000003</x:v>
-      </x:c>
-      <x:c r="F28" s="1"/>
-      <x:c r="H28" s="8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I28" s="7">
-        <x:v>0.59399999999999997</x:v>
-      </x:c>
-      <x:c r="J28" s="7">
-        <x:v>0.61499999999999999</x:v>
-      </x:c>
-      <x:c r="K28" s="7">
-        <x:v>0.55900000000000005</x:v>
-      </x:c>
-      <x:c r="L28" s="7">
-        <x:v>0.59999999999999998</x:v>
-      </x:c>
-      <x:c r="O28" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q28" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:17">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
       <x:c r="A29" s="8" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B29" s="7">
-        <x:v>0.54400000000000004</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B29" s="11">
+        <x:v>0.68500000000000005</x:v>
       </x:c>
       <x:c r="C29" s="7">
-        <x:v>0.55400000000000005</x:v>
+        <x:v>0.64300000000000002</x:v>
       </x:c>
       <x:c r="D29" s="7">
-        <x:v>0.52800000000000002</x:v>
+        <x:v>0.57599999999999996</x:v>
       </x:c>
       <x:c r="E29" s="7">
-        <x:v>0.54400000000000004</x:v>
-      </x:c>
-      <x:c r="F29" s="1"/>
-      <x:c r="H29" s="8" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I29" s="7">
-        <x:v>0.63900000000000001</x:v>
-      </x:c>
-      <x:c r="J29" s="7">
-        <x:v>0.66500000000000004</x:v>
-      </x:c>
-      <x:c r="K29" s="7">
-        <x:v>0.61899999999999999</x:v>
-      </x:c>
-      <x:c r="L29" s="7">
-        <x:v>0.67600000000000005</x:v>
-      </x:c>
-      <x:c r="O29" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q29" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:6">
+        <x:v>0.57399999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
       <x:c r="A30" s="1"/>
       <x:c r="B30" s="1"/>
       <x:c r="C30" s="1"/>
       <x:c r="D30" s="1"/>
       <x:c r="E30" s="1"/>
-      <x:c r="F30" s="1"/>
-    </x:row>
-    <x:row r="31" spans="1:6">
+    </x:row>
+    <x:row r="31" spans="1:5">
       <x:c r="A31" s="1"/>
-      <x:c r="B31" s="1"/>
-      <x:c r="C31" s="1"/>
-      <x:c r="D31" s="1"/>
-      <x:c r="E31" s="1"/>
-      <x:c r="F31" s="1"/>
-    </x:row>
-    <x:row r="32" spans="1:6">
-      <x:c r="A32" s="1"/>
-      <x:c r="B32" s="1"/>
-      <x:c r="C32" s="1"/>
-      <x:c r="D32" s="1"/>
-      <x:c r="E32" s="1"/>
-      <x:c r="F32" s="1"/>
-    </x:row>
-    <x:row r="33" spans="1:6">
-      <x:c r="A33" s="1"/>
-      <x:c r="B33" s="1"/>
-      <x:c r="C33" s="1"/>
-      <x:c r="D33" s="1"/>
-      <x:c r="E33" s="1"/>
-      <x:c r="F33" s="1"/>
-    </x:row>
-    <x:row r="34" spans="1:6">
-      <x:c r="A34" s="1"/>
-      <x:c r="B34" s="1"/>
-      <x:c r="C34" s="1"/>
-      <x:c r="D34" s="1"/>
-      <x:c r="E34" s="1"/>
-      <x:c r="F34" s="1"/>
-    </x:row>
-    <x:row r="35" spans="1:6">
-      <x:c r="A35" s="1"/>
-      <x:c r="B35" s="1"/>
-      <x:c r="C35" s="1"/>
-      <x:c r="D35" s="1"/>
-      <x:c r="E35" s="1"/>
-      <x:c r="F35" s="1"/>
-    </x:row>
-    <x:row r="36" spans="1:6">
-      <x:c r="A36" s="1"/>
-      <x:c r="B36" s="1"/>
-      <x:c r="C36" s="1"/>
-      <x:c r="D36" s="1"/>
-      <x:c r="E36" s="1"/>
-      <x:c r="F36" s="1"/>
-    </x:row>
-    <x:row r="37" spans="1:6">
-      <x:c r="A37" s="1"/>
-      <x:c r="B37" s="1"/>
-      <x:c r="C37" s="1"/>
-      <x:c r="D37" s="1"/>
-      <x:c r="E37" s="1"/>
-      <x:c r="F37" s="1"/>
-    </x:row>
-    <x:row r="38" spans="1:6">
-      <x:c r="A38" s="1"/>
-      <x:c r="B38" s="1"/>
-      <x:c r="C38" s="1"/>
-      <x:c r="D38" s="1"/>
-      <x:c r="E38" s="1"/>
-      <x:c r="F38" s="1"/>
-    </x:row>
-    <x:row r="39" spans="1:6">
-      <x:c r="A39" s="1"/>
-      <x:c r="B39" s="1"/>
-      <x:c r="C39" s="1"/>
-      <x:c r="D39" s="1"/>
-      <x:c r="E39" s="1"/>
-      <x:c r="F39" s="1"/>
-    </x:row>
-    <x:row r="40" spans="1:6">
-      <x:c r="A40" s="1"/>
-      <x:c r="B40" s="1"/>
-      <x:c r="C40" s="1"/>
-      <x:c r="D40" s="1"/>
-      <x:c r="E40" s="1"/>
-      <x:c r="F40" s="1"/>
-    </x:row>
-    <x:row r="41" spans="1:6">
-      <x:c r="A41" s="1"/>
-      <x:c r="B41" s="1"/>
-      <x:c r="C41" s="1"/>
-      <x:c r="D41" s="1"/>
-      <x:c r="E41" s="1"/>
-      <x:c r="F41" s="1"/>
-    </x:row>
-    <x:row r="42" spans="1:6">
-      <x:c r="A42" s="1"/>
-      <x:c r="B42" s="1"/>
-      <x:c r="C42" s="1"/>
-      <x:c r="D42" s="1"/>
-      <x:c r="E42" s="1"/>
-      <x:c r="F42" s="1"/>
-    </x:row>
-    <x:row r="43" spans="1:6">
-      <x:c r="A43" s="1"/>
-      <x:c r="B43" s="1"/>
-      <x:c r="C43" s="1"/>
-      <x:c r="D43" s="1"/>
-      <x:c r="E43" s="1"/>
-      <x:c r="F43" s="1"/>
-    </x:row>
-    <x:row r="44" spans="1:6">
-      <x:c r="A44" s="1"/>
-      <x:c r="B44" s="1"/>
-      <x:c r="C44" s="1"/>
-      <x:c r="D44" s="1"/>
-      <x:c r="E44" s="1"/>
-      <x:c r="F44" s="1"/>
-    </x:row>
-    <x:row r="45" spans="1:6">
+      <x:c r="B31" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C31" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D31" s="9"/>
+      <x:c r="E31" s="9"/>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B32" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C32" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D32" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E32" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="2"/>
+      <x:c r="B33" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E33" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E34" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B35" s="2">
+        <x:v>0.82399999999999995</x:v>
+      </x:c>
+      <x:c r="C35" s="2">
+        <x:v>0.89100000000000001</x:v>
+      </x:c>
+      <x:c r="D35" s="2">
+        <x:v>0.90300000000000002</x:v>
+      </x:c>
+      <x:c r="E35" s="2">
+        <x:v>0.91100000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B36" s="4">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+      <x:c r="C36" s="11">
+        <x:v>0.55000000000000004</x:v>
+      </x:c>
+      <x:c r="D36" s="4">
+        <x:v>0.53700000000000003</x:v>
+      </x:c>
+      <x:c r="E36" s="4">
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B37" s="4">
+        <x:v>0.52400000000000002</x:v>
+      </x:c>
+      <x:c r="C37" s="11">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
+      <x:c r="D37" s="4">
+        <x:v>0.50900000000000001</x:v>
+      </x:c>
+      <x:c r="E37" s="4">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B38" s="4">
+        <x:v>0.439</x:v>
+      </x:c>
+      <x:c r="C38" s="4">
+        <x:v>0.54800000000000004</x:v>
+      </x:c>
+      <x:c r="D38" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="E38" s="11">
+        <x:v>0.58899999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B39" s="6">
+        <x:v>0.35699999999999998</x:v>
+      </x:c>
+      <x:c r="C39" s="11">
+        <x:v>0.41099999999999998</x:v>
+      </x:c>
+      <x:c r="D39" s="6">
+        <x:v>0.39400000000000002</x:v>
+      </x:c>
+      <x:c r="E39" s="6">
+        <x:v>0.38700000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B40" s="6">
+        <x:v>0.49399999999999999</x:v>
+      </x:c>
+      <x:c r="C40" s="11">
+        <x:v>0.58299999999999996</x:v>
+      </x:c>
+      <x:c r="D40" s="6">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="E40" s="6">
+        <x:v>0.52200000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B41" s="6">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="C41" s="11">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
+      <x:c r="D41" s="6">
+        <x:v>0.48899999999999999</x:v>
+      </x:c>
+      <x:c r="E41" s="6">
+        <x:v>0.56299999999999994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B42" s="7">
+        <x:v>0.504</x:v>
+      </x:c>
+      <x:c r="C42" s="11">
+        <x:v>0.56499999999999995</x:v>
+      </x:c>
+      <x:c r="D42" s="7">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+      <x:c r="E42" s="7">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="8" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B43" s="7">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="C43" s="11">
+        <x:v>0.54600000000000004</x:v>
+      </x:c>
+      <x:c r="D43" s="7">
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
+      <x:c r="E43" s="7">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B44" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+      <x:c r="C44" s="11">
+        <x:v>0.55400000000000005</x:v>
+      </x:c>
+      <x:c r="D44" s="7">
+        <x:v>0.52800000000000002</x:v>
+      </x:c>
+      <x:c r="E44" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
       <x:c r="A45" s="1"/>
       <x:c r="B45" s="1"/>
       <x:c r="C45" s="1"/>
       <x:c r="D45" s="1"/>
       <x:c r="E45" s="1"/>
-      <x:c r="F45" s="1"/>
-    </x:row>
-    <x:row r="46" spans="3:3">
-      <x:c r="C46" s="1"/>
-    </x:row>
-    <x:row r="47" spans="3:3">
-      <x:c r="C47" s="1"/>
-    </x:row>
-    <x:row r="48" spans="3:3">
-      <x:c r="C48" s="1"/>
-    </x:row>
-    <x:row r="49" spans="3:3">
-      <x:c r="C49" s="1"/>
-    </x:row>
-    <x:row r="50" spans="3:3">
-      <x:c r="C50" s="1"/>
-    </x:row>
-    <x:row r="51" spans="3:3">
-      <x:c r="C51" s="1"/>
-    </x:row>
-    <x:row r="52" spans="3:3">
-      <x:c r="C52" s="1"/>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="1"/>
+      <x:c r="B46" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C46" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D46" s="9"/>
+      <x:c r="E46" s="9"/>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B47" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C47" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D47" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E47" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="2"/>
+      <x:c r="B48" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E48" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E49" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="A50" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B50" s="2">
+        <x:v>0.93400000000000005</x:v>
+      </x:c>
+      <x:c r="C50" s="2">
+        <x:v>0.97899999999999998</x:v>
+      </x:c>
+      <x:c r="D50" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
+      <x:c r="E50" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5">
+      <x:c r="A51" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B51" s="4">
+        <x:v>0.67400000000000004</x:v>
+      </x:c>
+      <x:c r="C51" s="11">
+        <x:v>0.73499999999999999</x:v>
+      </x:c>
+      <x:c r="D51" s="4">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
+      <x:c r="E51" s="4">
+        <x:v>0.68000000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="A52" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B52" s="11">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+      <x:c r="C52" s="4">
+        <x:v>0.60599999999999998</x:v>
+      </x:c>
+      <x:c r="D52" s="4">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
+      <x:c r="E52" s="4">
+        <x:v>0.60699999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5">
+      <x:c r="A53" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B53" s="4">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="C53" s="11">
+        <x:v>0.70699999999999996</x:v>
+      </x:c>
+      <x:c r="D53" s="4">
+        <x:v>0.64800000000000002</x:v>
+      </x:c>
+      <x:c r="E53" s="4">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5">
+      <x:c r="A54" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B54" s="6">
+        <x:v>0.41099999999999998</x:v>
+      </x:c>
+      <x:c r="C54" s="11">
+        <x:v>0.52000000000000002</x:v>
+      </x:c>
+      <x:c r="D54" s="6">
+        <x:v>0.36099999999999999</x:v>
+      </x:c>
+      <x:c r="E54" s="6">
+        <x:v>0.435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:5">
+      <x:c r="A55" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B55" s="6">
+        <x:v>0.56499999999999995</x:v>
+      </x:c>
+      <x:c r="C55" s="11">
+        <x:v>0.63100000000000001</x:v>
+      </x:c>
+      <x:c r="D55" s="6">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="E55" s="6">
+        <x:v>0.59799999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5">
+      <x:c r="A56" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B56" s="6">
+        <x:v>0.626</x:v>
+      </x:c>
+      <x:c r="C56" s="11">
+        <x:v>0.69099999999999995</x:v>
+      </x:c>
+      <x:c r="D56" s="6">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
+      <x:c r="E56" s="6">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5">
+      <x:c r="A57" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B57" s="7">
+        <x:v>0.56999999999999995</x:v>
+      </x:c>
+      <x:c r="C57" s="11">
+        <x:v>0.66100000000000003</x:v>
+      </x:c>
+      <x:c r="D57" s="7">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="E57" s="7">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:5">
+      <x:c r="A58" s="8" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B58" s="7">
+        <x:v>0.59399999999999997</x:v>
+      </x:c>
+      <x:c r="C58" s="11">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
+      <x:c r="D58" s="7">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="E58" s="7">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:5">
+      <x:c r="A59" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B59" s="7">
+        <x:v>0.63900000000000001</x:v>
+      </x:c>
+      <x:c r="C59" s="7">
+        <x:v>0.66500000000000004</x:v>
+      </x:c>
+      <x:c r="D59" s="7">
+        <x:v>0.61899999999999999</x:v>
+      </x:c>
+      <x:c r="E59" s="11">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="8">
     <x:mergeCell ref="C1:E1"/>
-    <x:mergeCell ref="J1:L1"/>
     <x:mergeCell ref="A2:E2"/>
-    <x:mergeCell ref="H2:L2"/>
     <x:mergeCell ref="C16:E16"/>
-    <x:mergeCell ref="J16:L16"/>
     <x:mergeCell ref="A17:E17"/>
-    <x:mergeCell ref="H17:L17"/>
+    <x:mergeCell ref="C31:E31"/>
+    <x:mergeCell ref="A32:E32"/>
+    <x:mergeCell ref="C46:E46"/>
+    <x:mergeCell ref="A47:E47"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/SuHeon/기록.xlsx
+++ b/SuHeon/기록.xlsx
@@ -19,124 +19,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+  <x:si>
+    <x:t>rf_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습 정확도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_point.joblib</x:t>
+  </x:si>
   <x:si>
     <x:t>n_estimators=200, random_state=66</x:t>
   </x:si>
   <x:si>
-    <x:t>xgb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습 정확도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_3D_angle.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_3D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_angle.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
     <x:t>tf=66, GlorotUniform(seed=66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>max_iter=1000, random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델학습 제대로 안됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_2D_point.joblib</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="9">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -178,8 +217,28 @@
       <x:color rgb="ffffffff"/>
       <x:b val="1"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffffffff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffffffff"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="11">
+  <x:fills count="12">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -230,18 +289,24 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffff00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="ff000000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffff00"/>
+        <x:fgColor rgb="ffffffff"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="3">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -270,13 +335,27 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -304,23 +383,58 @@
     <x:xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1043,81 +1157,93 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E59"/>
+  <x:dimension ref="A1:G63"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="C36" activeCellId="0" sqref="C36:C36"/>
+    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="P46" activeCellId="0" sqref="P46:P46"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="11.0078125" bestFit="1" customWidth="1"/>
     <x:col min="2" max="5" width="9.00390625" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="15" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="10" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="9.00390625" style="1"/>
+    <x:col min="12" max="15" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="2:5">
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="1"/>
       <x:c r="B1" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C1" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D1" s="9"/>
-      <x:c r="E1" s="9"/>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="10" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B2" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C2" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E2" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
+      <x:c r="D1" s="10"/>
+      <x:c r="E1" s="10"/>
+      <x:c r="F1" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="13"/>
+      <x:c r="C2" s="13"/>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="11"/>
+      <x:c r="G2" s="11"/>
+    </x:row>
+    <x:row r="3" spans="1:7">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
       <x:c r="A4" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
       <x:c r="A5" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="2">
         <x:v>0.81399999999999995</x:v>
@@ -1131,12 +1257,18 @@
       <x:c r="E5" s="2">
         <x:v>0.91700000000000004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
+      <x:c r="F5" s="2">
+        <x:v>0.746</x:v>
+      </x:c>
+      <x:c r="G5" s="2">
+        <x:v>0.59099999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
       <x:c r="A6" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" s="11">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B6" s="4">
         <x:v>0.70899999999999996</x:v>
       </x:c>
       <x:c r="C6" s="4">
@@ -1148,12 +1280,18 @@
       <x:c r="E6" s="4">
         <x:v>0.67800000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
+      <x:c r="F6" s="4">
+        <x:v>0.56100000000000005</x:v>
+      </x:c>
+      <x:c r="G6" s="9">
+        <x:v>0.76500000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
       <x:c r="A7" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B7" s="11">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B7" s="4">
         <x:v>0.63900000000000001</x:v>
       </x:c>
       <x:c r="C7" s="4">
@@ -1165,15 +1303,21 @@
       <x:c r="E7" s="4">
         <x:v>0.60199999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
+      <x:c r="F7" s="9">
+        <x:v>0.67000000000000004</x:v>
+      </x:c>
+      <x:c r="G7" s="4">
+        <x:v>0.66300000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
       <x:c r="A8" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B8" s="4">
         <x:v>0.65600000000000003</x:v>
       </x:c>
-      <x:c r="C8" s="11">
+      <x:c r="C8" s="9">
         <x:v>0.67200000000000004</x:v>
       </x:c>
       <x:c r="D8" s="4">
@@ -1182,12 +1326,18 @@
       <x:c r="E8" s="4">
         <x:v>0.64600000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
+      <x:c r="F8" s="4">
+        <x:v>0.64300000000000002</x:v>
+      </x:c>
+      <x:c r="G8" s="4">
+        <x:v>0.52000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
       <x:c r="A9" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B9" s="11">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="6">
         <x:v>0.498</x:v>
       </x:c>
       <x:c r="C9" s="6">
@@ -1199,12 +1349,18 @@
       <x:c r="E9" s="6">
         <x:v>0.44400000000000001</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
+      <x:c r="F9" s="9">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="G9" s="6">
+        <x:v>0.45600000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
       <x:c r="A10" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B10" s="11">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B10" s="6">
         <x:v>0.60899999999999999</x:v>
       </x:c>
       <x:c r="C10" s="6">
@@ -1216,10 +1372,16 @@
       <x:c r="E10" s="6">
         <x:v>0.51900000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
+      <x:c r="F10" s="9">
+        <x:v>0.61099999999999999</x:v>
+      </x:c>
+      <x:c r="G10" s="6">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
       <x:c r="A11" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>0.65200000000000002</x:v>
@@ -1230,15 +1392,21 @@
       <x:c r="D11" s="6">
         <x:v>0.65200000000000002</x:v>
       </x:c>
-      <x:c r="E11" s="11">
+      <x:c r="E11" s="9">
         <x:v>0.65400000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
+      <x:c r="F11" s="6">
+        <x:v>0.64100000000000001</x:v>
+      </x:c>
+      <x:c r="G11" s="6">
+        <x:v>0.626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
       <x:c r="A12" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B12" s="11">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="7">
         <x:v>0.62</x:v>
       </x:c>
       <x:c r="C12" s="7">
@@ -1250,10 +1418,16 @@
       <x:c r="E12" s="7">
         <x:v>0.55600000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
+      <x:c r="F12" s="9">
+        <x:v>0.78700000000000003</x:v>
+      </x:c>
+      <x:c r="G12" s="7">
+        <x:v>0.65700000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
       <x:c r="A13" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B13" s="7">
         <x:v>0.59799999999999998</x:v>
@@ -1264,15 +1438,21 @@
       <x:c r="D13" s="7">
         <x:v>0.59399999999999997</x:v>
       </x:c>
-      <x:c r="E13" s="11">
+      <x:c r="E13" s="7">
         <x:v>0.60699999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
+      <x:c r="F13" s="9">
+        <x:v>0.628</x:v>
+      </x:c>
+      <x:c r="G13" s="7">
+        <x:v>0.56100000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
       <x:c r="A14" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B14" s="11">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B14" s="7">
         <x:v>0.63500000000000001</x:v>
       </x:c>
       <x:c r="C14" s="7">
@@ -1284,721 +1464,963 @@
       <x:c r="E14" s="7">
         <x:v>0.61899999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="1"/>
-      <x:c r="B16" s="1" t="s">
+      <x:c r="F14" s="9">
+        <x:v>0.69399999999999995</x:v>
+      </x:c>
+      <x:c r="G14" s="7">
+        <x:v>0.67000000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="15" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B15" s="14"/>
+      <x:c r="C15" s="14"/>
+      <x:c r="D15" s="14"/>
+      <x:c r="E15" s="14"/>
+      <x:c r="F15" s="14"/>
+      <x:c r="G15" s="16"/>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="1"/>
+      <x:c r="B17" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C17" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C16" s="9" t="s">
+      <x:c r="D17" s="10"/>
+      <x:c r="E17" s="10"/>
+      <x:c r="F17" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="12" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B18" s="13"/>
+      <x:c r="C18" s="13"/>
+      <x:c r="D18" s="13"/>
+      <x:c r="E18" s="13"/>
+      <x:c r="F18" s="11"/>
+      <x:c r="G18" s="11"/>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G19" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G20" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B21" s="2">
+        <x:v>0.90800000000000003</x:v>
+      </x:c>
+      <x:c r="C21" s="2">
+        <x:v>0.97499999999999998</x:v>
+      </x:c>
+      <x:c r="D21" s="2">
+        <x:v>0.97399999999999998</x:v>
+      </x:c>
+      <x:c r="E21" s="2">
+        <x:v>0.97899999999999998</x:v>
+      </x:c>
+      <x:c r="F21" s="2">
+        <x:v>0.755</x:v>
+      </x:c>
+      <x:c r="G21" s="2">
+        <x:v>0.70699999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B22" s="4">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
+      <x:c r="C22" s="4">
+        <x:v>0.66700000000000004</x:v>
+      </x:c>
+      <x:c r="D22" s="4">
+        <x:v>0.63100000000000001</x:v>
+      </x:c>
+      <x:c r="E22" s="4">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+      <x:c r="F22" s="9">
+        <x:v>0.746</x:v>
+      </x:c>
+      <x:c r="G22" s="4">
+        <x:v>0.70199999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B23" s="4">
+        <x:v>0.63700000000000001</x:v>
+      </x:c>
+      <x:c r="C23" s="4">
+        <x:v>0.628</x:v>
+      </x:c>
+      <x:c r="D23" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="E23" s="4">
+        <x:v>0.53900000000000003</x:v>
+      </x:c>
+      <x:c r="F23" s="4">
+        <x:v>0.69799999999999995</x:v>
+      </x:c>
+      <x:c r="G23" s="9">
+        <x:v>0.70399999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B24" s="4">
+        <x:v>0.64300000000000002</x:v>
+      </x:c>
+      <x:c r="C24" s="4">
+        <x:v>0.71299999999999997</x:v>
+      </x:c>
+      <x:c r="D24" s="4">
+        <x:v>0.58699999999999997</x:v>
+      </x:c>
+      <x:c r="E24" s="4">
+        <x:v>0.62</x:v>
+      </x:c>
+      <x:c r="F24" s="9">
+        <x:v>0.76500000000000001</x:v>
+      </x:c>
+      <x:c r="G24" s="4">
+        <x:v>0.58699999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B25" s="6">
+        <x:v>0.443</x:v>
+      </x:c>
+      <x:c r="C25" s="6">
+        <x:v>0.47399999999999998</x:v>
+      </x:c>
+      <x:c r="D25" s="6">
+        <x:v>0.40400000000000003</x:v>
+      </x:c>
+      <x:c r="E25" s="6">
+        <x:v>0.41999999999999998</x:v>
+      </x:c>
+      <x:c r="F25" s="9">
+        <x:v>0.59399999999999997</x:v>
+      </x:c>
+      <x:c r="G25" s="6">
+        <x:v>0.41499999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B26" s="6">
+        <x:v>0.51300000000000001</x:v>
+      </x:c>
+      <x:c r="C26" s="9">
+        <x:v>0.61099999999999999</x:v>
+      </x:c>
+      <x:c r="D26" s="6">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
+      <x:c r="E26" s="6">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
+      <x:c r="F26" s="6">
+        <x:v>0.60599999999999998</x:v>
+      </x:c>
+      <x:c r="G26" s="6">
+        <x:v>0.54600000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B27" s="6">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+      <x:c r="C27" s="6">
+        <x:v>0.67800000000000005</x:v>
+      </x:c>
+      <x:c r="D27" s="6">
+        <x:v>0.55700000000000005</x:v>
+      </x:c>
+      <x:c r="E27" s="6">
+        <x:v>0.504</x:v>
+      </x:c>
+      <x:c r="F27" s="9">
+        <x:v>0.746</x:v>
+      </x:c>
+      <x:c r="G27" s="6">
+        <x:v>0.66100000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B28" s="7">
+        <x:v>0.60599999999999998</x:v>
+      </x:c>
+      <x:c r="C28" s="7">
+        <x:v>0.55400000000000005</x:v>
+      </x:c>
+      <x:c r="D28" s="7">
+        <x:v>0.47799999999999998</x:v>
+      </x:c>
+      <x:c r="E28" s="7">
+        <x:v>0.50700000000000001</x:v>
+      </x:c>
+      <x:c r="F28" s="7">
+        <x:v>0.60699999999999998</x:v>
+      </x:c>
+      <x:c r="G28" s="9">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="8" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B29" s="7">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="C29" s="9">
+        <x:v>0.64100000000000001</x:v>
+      </x:c>
+      <x:c r="D29" s="7">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="E29" s="7">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
+      <x:c r="F29" s="7">
+        <x:v>0.63100000000000001</x:v>
+      </x:c>
+      <x:c r="G29" s="7">
+        <x:v>0.52000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B30" s="7">
+        <x:v>0.68500000000000005</x:v>
+      </x:c>
+      <x:c r="C30" s="7">
+        <x:v>0.64300000000000002</x:v>
+      </x:c>
+      <x:c r="D30" s="7">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
+      <x:c r="E30" s="7">
+        <x:v>0.57399999999999995</x:v>
+      </x:c>
+      <x:c r="F30" s="9">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="G30" s="7">
+        <x:v>0.68000000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="15" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B31" s="14"/>
+      <x:c r="C31" s="14"/>
+      <x:c r="D31" s="14"/>
+      <x:c r="E31" s="14"/>
+      <x:c r="F31" s="14"/>
+      <x:c r="G31" s="14"/>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="1"/>
+      <x:c r="B33" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C33" s="10" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D33" s="10"/>
+      <x:c r="E33" s="10"/>
+      <x:c r="F33" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="A34" s="12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B34" s="13"/>
+      <x:c r="C34" s="13"/>
+      <x:c r="D34" s="13"/>
+      <x:c r="E34" s="13"/>
+      <x:c r="F34" s="11"/>
+      <x:c r="G34" s="11"/>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="A35" s="2"/>
+      <x:c r="B35" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E35" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G35" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="A36" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E36" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G36" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B37" s="2">
+        <x:v>0.82399999999999995</x:v>
+      </x:c>
+      <x:c r="C37" s="2">
+        <x:v>0.89100000000000001</x:v>
+      </x:c>
+      <x:c r="D37" s="2">
+        <x:v>0.90300000000000002</x:v>
+      </x:c>
+      <x:c r="E37" s="2">
+        <x:v>0.91100000000000003</x:v>
+      </x:c>
+      <x:c r="F37" s="2">
+        <x:v>0.748</x:v>
+      </x:c>
+      <x:c r="G37" s="2">
+        <x:v>0.68600000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B38" s="4">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+      <x:c r="C38" s="4">
+        <x:v>0.55000000000000004</x:v>
+      </x:c>
+      <x:c r="D38" s="4">
+        <x:v>0.53700000000000003</x:v>
+      </x:c>
+      <x:c r="E38" s="4">
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
+      <x:c r="F38" s="4">
+        <x:v>0.48699999999999999</x:v>
+      </x:c>
+      <x:c r="G38" s="9">
+        <x:v>0.61899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="A39" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B39" s="4">
+        <x:v>0.52400000000000002</x:v>
+      </x:c>
+      <x:c r="C39" s="4">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
+      <x:c r="D39" s="4">
+        <x:v>0.50900000000000001</x:v>
+      </x:c>
+      <x:c r="E39" s="4">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
+      <x:c r="F39" s="4">
+        <x:v>0.48899999999999999</x:v>
+      </x:c>
+      <x:c r="G39" s="9">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="A40" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B40" s="4">
+        <x:v>0.439</x:v>
+      </x:c>
+      <x:c r="C40" s="4">
+        <x:v>0.54800000000000004</x:v>
+      </x:c>
+      <x:c r="D40" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="E40" s="9">
+        <x:v>0.58899999999999997</x:v>
+      </x:c>
+      <x:c r="F40" s="4">
+        <x:v>0.41299999999999998</x:v>
+      </x:c>
+      <x:c r="G40" s="4">
+        <x:v>0.56999999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7">
+      <x:c r="A41" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B41" s="6">
+        <x:v>0.35699999999999998</x:v>
+      </x:c>
+      <x:c r="C41" s="6">
+        <x:v>0.41099999999999998</x:v>
+      </x:c>
+      <x:c r="D41" s="6">
+        <x:v>0.39400000000000002</x:v>
+      </x:c>
+      <x:c r="E41" s="6">
+        <x:v>0.38700000000000001</x:v>
+      </x:c>
+      <x:c r="F41" s="6">
+        <x:v>0.45200000000000001</x:v>
+      </x:c>
+      <x:c r="G41" s="9">
+        <x:v>0.48699999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7">
+      <x:c r="A42" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B42" s="6">
+        <x:v>0.49399999999999999</x:v>
+      </x:c>
+      <x:c r="C42" s="9">
+        <x:v>0.58299999999999996</x:v>
+      </x:c>
+      <x:c r="D42" s="6">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="E42" s="6">
+        <x:v>0.52200000000000002</x:v>
+      </x:c>
+      <x:c r="F42" s="6">
+        <x:v>0.49099999999999999</x:v>
+      </x:c>
+      <x:c r="G42" s="6">
+        <x:v>0.55600000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7">
+      <x:c r="A43" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B43" s="6">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="C43" s="9">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
+      <x:c r="D43" s="6">
+        <x:v>0.48899999999999999</x:v>
+      </x:c>
+      <x:c r="E43" s="6">
+        <x:v>0.56299999999999994</x:v>
+      </x:c>
+      <x:c r="F43" s="6">
+        <x:v>0.46500000000000002</x:v>
+      </x:c>
+      <x:c r="G43" s="6">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="A44" s="8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B44" s="7">
+        <x:v>0.504</x:v>
+      </x:c>
+      <x:c r="C44" s="7">
+        <x:v>0.56499999999999995</x:v>
+      </x:c>
+      <x:c r="D44" s="7">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+      <x:c r="E44" s="7">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
+      <x:c r="F44" s="7">
+        <x:v>0.502</x:v>
+      </x:c>
+      <x:c r="G44" s="9">
+        <x:v>0.65200000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="A45" s="8" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B45" s="7">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="C45" s="7">
+        <x:v>0.54600000000000004</x:v>
+      </x:c>
+      <x:c r="D45" s="7">
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
+      <x:c r="E45" s="7">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+      <x:c r="F45" s="7">
+        <x:v>0.49299999999999999</x:v>
+      </x:c>
+      <x:c r="G45" s="9">
+        <x:v>0.55200000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7">
+      <x:c r="A46" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B46" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+      <x:c r="C46" s="7">
+        <x:v>0.55400000000000005</x:v>
+      </x:c>
+      <x:c r="D46" s="7">
+        <x:v>0.52800000000000002</x:v>
+      </x:c>
+      <x:c r="E46" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+      <x:c r="F46" s="7">
+        <x:v>0.46999999999999997</x:v>
+      </x:c>
+      <x:c r="G46" s="9">
+        <x:v>0.59599999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7">
+      <x:c r="A47" s="15" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B47" s="14"/>
+      <x:c r="C47" s="14"/>
+      <x:c r="D47" s="14"/>
+      <x:c r="E47" s="14"/>
+      <x:c r="F47" s="14" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G47" s="14"/>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="1"/>
+      <x:c r="B49" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C49" s="10" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D49" s="10"/>
+      <x:c r="E49" s="10"/>
+    </x:row>
+    <x:row r="50" spans="1:7">
+      <x:c r="A50" s="12" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B50" s="13"/>
+      <x:c r="C50" s="13"/>
+      <x:c r="D50" s="13"/>
+      <x:c r="E50" s="13"/>
+      <x:c r="F50" s="11"/>
+      <x:c r="G50" s="11"/>
+    </x:row>
+    <x:row r="51" spans="1:7">
+      <x:c r="A51" s="2"/>
+      <x:c r="B51" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E51" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G51" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="A52" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D16" s="9"/>
-      <x:c r="E16" s="9"/>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B17" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C17" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D17" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E17" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="A18" s="2"/>
-      <x:c r="B18" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E18" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="D52" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E52" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G52" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="A53" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B53" s="2">
+        <x:v>0.93400000000000005</x:v>
+      </x:c>
+      <x:c r="C53" s="2">
+        <x:v>0.97899999999999998</x:v>
+      </x:c>
+      <x:c r="D53" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
+      <x:c r="E53" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
+      <x:c r="F53" s="2">
+        <x:v>0.79800000000000004</x:v>
+      </x:c>
+      <x:c r="G53" s="2">
+        <x:v>0.69999999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:7">
+      <x:c r="A54" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E19" s="2" t="s">
+      <x:c r="B54" s="4">
+        <x:v>0.67400000000000004</x:v>
+      </x:c>
+      <x:c r="C54" s="9">
+        <x:v>0.73499999999999999</x:v>
+      </x:c>
+      <x:c r="D54" s="4">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
+      <x:c r="E54" s="4">
+        <x:v>0.68000000000000005</x:v>
+      </x:c>
+      <x:c r="F54" s="4">
+        <x:v>0.69599999999999995</x:v>
+      </x:c>
+      <x:c r="G54" s="4">
+        <x:v>0.72399999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:7">
+      <x:c r="A55" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B55" s="4">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+      <x:c r="C55" s="4">
+        <x:v>0.60599999999999998</x:v>
+      </x:c>
+      <x:c r="D55" s="4">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
+      <x:c r="E55" s="4">
+        <x:v>0.60699999999999998</x:v>
+      </x:c>
+      <x:c r="F55" s="4">
+        <x:v>0.56100000000000005</x:v>
+      </x:c>
+      <x:c r="G55" s="9">
+        <x:v>0.67000000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:7">
+      <x:c r="A56" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B56" s="4">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="C56" s="9">
+        <x:v>0.70699999999999996</x:v>
+      </x:c>
+      <x:c r="D56" s="4">
+        <x:v>0.64800000000000002</x:v>
+      </x:c>
+      <x:c r="E56" s="4">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
+      <x:c r="F56" s="4">
+        <x:v>0.63700000000000001</x:v>
+      </x:c>
+      <x:c r="G56" s="4">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:7">
+      <x:c r="A57" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B57" s="6">
+        <x:v>0.41099999999999998</x:v>
+      </x:c>
+      <x:c r="C57" s="9">
+        <x:v>0.52000000000000002</x:v>
+      </x:c>
+      <x:c r="D57" s="6">
+        <x:v>0.36099999999999999</x:v>
+      </x:c>
+      <x:c r="E57" s="6">
+        <x:v>0.435</x:v>
+      </x:c>
+      <x:c r="F57" s="6">
+        <x:v>0.47799999999999998</x:v>
+      </x:c>
+      <x:c r="G57" s="6">
+        <x:v>0.51300000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:7">
+      <x:c r="A58" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B58" s="6">
+        <x:v>0.56499999999999995</x:v>
+      </x:c>
+      <x:c r="C58" s="9">
+        <x:v>0.63100000000000001</x:v>
+      </x:c>
+      <x:c r="D58" s="6">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="E58" s="6">
+        <x:v>0.59799999999999998</x:v>
+      </x:c>
+      <x:c r="F58" s="6">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="G58" s="6">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:7">
+      <x:c r="A59" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B59" s="6">
+        <x:v>0.626</x:v>
+      </x:c>
+      <x:c r="C59" s="6">
+        <x:v>0.69099999999999995</x:v>
+      </x:c>
+      <x:c r="D59" s="6">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
+      <x:c r="E59" s="6">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
+      <x:c r="F59" s="6">
+        <x:v>0.67400000000000004</x:v>
+      </x:c>
+      <x:c r="G59" s="9">
+        <x:v>0.73299999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:7">
+      <x:c r="A60" s="8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B60" s="7">
+        <x:v>0.56999999999999995</x:v>
+      </x:c>
+      <x:c r="C60" s="7">
+        <x:v>0.66100000000000003</x:v>
+      </x:c>
+      <x:c r="D60" s="7">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="E60" s="7">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
+      <x:c r="F60" s="7">
+        <x:v>0.65000000000000002</x:v>
+      </x:c>
+      <x:c r="G60" s="9">
+        <x:v>0.67200000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:7">
+      <x:c r="A61" s="8" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="A20" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B20" s="2">
-        <x:v>0.90800000000000003</x:v>
-      </x:c>
-      <x:c r="C20" s="2">
-        <x:v>0.97499999999999998</x:v>
-      </x:c>
-      <x:c r="D20" s="2">
-        <x:v>0.97399999999999998</x:v>
-      </x:c>
-      <x:c r="E20" s="2">
-        <x:v>0.97899999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="A21" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B21" s="11">
+      <x:c r="B61" s="7">
+        <x:v>0.59399999999999997</x:v>
+      </x:c>
+      <x:c r="C61" s="7">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
+      <x:c r="D61" s="7">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="E61" s="7">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
+      <x:c r="F61" s="7">
+        <x:v>0.46700000000000003</x:v>
+      </x:c>
+      <x:c r="G61" s="9">
+        <x:v>0.64400000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:7">
+      <x:c r="A62" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B62" s="7">
+        <x:v>0.63900000000000001</x:v>
+      </x:c>
+      <x:c r="C62" s="7">
+        <x:v>0.66500000000000004</x:v>
+      </x:c>
+      <x:c r="D62" s="7">
+        <x:v>0.61899999999999999</x:v>
+      </x:c>
+      <x:c r="E62" s="7">
         <x:v>0.67600000000000005</x:v>
       </x:c>
-      <x:c r="C21" s="4">
-        <x:v>0.66700000000000004</x:v>
-      </x:c>
-      <x:c r="D21" s="4">
-        <x:v>0.63100000000000001</x:v>
-      </x:c>
-      <x:c r="E21" s="4">
-        <x:v>0.61299999999999999</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B22" s="11">
-        <x:v>0.63700000000000001</x:v>
-      </x:c>
-      <x:c r="C22" s="4">
-        <x:v>0.628</x:v>
-      </x:c>
-      <x:c r="D22" s="4">
-        <x:v>0.55900000000000005</x:v>
-      </x:c>
-      <x:c r="E22" s="4">
-        <x:v>0.53900000000000003</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="A23" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B23" s="4">
-        <x:v>0.64300000000000002</x:v>
-      </x:c>
-      <x:c r="C23" s="11">
-        <x:v>0.71299999999999997</x:v>
-      </x:c>
-      <x:c r="D23" s="4">
-        <x:v>0.58699999999999997</x:v>
-      </x:c>
-      <x:c r="E23" s="4">
-        <x:v>0.62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="A24" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B24" s="6">
-        <x:v>0.443</x:v>
-      </x:c>
-      <x:c r="C24" s="11">
-        <x:v>0.47399999999999998</x:v>
-      </x:c>
-      <x:c r="D24" s="6">
-        <x:v>0.40400000000000003</x:v>
-      </x:c>
-      <x:c r="E24" s="6">
-        <x:v>0.41999999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="A25" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B25" s="6">
-        <x:v>0.51300000000000001</x:v>
-      </x:c>
-      <x:c r="C25" s="11">
-        <x:v>0.61099999999999999</x:v>
-      </x:c>
-      <x:c r="D25" s="6">
-        <x:v>0.51900000000000002</x:v>
-      </x:c>
-      <x:c r="E25" s="6">
-        <x:v>0.56899999999999995</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="A26" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B26" s="6">
-        <x:v>0.61299999999999999</x:v>
-      </x:c>
-      <x:c r="C26" s="11">
-        <x:v>0.67800000000000005</x:v>
-      </x:c>
-      <x:c r="D26" s="6">
-        <x:v>0.55700000000000005</x:v>
-      </x:c>
-      <x:c r="E26" s="6">
-        <x:v>0.504</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="A27" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B27" s="11">
-        <x:v>0.60599999999999998</x:v>
-      </x:c>
-      <x:c r="C27" s="7">
-        <x:v>0.55400000000000005</x:v>
-      </x:c>
-      <x:c r="D27" s="7">
-        <x:v>0.47799999999999998</x:v>
-      </x:c>
-      <x:c r="E27" s="7">
-        <x:v>0.50700000000000001</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="A28" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B28" s="7">
-        <x:v>0.61699999999999999</x:v>
-      </x:c>
-      <x:c r="C28" s="11">
-        <x:v>0.64100000000000001</x:v>
-      </x:c>
-      <x:c r="D28" s="7">
-        <x:v>0.57999999999999996</x:v>
-      </x:c>
-      <x:c r="E28" s="7">
-        <x:v>0.57599999999999996</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="A29" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B29" s="11">
-        <x:v>0.68500000000000005</x:v>
-      </x:c>
-      <x:c r="C29" s="7">
-        <x:v>0.64300000000000002</x:v>
-      </x:c>
-      <x:c r="D29" s="7">
-        <x:v>0.57599999999999996</x:v>
-      </x:c>
-      <x:c r="E29" s="7">
-        <x:v>0.57399999999999995</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="A30" s="1"/>
-      <x:c r="B30" s="1"/>
-      <x:c r="C30" s="1"/>
-      <x:c r="D30" s="1"/>
-      <x:c r="E30" s="1"/>
-    </x:row>
-    <x:row r="31" spans="1:5">
-      <x:c r="A31" s="1"/>
-      <x:c r="B31" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C31" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D31" s="9"/>
-      <x:c r="E31" s="9"/>
-    </x:row>
-    <x:row r="32" spans="1:5">
-      <x:c r="A32" s="10" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B32" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C32" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D32" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E32" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:5">
-      <x:c r="A33" s="2"/>
-      <x:c r="B33" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E33" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:5">
-      <x:c r="A34" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E34" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:5">
-      <x:c r="A35" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B35" s="2">
-        <x:v>0.82399999999999995</x:v>
-      </x:c>
-      <x:c r="C35" s="2">
-        <x:v>0.89100000000000001</x:v>
-      </x:c>
-      <x:c r="D35" s="2">
-        <x:v>0.90300000000000002</x:v>
-      </x:c>
-      <x:c r="E35" s="2">
-        <x:v>0.91100000000000003</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:5">
-      <x:c r="A36" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B36" s="4">
-        <x:v>0.54400000000000004</x:v>
-      </x:c>
-      <x:c r="C36" s="11">
-        <x:v>0.55000000000000004</x:v>
-      </x:c>
-      <x:c r="D36" s="4">
-        <x:v>0.53700000000000003</x:v>
-      </x:c>
-      <x:c r="E36" s="4">
-        <x:v>0.53000000000000003</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:5">
-      <x:c r="A37" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B37" s="4">
-        <x:v>0.52400000000000002</x:v>
-      </x:c>
-      <x:c r="C37" s="11">
-        <x:v>0.56899999999999995</x:v>
-      </x:c>
-      <x:c r="D37" s="4">
-        <x:v>0.50900000000000001</x:v>
-      </x:c>
-      <x:c r="E37" s="4">
-        <x:v>0.53100000000000003</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:5">
-      <x:c r="A38" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B38" s="4">
-        <x:v>0.439</x:v>
-      </x:c>
-      <x:c r="C38" s="4">
-        <x:v>0.54800000000000004</x:v>
-      </x:c>
-      <x:c r="D38" s="4">
-        <x:v>0.55900000000000005</x:v>
-      </x:c>
-      <x:c r="E38" s="11">
-        <x:v>0.58899999999999997</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:5">
-      <x:c r="A39" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B39" s="6">
-        <x:v>0.35699999999999998</x:v>
-      </x:c>
-      <x:c r="C39" s="11">
-        <x:v>0.41099999999999998</x:v>
-      </x:c>
-      <x:c r="D39" s="6">
-        <x:v>0.39400000000000002</x:v>
-      </x:c>
-      <x:c r="E39" s="6">
-        <x:v>0.38700000000000001</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:5">
-      <x:c r="A40" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B40" s="6">
-        <x:v>0.49399999999999999</x:v>
-      </x:c>
-      <x:c r="C40" s="11">
-        <x:v>0.58299999999999996</x:v>
-      </x:c>
-      <x:c r="D40" s="6">
-        <x:v>0.51700000000000002</x:v>
-      </x:c>
-      <x:c r="E40" s="6">
-        <x:v>0.52200000000000002</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:5">
-      <x:c r="A41" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B41" s="6">
-        <x:v>0.51700000000000002</x:v>
-      </x:c>
-      <x:c r="C41" s="11">
-        <x:v>0.59999999999999998</x:v>
-      </x:c>
-      <x:c r="D41" s="6">
-        <x:v>0.48899999999999999</x:v>
-      </x:c>
-      <x:c r="E41" s="6">
-        <x:v>0.56299999999999994</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:5">
-      <x:c r="A42" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B42" s="7">
-        <x:v>0.504</x:v>
-      </x:c>
-      <x:c r="C42" s="11">
-        <x:v>0.56499999999999995</x:v>
-      </x:c>
-      <x:c r="D42" s="7">
-        <x:v>0.53300000000000003</x:v>
-      </x:c>
-      <x:c r="E42" s="7">
-        <x:v>0.51900000000000002</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:5">
-      <x:c r="A43" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B43" s="7">
-        <x:v>0.51700000000000002</x:v>
-      </x:c>
-      <x:c r="C43" s="11">
-        <x:v>0.54600000000000004</x:v>
-      </x:c>
-      <x:c r="D43" s="7">
-        <x:v>0.53000000000000003</x:v>
-      </x:c>
-      <x:c r="E43" s="7">
-        <x:v>0.53300000000000003</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:5">
-      <x:c r="A44" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B44" s="7">
-        <x:v>0.54400000000000004</x:v>
-      </x:c>
-      <x:c r="C44" s="11">
-        <x:v>0.55400000000000005</x:v>
-      </x:c>
-      <x:c r="D44" s="7">
-        <x:v>0.52800000000000002</x:v>
-      </x:c>
-      <x:c r="E44" s="7">
-        <x:v>0.54400000000000004</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:5">
-      <x:c r="A45" s="1"/>
-      <x:c r="B45" s="1"/>
-      <x:c r="C45" s="1"/>
-      <x:c r="D45" s="1"/>
-      <x:c r="E45" s="1"/>
-    </x:row>
-    <x:row r="46" spans="1:5">
-      <x:c r="A46" s="1"/>
-      <x:c r="B46" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C46" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D46" s="9"/>
-      <x:c r="E46" s="9"/>
-    </x:row>
-    <x:row r="47" spans="1:5">
-      <x:c r="A47" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B47" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C47" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D47" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E47" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:5">
-      <x:c r="A48" s="2"/>
-      <x:c r="B48" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E48" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:5">
-      <x:c r="A49" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E49" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:5">
-      <x:c r="A50" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B50" s="2">
-        <x:v>0.93400000000000005</x:v>
-      </x:c>
-      <x:c r="C50" s="2">
-        <x:v>0.97899999999999998</x:v>
-      </x:c>
-      <x:c r="D50" s="2">
-        <x:v>0.98099999999999998</x:v>
-      </x:c>
-      <x:c r="E50" s="2">
-        <x:v>0.98099999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:5">
-      <x:c r="A51" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B51" s="4">
-        <x:v>0.67400000000000004</x:v>
-      </x:c>
-      <x:c r="C51" s="11">
+      <x:c r="F62" s="7">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
+      <x:c r="G62" s="9">
         <x:v>0.73499999999999999</x:v>
       </x:c>
-      <x:c r="D51" s="4">
-        <x:v>0.67600000000000005</x:v>
-      </x:c>
-      <x:c r="E51" s="4">
-        <x:v>0.68000000000000005</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:5">
-      <x:c r="A52" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B52" s="11">
-        <x:v>0.61299999999999999</x:v>
-      </x:c>
-      <x:c r="C52" s="4">
-        <x:v>0.60599999999999998</x:v>
-      </x:c>
-      <x:c r="D52" s="4">
-        <x:v>0.53100000000000003</x:v>
-      </x:c>
-      <x:c r="E52" s="4">
-        <x:v>0.60699999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:5">
-      <x:c r="A53" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B53" s="4">
-        <x:v>0.61699999999999999</x:v>
-      </x:c>
-      <x:c r="C53" s="11">
-        <x:v>0.70699999999999996</x:v>
-      </x:c>
-      <x:c r="D53" s="4">
-        <x:v>0.64800000000000002</x:v>
-      </x:c>
-      <x:c r="E53" s="4">
-        <x:v>0.68100000000000005</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:5">
-      <x:c r="A54" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B54" s="6">
-        <x:v>0.41099999999999998</x:v>
-      </x:c>
-      <x:c r="C54" s="11">
-        <x:v>0.52000000000000002</x:v>
-      </x:c>
-      <x:c r="D54" s="6">
-        <x:v>0.36099999999999999</x:v>
-      </x:c>
-      <x:c r="E54" s="6">
-        <x:v>0.435</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:5">
-      <x:c r="A55" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B55" s="6">
-        <x:v>0.56499999999999995</x:v>
-      </x:c>
-      <x:c r="C55" s="11">
-        <x:v>0.63100000000000001</x:v>
-      </x:c>
-      <x:c r="D55" s="6">
-        <x:v>0.57999999999999996</x:v>
-      </x:c>
-      <x:c r="E55" s="6">
-        <x:v>0.59799999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:5">
-      <x:c r="A56" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B56" s="6">
-        <x:v>0.626</x:v>
-      </x:c>
-      <x:c r="C56" s="11">
-        <x:v>0.69099999999999995</x:v>
-      </x:c>
-      <x:c r="D56" s="6">
-        <x:v>0.60899999999999999</x:v>
-      </x:c>
-      <x:c r="E56" s="6">
-        <x:v>0.68100000000000005</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:5">
-      <x:c r="A57" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B57" s="7">
-        <x:v>0.56999999999999995</x:v>
-      </x:c>
-      <x:c r="C57" s="11">
-        <x:v>0.66100000000000003</x:v>
-      </x:c>
-      <x:c r="D57" s="7">
-        <x:v>0.57999999999999996</x:v>
-      </x:c>
-      <x:c r="E57" s="7">
-        <x:v>0.61499999999999999</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:5">
-      <x:c r="A58" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B58" s="7">
-        <x:v>0.59399999999999997</x:v>
-      </x:c>
-      <x:c r="C58" s="11">
-        <x:v>0.61499999999999999</x:v>
-      </x:c>
-      <x:c r="D58" s="7">
-        <x:v>0.55900000000000005</x:v>
-      </x:c>
-      <x:c r="E58" s="7">
-        <x:v>0.59999999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:5">
-      <x:c r="A59" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B59" s="7">
-        <x:v>0.63900000000000001</x:v>
-      </x:c>
-      <x:c r="C59" s="7">
-        <x:v>0.66500000000000004</x:v>
-      </x:c>
-      <x:c r="D59" s="7">
-        <x:v>0.61899999999999999</x:v>
-      </x:c>
-      <x:c r="E59" s="11">
-        <x:v>0.67600000000000005</x:v>
-      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:7">
+      <x:c r="A63" s="15" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B63" s="14"/>
+      <x:c r="C63" s="14"/>
+      <x:c r="D63" s="14"/>
+      <x:c r="E63" s="14"/>
+      <x:c r="F63" s="14"/>
+      <x:c r="G63" s="14"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="8">
     <x:mergeCell ref="C1:E1"/>
-    <x:mergeCell ref="A2:E2"/>
-    <x:mergeCell ref="C16:E16"/>
-    <x:mergeCell ref="A17:E17"/>
-    <x:mergeCell ref="C31:E31"/>
-    <x:mergeCell ref="A32:E32"/>
-    <x:mergeCell ref="C46:E46"/>
-    <x:mergeCell ref="A47:E47"/>
+    <x:mergeCell ref="A2:G2"/>
+    <x:mergeCell ref="C17:E17"/>
+    <x:mergeCell ref="A18:G18"/>
+    <x:mergeCell ref="C33:E33"/>
+    <x:mergeCell ref="A34:G34"/>
+    <x:mergeCell ref="C49:E49"/>
+    <x:mergeCell ref="A50:G50"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/SuHeon/기록.xlsx
+++ b/SuHeon/기록.xlsx
@@ -19,12 +19,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+  <x:si>
+    <x:t>n_estimators=200, random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_angle.joblib</x:t>
+  </x:si>
   <x:si>
     <x:t>rf_model_3D_point.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>lgbm_model_3D_angle.joblib</x:t>
+    <x:t>xgb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습 정확도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_2</x:t>
   </x:si>
   <x:si>
     <x:t>2D 각도, 거리</x:t>
@@ -33,149 +168,29 @@
     <x:t>3D 각도, 거리</x:t>
   </x:si>
   <x:si>
-    <x:t>lr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습 정확도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_3D_angle.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_angle.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_3D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_estimators=200, random_state=66</x:t>
+    <x:t>모델학습 제대로 안됨</x:t>
   </x:si>
   <x:si>
     <x:t>tf=66, GlorotUniform(seed=66)</x:t>
   </x:si>
   <x:si>
-    <x:t>gnb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
     <x:t>max_iter=1000, random_state=66</x:t>
   </x:si>
   <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델학습 제대로 안됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_2D_point.joblib</x:t>
+    <x:t>dt_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_3D_angle.joblib</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="9">
+  <x:fonts count="8">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -217,26 +232,6 @@
       <x:color rgb="ffffffff"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffffffff"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="12">
     <x:fill>
@@ -295,13 +290,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ff000000"/>
+        <x:fgColor rgb="ffffffff"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffffff"/>
+        <x:fgColor rgb="ff000000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -386,57 +381,57 @@
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -1157,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G63"/>
+  <x:dimension ref="A1:H63"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="P46" activeCellId="0" sqref="P46:P46"/>
+    <x:sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="J62" activeCellId="0" sqref="J62:J62"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1175,75 +1170,82 @@
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C1" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D1" s="10"/>
-      <x:c r="E1" s="10"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C1" s="13" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D1" s="13"/>
+      <x:c r="E1" s="13"/>
       <x:c r="F1" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7">
-      <x:c r="A2" s="12" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="13"/>
-      <x:c r="C2" s="13"/>
-      <x:c r="D2" s="13"/>
-      <x:c r="E2" s="13"/>
-      <x:c r="F2" s="11"/>
-      <x:c r="G2" s="11"/>
-    </x:row>
-    <x:row r="3" spans="1:7">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="14" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B2" s="15"/>
+      <x:c r="C2" s="15"/>
+      <x:c r="D2" s="15"/>
+      <x:c r="E2" s="15"/>
+      <x:c r="F2" s="16"/>
+      <x:c r="G2" s="16"/>
+      <x:c r="H2" s="16"/>
+    </x:row>
+    <x:row r="3" spans="1:8">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
+    </x:row>
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F4" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="2">
         <x:v>0.81399999999999995</x:v>
@@ -1263,10 +1265,13 @@
       <x:c r="G5" s="2">
         <x:v>0.59099999999999997</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
+      <x:c r="H5" s="2">
+        <x:v>0.86499999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>0.70899999999999996</x:v>
@@ -1286,10 +1291,13 @@
       <x:c r="G6" s="9">
         <x:v>0.76500000000000001</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
+      <x:c r="H6" s="4">
+        <x:v>0.53900000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
       <x:c r="A7" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="4">
         <x:v>0.63900000000000001</x:v>
@@ -1309,10 +1317,13 @@
       <x:c r="G7" s="4">
         <x:v>0.66300000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
+      <x:c r="H7" s="4">
+        <x:v>0.624</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
       <x:c r="A8" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B8" s="4">
         <x:v>0.65600000000000003</x:v>
@@ -1332,10 +1343,13 @@
       <x:c r="G8" s="4">
         <x:v>0.52000000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
+      <x:c r="H8" s="4">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
       <x:c r="A9" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B9" s="6">
         <x:v>0.498</x:v>
@@ -1355,10 +1369,13 @@
       <x:c r="G9" s="6">
         <x:v>0.45600000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7">
+      <x:c r="H9" s="6">
+        <x:v>0.41099999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
       <x:c r="A10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B10" s="6">
         <x:v>0.60899999999999999</x:v>
@@ -1378,10 +1395,13 @@
       <x:c r="G10" s="6">
         <x:v>0.53100000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7">
+      <x:c r="H10" s="6">
+        <x:v>0.498</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
       <x:c r="A11" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>0.65200000000000002</x:v>
@@ -1401,10 +1421,13 @@
       <x:c r="G11" s="6">
         <x:v>0.626</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
+      <x:c r="H11" s="6">
+        <x:v>0.59299999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
       <x:c r="A12" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B12" s="7">
         <x:v>0.62</x:v>
@@ -1424,10 +1447,13 @@
       <x:c r="G12" s="7">
         <x:v>0.65700000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
+      <x:c r="H12" s="7">
+        <x:v>0.57799999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
       <x:c r="A13" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B13" s="7">
         <x:v>0.59799999999999998</x:v>
@@ -1447,10 +1473,13 @@
       <x:c r="G13" s="7">
         <x:v>0.56100000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
+      <x:c r="H13" s="7">
+        <x:v>0.56100000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
       <x:c r="A14" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B14" s="7">
         <x:v>0.63500000000000001</x:v>
@@ -1470,90 +1499,101 @@
       <x:c r="G14" s="7">
         <x:v>0.67000000000000004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7">
-      <x:c r="A15" s="15" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B15" s="14"/>
-      <x:c r="C15" s="14"/>
-      <x:c r="D15" s="14"/>
-      <x:c r="E15" s="14"/>
-      <x:c r="F15" s="14"/>
-      <x:c r="G15" s="16"/>
+      <x:c r="H14" s="7">
+        <x:v>0.57799999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B15" s="10"/>
+      <x:c r="C15" s="10"/>
+      <x:c r="D15" s="10"/>
+      <x:c r="E15" s="10"/>
+      <x:c r="F15" s="10"/>
+      <x:c r="G15" s="12"/>
+      <x:c r="H15" s="10"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1"/>
       <x:c r="B17" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C17" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D17" s="10"/>
-      <x:c r="E17" s="10"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="13" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D17" s="13"/>
+      <x:c r="E17" s="13"/>
       <x:c r="F17" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:7">
-      <x:c r="A18" s="12" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B18" s="13"/>
-      <x:c r="C18" s="13"/>
-      <x:c r="D18" s="13"/>
-      <x:c r="E18" s="13"/>
-      <x:c r="F18" s="11"/>
-      <x:c r="G18" s="11"/>
-    </x:row>
-    <x:row r="19" spans="1:7">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="14" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B18" s="15"/>
+      <x:c r="C18" s="15"/>
+      <x:c r="D18" s="15"/>
+      <x:c r="E18" s="15"/>
+      <x:c r="F18" s="16"/>
+      <x:c r="G18" s="16"/>
+      <x:c r="H18" s="16"/>
+    </x:row>
+    <x:row r="19" spans="1:8">
       <x:c r="A19" s="2"/>
       <x:c r="B19" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G19" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H19" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E19" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s">
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G19" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G20" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:7">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H20" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
       <x:c r="A21" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B21" s="2">
         <x:v>0.90800000000000003</x:v>
@@ -1573,10 +1613,13 @@
       <x:c r="G21" s="2">
         <x:v>0.70699999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:7">
+      <x:c r="H21" s="2">
+        <x:v>0.94699999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
       <x:c r="A22" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B22" s="4">
         <x:v>0.67600000000000005</x:v>
@@ -1596,10 +1639,13 @@
       <x:c r="G22" s="4">
         <x:v>0.70199999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:7">
+      <x:c r="H22" s="4">
+        <x:v>0.61099999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
       <x:c r="A23" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B23" s="4">
         <x:v>0.63700000000000001</x:v>
@@ -1619,10 +1665,13 @@
       <x:c r="G23" s="9">
         <x:v>0.70399999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:7">
+      <x:c r="H23" s="4">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
       <x:c r="A24" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B24" s="4">
         <x:v>0.64300000000000002</x:v>
@@ -1642,10 +1691,13 @@
       <x:c r="G24" s="4">
         <x:v>0.58699999999999997</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:7">
+      <x:c r="H24" s="4">
+        <x:v>0.53900000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
       <x:c r="A25" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B25" s="6">
         <x:v>0.443</x:v>
@@ -1665,10 +1717,13 @@
       <x:c r="G25" s="6">
         <x:v>0.41499999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:7">
+      <x:c r="H25" s="6">
+        <x:v>0.45600000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
       <x:c r="A26" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B26" s="6">
         <x:v>0.51300000000000001</x:v>
@@ -1688,10 +1743,13 @@
       <x:c r="G26" s="6">
         <x:v>0.54600000000000004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:7">
+      <x:c r="H26" s="6">
+        <x:v>0.51100000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
       <x:c r="A27" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B27" s="6">
         <x:v>0.61299999999999999</x:v>
@@ -1711,10 +1769,13 @@
       <x:c r="G27" s="6">
         <x:v>0.66100000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:7">
+      <x:c r="H27" s="6">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8">
       <x:c r="A28" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B28" s="7">
         <x:v>0.60599999999999998</x:v>
@@ -1734,10 +1795,13 @@
       <x:c r="G28" s="9">
         <x:v>0.60899999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:7">
+      <x:c r="H28" s="7">
+        <x:v>0.51500000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8">
       <x:c r="A29" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B29" s="7">
         <x:v>0.61699999999999999</x:v>
@@ -1757,10 +1821,13 @@
       <x:c r="G29" s="7">
         <x:v>0.52000000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:7">
+      <x:c r="H29" s="7">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8">
       <x:c r="A30" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B30" s="7">
         <x:v>0.68500000000000005</x:v>
@@ -1780,90 +1847,101 @@
       <x:c r="G30" s="7">
         <x:v>0.68000000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:7">
-      <x:c r="A31" s="15" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B31" s="14"/>
-      <x:c r="C31" s="14"/>
-      <x:c r="D31" s="14"/>
-      <x:c r="E31" s="14"/>
-      <x:c r="F31" s="14"/>
-      <x:c r="G31" s="14"/>
+      <x:c r="H30" s="7">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8">
+      <x:c r="A31" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B31" s="10"/>
+      <x:c r="C31" s="10"/>
+      <x:c r="D31" s="10"/>
+      <x:c r="E31" s="10"/>
+      <x:c r="F31" s="10"/>
+      <x:c r="G31" s="10"/>
+      <x:c r="H31" s="10"/>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1"/>
       <x:c r="B33" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C33" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D33" s="10"/>
-      <x:c r="E33" s="10"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C33" s="13" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D33" s="13"/>
+      <x:c r="E33" s="13"/>
       <x:c r="F33" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:7">
-      <x:c r="A34" s="12" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B34" s="13"/>
-      <x:c r="C34" s="13"/>
-      <x:c r="D34" s="13"/>
-      <x:c r="E34" s="13"/>
-      <x:c r="F34" s="11"/>
-      <x:c r="G34" s="11"/>
-    </x:row>
-    <x:row r="35" spans="1:7">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8">
+      <x:c r="A34" s="14" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B34" s="15"/>
+      <x:c r="C34" s="15"/>
+      <x:c r="D34" s="15"/>
+      <x:c r="E34" s="15"/>
+      <x:c r="F34" s="16"/>
+      <x:c r="G34" s="16"/>
+      <x:c r="H34" s="16"/>
+    </x:row>
+    <x:row r="35" spans="1:8">
       <x:c r="A35" s="2"/>
       <x:c r="B35" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E35" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G35" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H35" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E35" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G35" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:7">
+    </x:row>
+    <x:row r="36" spans="1:8">
       <x:c r="A36" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E36" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G36" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:7">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H36" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8">
       <x:c r="A37" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="2">
         <x:v>0.82399999999999995</x:v>
@@ -1883,10 +1961,13 @@
       <x:c r="G37" s="2">
         <x:v>0.68600000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:7">
+      <x:c r="H37" s="2">
+        <x:v>0.85599999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8">
       <x:c r="A38" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B38" s="4">
         <x:v>0.54400000000000004</x:v>
@@ -1906,10 +1987,13 @@
       <x:c r="G38" s="9">
         <x:v>0.61899999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:7">
+      <x:c r="H38" s="4">
+        <x:v>0.48499999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8">
       <x:c r="A39" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B39" s="4">
         <x:v>0.52400000000000002</x:v>
@@ -1929,10 +2013,13 @@
       <x:c r="G39" s="9">
         <x:v>0.57599999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:7">
+      <x:c r="H39" s="4">
+        <x:v>0.41499999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8">
       <x:c r="A40" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="4">
         <x:v>0.439</x:v>
@@ -1952,10 +2039,13 @@
       <x:c r="G40" s="4">
         <x:v>0.56999999999999995</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:7">
+      <x:c r="H40" s="4">
+        <x:v>0.372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8">
       <x:c r="A41" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B41" s="6">
         <x:v>0.35699999999999998</x:v>
@@ -1975,10 +2065,13 @@
       <x:c r="G41" s="9">
         <x:v>0.48699999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:7">
+      <x:c r="H41" s="6">
+        <x:v>0.35899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8">
       <x:c r="A42" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B42" s="6">
         <x:v>0.49399999999999999</x:v>
@@ -1998,10 +2091,13 @@
       <x:c r="G42" s="6">
         <x:v>0.55600000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:7">
+      <x:c r="H42" s="6">
+        <x:v>0.443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
       <x:c r="A43" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B43" s="6">
         <x:v>0.51700000000000002</x:v>
@@ -2021,10 +2117,13 @@
       <x:c r="G43" s="6">
         <x:v>0.53300000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:7">
+      <x:c r="H43" s="6">
+        <x:v>0.41999999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
       <x:c r="A44" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B44" s="7">
         <x:v>0.504</x:v>
@@ -2044,10 +2143,13 @@
       <x:c r="G44" s="9">
         <x:v>0.65200000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:7">
+      <x:c r="H44" s="7">
+        <x:v>0.47999999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
       <x:c r="A45" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B45" s="7">
         <x:v>0.51700000000000002</x:v>
@@ -2067,10 +2169,13 @@
       <x:c r="G45" s="9">
         <x:v>0.55200000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:7">
+      <x:c r="H45" s="7">
+        <x:v>0.40000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
       <x:c r="A46" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B46" s="7">
         <x:v>0.54400000000000004</x:v>
@@ -2090,89 +2195,100 @@
       <x:c r="G46" s="9">
         <x:v>0.59599999999999997</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:7">
-      <x:c r="A47" s="15" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B47" s="14"/>
-      <x:c r="C47" s="14"/>
-      <x:c r="D47" s="14"/>
-      <x:c r="E47" s="14"/>
-      <x:c r="F47" s="14" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G47" s="14"/>
+      <x:c r="H46" s="7">
+        <x:v>0.42599999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8">
+      <x:c r="A47" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B47" s="10"/>
+      <x:c r="C47" s="10"/>
+      <x:c r="D47" s="10"/>
+      <x:c r="E47" s="10"/>
+      <x:c r="F47" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G47" s="10"/>
+      <x:c r="H47" s="10"/>
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="1"/>
       <x:c r="B49" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C49" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D49" s="10"/>
-      <x:c r="E49" s="10"/>
-    </x:row>
-    <x:row r="50" spans="1:7">
-      <x:c r="A50" s="12" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B50" s="13"/>
-      <x:c r="C50" s="13"/>
-      <x:c r="D50" s="13"/>
-      <x:c r="E50" s="13"/>
-      <x:c r="F50" s="11"/>
-      <x:c r="G50" s="11"/>
-    </x:row>
-    <x:row r="51" spans="1:7">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C49" s="13" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D49" s="13"/>
+      <x:c r="E49" s="13"/>
+    </x:row>
+    <x:row r="50" spans="1:8">
+      <x:c r="A50" s="14" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B50" s="15"/>
+      <x:c r="C50" s="15"/>
+      <x:c r="D50" s="15"/>
+      <x:c r="E50" s="15"/>
+      <x:c r="F50" s="16"/>
+      <x:c r="G50" s="16"/>
+      <x:c r="H50" s="16"/>
+    </x:row>
+    <x:row r="51" spans="1:8">
       <x:c r="A51" s="2"/>
       <x:c r="B51" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E51" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G51" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H51" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E51" s="2" t="s">
+    </x:row>
+    <x:row r="52" spans="1:8">
+      <x:c r="A52" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E52" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G52" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F51" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G51" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:7">
-      <x:c r="A52" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E52" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G52" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:7">
+      <x:c r="H52" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:8">
       <x:c r="A53" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B53" s="2">
         <x:v>0.93400000000000005</x:v>
@@ -2192,10 +2308,13 @@
       <x:c r="G53" s="2">
         <x:v>0.69999999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:7">
+      <x:c r="H53" s="2">
+        <x:v>0.93300000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:8">
       <x:c r="A54" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B54" s="4">
         <x:v>0.67400000000000004</x:v>
@@ -2215,10 +2334,13 @@
       <x:c r="G54" s="4">
         <x:v>0.72399999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:7">
+      <x:c r="H54" s="4">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:8">
       <x:c r="A55" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B55" s="4">
         <x:v>0.61299999999999999</x:v>
@@ -2238,10 +2360,13 @@
       <x:c r="G55" s="9">
         <x:v>0.67000000000000004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="56" spans="1:7">
+      <x:c r="H55" s="4">
+        <x:v>0.443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:8">
       <x:c r="A56" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B56" s="4">
         <x:v>0.61699999999999999</x:v>
@@ -2261,10 +2386,13 @@
       <x:c r="G56" s="4">
         <x:v>0.61499999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="57" spans="1:7">
+      <x:c r="H56" s="4">
+        <x:v>0.55400000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:8">
       <x:c r="A57" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B57" s="6">
         <x:v>0.41099999999999998</x:v>
@@ -2284,10 +2412,13 @@
       <x:c r="G57" s="6">
         <x:v>0.51300000000000001</x:v>
       </x:c>
-    </x:row>
-    <x:row r="58" spans="1:7">
+      <x:c r="H57" s="6">
+        <x:v>0.36899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:8">
       <x:c r="A58" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B58" s="6">
         <x:v>0.56499999999999995</x:v>
@@ -2307,10 +2438,13 @@
       <x:c r="G58" s="6">
         <x:v>0.59999999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="59" spans="1:7">
+      <x:c r="H58" s="6">
+        <x:v>0.47599999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:8">
       <x:c r="A59" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B59" s="6">
         <x:v>0.626</x:v>
@@ -2330,10 +2464,13 @@
       <x:c r="G59" s="9">
         <x:v>0.73299999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:7">
+      <x:c r="H59" s="6">
+        <x:v>0.46500000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:8">
       <x:c r="A60" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B60" s="7">
         <x:v>0.56999999999999995</x:v>
@@ -2353,10 +2490,13 @@
       <x:c r="G60" s="9">
         <x:v>0.67200000000000004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:7">
+      <x:c r="H60" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:8">
       <x:c r="A61" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B61" s="7">
         <x:v>0.59399999999999997</x:v>
@@ -2376,10 +2516,13 @@
       <x:c r="G61" s="9">
         <x:v>0.64400000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="62" spans="1:7">
+      <x:c r="H61" s="7">
+        <x:v>0.47799999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:8">
       <x:c r="A62" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B62" s="7">
         <x:v>0.63900000000000001</x:v>
@@ -2399,28 +2542,32 @@
       <x:c r="G62" s="9">
         <x:v>0.73499999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="63" spans="1:7">
-      <x:c r="A63" s="15" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B63" s="14"/>
-      <x:c r="C63" s="14"/>
-      <x:c r="D63" s="14"/>
-      <x:c r="E63" s="14"/>
-      <x:c r="F63" s="14"/>
-      <x:c r="G63" s="14"/>
+      <x:c r="H62" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:8">
+      <x:c r="A63" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B63" s="10"/>
+      <x:c r="C63" s="10"/>
+      <x:c r="D63" s="10"/>
+      <x:c r="E63" s="10"/>
+      <x:c r="F63" s="10"/>
+      <x:c r="G63" s="10"/>
+      <x:c r="H63" s="10"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="8">
     <x:mergeCell ref="C1:E1"/>
-    <x:mergeCell ref="A2:G2"/>
+    <x:mergeCell ref="A2:H2"/>
     <x:mergeCell ref="C17:E17"/>
-    <x:mergeCell ref="A18:G18"/>
+    <x:mergeCell ref="A18:H18"/>
     <x:mergeCell ref="C33:E33"/>
-    <x:mergeCell ref="A34:G34"/>
+    <x:mergeCell ref="A34:H34"/>
     <x:mergeCell ref="C49:E49"/>
-    <x:mergeCell ref="A50:G50"/>
+    <x:mergeCell ref="A50:H50"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/SuHeon/기록.xlsx
+++ b/SuHeon/기록.xlsx
@@ -19,7 +19,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
+  <x:si>
+    <x:t>kernel='rbf', random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>svc_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델학습 제대로 안됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습 정확도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf</x:t>
+  </x:si>
   <x:si>
     <x:t>n_estimators=200, random_state=66</x:t>
   </x:si>
@@ -27,163 +177,34 @@
     <x:t>dnn_model_3D_angle.h5</x:t>
   </x:si>
   <x:si>
+    <x:t>dnn_model_3D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_point.h5</x:t>
+  </x:si>
+  <x:si>
     <x:t>dnn_model_2D_angle.h5</x:t>
   </x:si>
   <x:si>
-    <x:t>dnn_model_3D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습 정확도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델학습 제대로 안됨</x:t>
-  </x:si>
-  <x:si>
     <x:t>tf=66, GlorotUniform(seed=66)</x:t>
   </x:si>
   <x:si>
     <x:t>max_iter=1000, random_state=66</x:t>
   </x:si>
   <x:si>
-    <x:t>dt_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt_model_3D_angle.joblib</x:t>
+    <x:t>random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>svc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>svc_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>svc_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>svc_model_3D_point.joblib</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1152,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H63"/>
+  <x:dimension ref="A1:I63"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="J62" activeCellId="0" sqref="J62:J62"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <x:selection activeCell="K51" activeCellId="0" sqref="K51:K51"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1167,23 +1188,29 @@
     <x:col min="12" max="15" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C1" s="13" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="C1" s="13" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="D1" s="13"/>
       <x:c r="E1" s="13"/>
       <x:c r="F1" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
       <x:c r="A2" s="14" t="s">
-        <x:v>47</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="15"/>
@@ -1192,60 +1219,67 @@
       <x:c r="F2" s="16"/>
       <x:c r="G2" s="16"/>
       <x:c r="H2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:8">
+      <x:c r="I2" s="16"/>
+    </x:row>
+    <x:row r="3" spans="1:9">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
       <x:c r="A4" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I4" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
       <x:c r="A5" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="2">
         <x:v>0.81399999999999995</x:v>
@@ -1268,10 +1302,13 @@
       <x:c r="H5" s="2">
         <x:v>0.86499999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
+      <x:c r="I5" s="2">
+        <x:v>0.68500000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>0.70899999999999996</x:v>
@@ -1294,10 +1331,13 @@
       <x:c r="H6" s="4">
         <x:v>0.53900000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
+      <x:c r="I6" s="9">
+        <x:v>0.76500000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B7" s="4">
         <x:v>0.63900000000000001</x:v>
@@ -1311,7 +1351,7 @@
       <x:c r="E7" s="4">
         <x:v>0.60199999999999998</x:v>
       </x:c>
-      <x:c r="F7" s="9">
+      <x:c r="F7" s="4">
         <x:v>0.67000000000000004</x:v>
       </x:c>
       <x:c r="G7" s="4">
@@ -1320,15 +1360,18 @@
       <x:c r="H7" s="4">
         <x:v>0.624</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8">
+      <x:c r="I7" s="9">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B8" s="4">
         <x:v>0.65600000000000003</x:v>
       </x:c>
-      <x:c r="C8" s="9">
+      <x:c r="C8" s="4">
         <x:v>0.67200000000000004</x:v>
       </x:c>
       <x:c r="D8" s="4">
@@ -1346,10 +1389,13 @@
       <x:c r="H8" s="4">
         <x:v>0.51900000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
+      <x:c r="I8" s="9">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
       <x:c r="A9" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B9" s="6">
         <x:v>0.498</x:v>
@@ -1363,7 +1409,7 @@
       <x:c r="E9" s="6">
         <x:v>0.44400000000000001</x:v>
       </x:c>
-      <x:c r="F9" s="9">
+      <x:c r="F9" s="6">
         <x:v>0.51700000000000002</x:v>
       </x:c>
       <x:c r="G9" s="6">
@@ -1372,10 +1418,13 @@
       <x:c r="H9" s="6">
         <x:v>0.41099999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8">
+      <x:c r="I9" s="9">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9">
       <x:c r="A10" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B10" s="6">
         <x:v>0.60899999999999999</x:v>
@@ -1398,10 +1447,13 @@
       <x:c r="H10" s="6">
         <x:v>0.498</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8">
+      <x:c r="I10" s="6">
+        <x:v>0.59099999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9">
       <x:c r="A11" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>0.65200000000000002</x:v>
@@ -1412,7 +1464,7 @@
       <x:c r="D11" s="6">
         <x:v>0.65200000000000002</x:v>
       </x:c>
-      <x:c r="E11" s="9">
+      <x:c r="E11" s="6">
         <x:v>0.65400000000000003</x:v>
       </x:c>
       <x:c r="F11" s="6">
@@ -1424,10 +1476,13 @@
       <x:c r="H11" s="6">
         <x:v>0.59299999999999997</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8">
+      <x:c r="I11" s="9">
+        <x:v>0.66900000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
       <x:c r="A12" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B12" s="7">
         <x:v>0.62</x:v>
@@ -1450,8 +1505,11 @@
       <x:c r="H12" s="7">
         <x:v>0.57799999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8">
+      <x:c r="I12" s="7">
+        <x:v>0.67800000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:9">
       <x:c r="A13" s="8" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -1476,10 +1534,13 @@
       <x:c r="H13" s="7">
         <x:v>0.56100000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8">
+      <x:c r="I13" s="7">
+        <x:v>0.59799999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:9">
       <x:c r="A14" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B14" s="7">
         <x:v>0.63500000000000001</x:v>
@@ -1493,7 +1554,7 @@
       <x:c r="E14" s="7">
         <x:v>0.61899999999999999</x:v>
       </x:c>
-      <x:c r="F14" s="9">
+      <x:c r="F14" s="7">
         <x:v>0.69399999999999995</x:v>
       </x:c>
       <x:c r="G14" s="7">
@@ -1502,10 +1563,13 @@
       <x:c r="H14" s="7">
         <x:v>0.57799999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:8">
+      <x:c r="I14" s="9">
+        <x:v>0.71099999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:9">
       <x:c r="A15" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B15" s="10"/>
       <x:c r="C15" s="10"/>
@@ -1514,24 +1578,31 @@
       <x:c r="F15" s="10"/>
       <x:c r="G15" s="12"/>
       <x:c r="H15" s="10"/>
-    </x:row>
-    <x:row r="17" spans="1:6">
+      <x:c r="I15" s="10"/>
+    </x:row>
+    <x:row r="17" spans="1:9">
       <x:c r="A17" s="1"/>
       <x:c r="B17" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C17" s="13" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="13" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="13"/>
       <x:c r="E17" s="13"/>
       <x:c r="F17" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:8">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9">
       <x:c r="A18" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B18" s="15"/>
       <x:c r="C18" s="15"/>
@@ -1540,60 +1611,67 @@
       <x:c r="F18" s="16"/>
       <x:c r="G18" s="16"/>
       <x:c r="H18" s="16"/>
-    </x:row>
-    <x:row r="19" spans="1:8">
+      <x:c r="I18" s="16"/>
+    </x:row>
+    <x:row r="19" spans="1:9">
       <x:c r="A19" s="2"/>
       <x:c r="B19" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G19" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H19" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:8">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:9">
       <x:c r="A20" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G20" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H20" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:8">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I20" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:9">
       <x:c r="A21" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B21" s="2">
         <x:v>0.90800000000000003</x:v>
@@ -1616,10 +1694,13 @@
       <x:c r="H21" s="2">
         <x:v>0.94699999999999995</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:8">
+      <x:c r="I21" s="2">
+        <x:v>0.71299999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:9">
       <x:c r="A22" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B22" s="4">
         <x:v>0.67600000000000005</x:v>
@@ -1633,7 +1714,7 @@
       <x:c r="E22" s="4">
         <x:v>0.61299999999999999</x:v>
       </x:c>
-      <x:c r="F22" s="9">
+      <x:c r="F22" s="4">
         <x:v>0.746</x:v>
       </x:c>
       <x:c r="G22" s="4">
@@ -1642,10 +1723,13 @@
       <x:c r="H22" s="4">
         <x:v>0.61099999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:8">
+      <x:c r="I22" s="9">
+        <x:v>0.748</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:9">
       <x:c r="A23" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B23" s="4">
         <x:v>0.63700000000000001</x:v>
@@ -1662,16 +1746,19 @@
       <x:c r="F23" s="4">
         <x:v>0.69799999999999995</x:v>
       </x:c>
-      <x:c r="G23" s="9">
+      <x:c r="G23" s="4">
         <x:v>0.70399999999999996</x:v>
       </x:c>
       <x:c r="H23" s="4">
         <x:v>0.53300000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:8">
+      <x:c r="I23" s="9">
+        <x:v>0.72399999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:9">
       <x:c r="A24" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B24" s="4">
         <x:v>0.64300000000000002</x:v>
@@ -1694,10 +1781,13 @@
       <x:c r="H24" s="4">
         <x:v>0.53900000000000003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:8">
+      <x:c r="I24" s="4">
+        <x:v>0.746</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:9">
       <x:c r="A25" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B25" s="6">
         <x:v>0.443</x:v>
@@ -1720,10 +1810,13 @@
       <x:c r="H25" s="6">
         <x:v>0.45600000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:8">
+      <x:c r="I25" s="6">
+        <x:v>0.54300000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:9">
       <x:c r="A26" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B26" s="6">
         <x:v>0.51300000000000001</x:v>
@@ -1746,10 +1839,13 @@
       <x:c r="H26" s="6">
         <x:v>0.51100000000000001</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:8">
+      <x:c r="I26" s="6">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:9">
       <x:c r="A27" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B27" s="6">
         <x:v>0.61299999999999999</x:v>
@@ -1772,10 +1868,13 @@
       <x:c r="H27" s="6">
         <x:v>0.54400000000000004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:8">
+      <x:c r="I27" s="6">
+        <x:v>0.73899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:9">
       <x:c r="A28" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B28" s="7">
         <x:v>0.60599999999999998</x:v>
@@ -1792,21 +1891,24 @@
       <x:c r="F28" s="7">
         <x:v>0.60699999999999998</x:v>
       </x:c>
-      <x:c r="G28" s="9">
+      <x:c r="G28" s="7">
         <x:v>0.60899999999999999</x:v>
       </x:c>
       <x:c r="H28" s="7">
         <x:v>0.51500000000000001</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:8">
+      <x:c r="I28" s="9">
+        <x:v>0.68700000000000006</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:9">
       <x:c r="A29" s="8" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="B29" s="7">
         <x:v>0.61699999999999999</x:v>
       </x:c>
-      <x:c r="C29" s="9">
+      <x:c r="C29" s="7">
         <x:v>0.64100000000000001</x:v>
       </x:c>
       <x:c r="D29" s="7">
@@ -1824,10 +1926,13 @@
       <x:c r="H29" s="7">
         <x:v>0.55900000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:8">
+      <x:c r="I29" s="9">
+        <x:v>0.66300000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:9">
       <x:c r="A30" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B30" s="7">
         <x:v>0.68500000000000005</x:v>
@@ -1841,7 +1946,7 @@
       <x:c r="E30" s="7">
         <x:v>0.57399999999999995</x:v>
       </x:c>
-      <x:c r="F30" s="9">
+      <x:c r="F30" s="7">
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="G30" s="7">
@@ -1850,10 +1955,13 @@
       <x:c r="H30" s="7">
         <x:v>0.56899999999999995</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:8">
+      <x:c r="I30" s="9">
+        <x:v>0.77200000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:9">
       <x:c r="A31" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B31" s="10"/>
       <x:c r="C31" s="10"/>
@@ -1862,24 +1970,31 @@
       <x:c r="F31" s="10"/>
       <x:c r="G31" s="10"/>
       <x:c r="H31" s="10"/>
-    </x:row>
-    <x:row r="33" spans="1:6">
+      <x:c r="I31" s="10"/>
+    </x:row>
+    <x:row r="33" spans="1:9">
       <x:c r="A33" s="1"/>
       <x:c r="B33" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C33" s="13" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="C33" s="13" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="13"/>
       <x:c r="E33" s="13"/>
       <x:c r="F33" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:8">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H33" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I33" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:9">
       <x:c r="A34" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B34" s="15"/>
       <x:c r="C34" s="15"/>
@@ -1888,60 +2003,67 @@
       <x:c r="F34" s="16"/>
       <x:c r="G34" s="16"/>
       <x:c r="H34" s="16"/>
-    </x:row>
-    <x:row r="35" spans="1:8">
+      <x:c r="I34" s="16"/>
+    </x:row>
+    <x:row r="35" spans="1:9">
       <x:c r="A35" s="2"/>
       <x:c r="B35" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E35" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G35" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H35" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:8">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I35" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:9">
       <x:c r="A36" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E36" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G36" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H36" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I36" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:9">
+      <x:c r="A37" s="2" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="G36" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H36" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:8">
-      <x:c r="A37" s="2" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="2">
         <x:v>0.82399999999999995</x:v>
@@ -1964,10 +2086,13 @@
       <x:c r="H37" s="2">
         <x:v>0.85599999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:8">
+      <x:c r="I37" s="2">
+        <x:v>0.76600000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:9">
       <x:c r="A38" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B38" s="4">
         <x:v>0.54400000000000004</x:v>
@@ -1990,10 +2115,13 @@
       <x:c r="H38" s="4">
         <x:v>0.48499999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:8">
+      <x:c r="I38" s="4">
+        <x:v>0.55200000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:9">
       <x:c r="A39" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B39" s="4">
         <x:v>0.52400000000000002</x:v>
@@ -2016,10 +2144,13 @@
       <x:c r="H39" s="4">
         <x:v>0.41499999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:8">
+      <x:c r="I39" s="4">
+        <x:v>0.54600000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:9">
       <x:c r="A40" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B40" s="4">
         <x:v>0.439</x:v>
@@ -2042,10 +2173,13 @@
       <x:c r="H40" s="4">
         <x:v>0.372</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:8">
+      <x:c r="I40" s="4">
+        <x:v>0.52600000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:9">
       <x:c r="A41" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B41" s="6">
         <x:v>0.35699999999999998</x:v>
@@ -2068,10 +2202,13 @@
       <x:c r="H41" s="6">
         <x:v>0.35899999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:8">
+      <x:c r="I41" s="6">
+        <x:v>0.41299999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:9">
       <x:c r="A42" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B42" s="6">
         <x:v>0.49399999999999999</x:v>
@@ -2094,10 +2231,13 @@
       <x:c r="H42" s="6">
         <x:v>0.443</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:8">
+      <x:c r="I42" s="6">
+        <x:v>0.50600000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:9">
       <x:c r="A43" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B43" s="6">
         <x:v>0.51700000000000002</x:v>
@@ -2120,10 +2260,13 @@
       <x:c r="H43" s="6">
         <x:v>0.41999999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:8">
+      <x:c r="I43" s="6">
+        <x:v>0.57199999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:9">
       <x:c r="A44" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B44" s="7">
         <x:v>0.504</x:v>
@@ -2146,8 +2289,11 @@
       <x:c r="H44" s="7">
         <x:v>0.47999999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:8">
+      <x:c r="I44" s="7">
+        <x:v>0.52000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:9">
       <x:c r="A45" s="8" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -2166,16 +2312,19 @@
       <x:c r="F45" s="7">
         <x:v>0.49299999999999999</x:v>
       </x:c>
-      <x:c r="G45" s="9">
+      <x:c r="G45" s="7">
         <x:v>0.55200000000000005</x:v>
       </x:c>
       <x:c r="H45" s="7">
         <x:v>0.40000000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:8">
+      <x:c r="I45" s="9">
+        <x:v>0.56100000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:9">
       <x:c r="A46" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B46" s="7">
         <x:v>0.54400000000000004</x:v>
@@ -2198,35 +2347,48 @@
       <x:c r="H46" s="7">
         <x:v>0.42599999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:8">
+      <x:c r="I46" s="7">
+        <x:v>0.57399999999999995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:9">
       <x:c r="A47" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B47" s="10"/>
       <x:c r="C47" s="10"/>
       <x:c r="D47" s="10"/>
       <x:c r="E47" s="10"/>
       <x:c r="F47" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G47" s="10"/>
       <x:c r="H47" s="10"/>
-    </x:row>
-    <x:row r="49" spans="1:5">
+      <x:c r="I47" s="10"/>
+    </x:row>
+    <x:row r="49" spans="1:9">
       <x:c r="A49" s="1"/>
       <x:c r="B49" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C49" s="13" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="C49" s="13" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="13"/>
       <x:c r="E49" s="13"/>
-    </x:row>
-    <x:row r="50" spans="1:8">
+      <x:c r="F49" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H49" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I49" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:9">
       <x:c r="A50" s="14" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B50" s="15"/>
       <x:c r="C50" s="15"/>
@@ -2235,60 +2397,67 @@
       <x:c r="F50" s="16"/>
       <x:c r="G50" s="16"/>
       <x:c r="H50" s="16"/>
-    </x:row>
-    <x:row r="51" spans="1:8">
+      <x:c r="I50" s="16"/>
+    </x:row>
+    <x:row r="51" spans="1:9">
       <x:c r="A51" s="2"/>
       <x:c r="B51" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E51" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G51" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H51" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:8">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I51" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:9">
       <x:c r="A52" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E52" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G52" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H52" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:8">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I52" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:9">
       <x:c r="A53" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B53" s="2">
         <x:v>0.93400000000000005</x:v>
@@ -2311,10 +2480,13 @@
       <x:c r="H53" s="2">
         <x:v>0.93300000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:8">
+      <x:c r="I53" s="2">
+        <x:v>0.74199999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:9">
       <x:c r="A54" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B54" s="4">
         <x:v>0.67400000000000004</x:v>
@@ -2337,10 +2509,13 @@
       <x:c r="H54" s="4">
         <x:v>0.57999999999999996</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:8">
+      <x:c r="I54" s="4">
+        <x:v>0.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:9">
       <x:c r="A55" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B55" s="4">
         <x:v>0.61299999999999999</x:v>
@@ -2363,10 +2538,13 @@
       <x:c r="H55" s="4">
         <x:v>0.443</x:v>
       </x:c>
-    </x:row>
-    <x:row r="56" spans="1:8">
+      <x:c r="I55" s="4">
+        <x:v>0.58699999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:9">
       <x:c r="A56" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B56" s="4">
         <x:v>0.61699999999999999</x:v>
@@ -2389,10 +2567,13 @@
       <x:c r="H56" s="4">
         <x:v>0.55400000000000005</x:v>
       </x:c>
-    </x:row>
-    <x:row r="57" spans="1:8">
+      <x:c r="I56" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:9">
       <x:c r="A57" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B57" s="6">
         <x:v>0.41099999999999998</x:v>
@@ -2415,10 +2596,13 @@
       <x:c r="H57" s="6">
         <x:v>0.36899999999999999</x:v>
       </x:c>
-    </x:row>
-    <x:row r="58" spans="1:8">
+      <x:c r="I57" s="6">
+        <x:v>0.48899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:9">
       <x:c r="A58" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B58" s="6">
         <x:v>0.56499999999999995</x:v>
@@ -2441,10 +2625,13 @@
       <x:c r="H58" s="6">
         <x:v>0.47599999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="59" spans="1:8">
+      <x:c r="I58" s="6">
+        <x:v>0.54100000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:9">
       <x:c r="A59" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B59" s="6">
         <x:v>0.626</x:v>
@@ -2467,10 +2654,13 @@
       <x:c r="H59" s="6">
         <x:v>0.46500000000000002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:8">
+      <x:c r="I59" s="6">
+        <x:v>0.59599999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:9">
       <x:c r="A60" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B60" s="7">
         <x:v>0.56999999999999995</x:v>
@@ -2493,8 +2683,11 @@
       <x:c r="H60" s="7">
         <x:v>0.54400000000000004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:8">
+      <x:c r="I60" s="7">
+        <x:v>0.624</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:9">
       <x:c r="A61" s="8" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -2519,10 +2712,13 @@
       <x:c r="H61" s="7">
         <x:v>0.47799999999999998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="62" spans="1:8">
+      <x:c r="I61" s="7">
+        <x:v>0.58499999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:9">
       <x:c r="A62" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B62" s="7">
         <x:v>0.63900000000000001</x:v>
@@ -2545,10 +2741,13 @@
       <x:c r="H62" s="7">
         <x:v>0.54400000000000004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="63" spans="1:8">
+      <x:c r="I62" s="7">
+        <x:v>0.59599999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:9">
       <x:c r="A63" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B63" s="10"/>
       <x:c r="C63" s="10"/>
@@ -2557,17 +2756,18 @@
       <x:c r="F63" s="10"/>
       <x:c r="G63" s="10"/>
       <x:c r="H63" s="10"/>
+      <x:c r="I63" s="10"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="8">
     <x:mergeCell ref="C1:E1"/>
-    <x:mergeCell ref="A2:H2"/>
+    <x:mergeCell ref="A2:I2"/>
     <x:mergeCell ref="C17:E17"/>
-    <x:mergeCell ref="A18:H18"/>
+    <x:mergeCell ref="A18:I18"/>
     <x:mergeCell ref="C33:E33"/>
-    <x:mergeCell ref="A34:H34"/>
+    <x:mergeCell ref="A34:I34"/>
     <x:mergeCell ref="C49:E49"/>
-    <x:mergeCell ref="A50:H50"/>
+    <x:mergeCell ref="A50:I50"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/SuHeon/기록.xlsx
+++ b/SuHeon/기록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11430" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,54 +19,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+  <x:si>
+    <x:t>평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_2D_point.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dnn_model_3D_angle.h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>svc_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n_estimators=200, random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델학습 제대로 안됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 각도, 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습 정확도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1_2</x:t>
+  </x:si>
   <x:si>
     <x:t>kernel='rbf', random_state=66</x:t>
   </x:si>
   <x:si>
-    <x:t>svc_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 각도, 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델학습 제대로 안됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_3D_angle.joblib</x:t>
+    <x:t>tf=66, GlorotUniform(seed=66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>max_iter=1000, random_state=66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>svc_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lr_model_2D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lgbm_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf_model_3D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xgb_model_2D_angle.joblib</x:t>
   </x:si>
   <x:si>
     <x:t>lr_model_3D_point.joblib</x:t>
@@ -75,136 +168,46 @@
     <x:t>lgbm_model_3D_angle.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>xgb_model_2D_angle.joblib</x:t>
+    <x:t>xgb_model_2D_point.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb_model_2D_point.joblib</x:t>
   </x:si>
   <x:si>
     <x:t>rf_model_2D_point.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>lr_model_3D_angle.joblib</x:t>
+    <x:t>svc_model_2D_angle.joblib</x:t>
   </x:si>
   <x:si>
     <x:t>gnb_model_2D_angle.joblib</x:t>
   </x:si>
   <x:si>
-    <x:t>lgbm_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xgb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnb_model_2D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lr_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf_model_3D_point.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습 정확도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lgbm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3D 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test3_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1_1</x:t>
+    <x:t>svc_model_3D_angle.joblib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gnb</x:t>
   </x:si>
   <x:si>
     <x:t>lr</x:t>
   </x:si>
   <x:si>
-    <x:t>gnb</x:t>
+    <x:t>rf</x:t>
   </x:si>
   <x:si>
     <x:t>dt</x:t>
   </x:si>
   <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>svc</x:t>
+  </x:si>
+  <x:si>
     <x:t>dnn</x:t>
   </x:si>
   <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
     <x:t>xgb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n_estimators=200, random_state=66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_3D_angle.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_3D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_point.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnn_model_2D_angle.h5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tf=66, GlorotUniform(seed=66)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>max_iter=1000, random_state=66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>random_state=66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>svc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>svc_model_3D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>svc_model_2D_angle.joblib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>svc_model_3D_point.joblib</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -254,7 +257,7 @@
       <x:b val="1"/>
     </x:font>
   </x:fonts>
-  <x:fills count="12">
+  <x:fills count="11">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -306,12 +309,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ffffff00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffffff"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -408,51 +405,51 @@
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -1173,10 +1170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:I63"/>
+  <x:dimension ref="A1:O67"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <x:selection activeCell="K51" activeCellId="0" sqref="K51:K51"/>
+    <x:sheetView tabSelected="1" topLeftCell="A40" zoomScale="120" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <x:selection activeCell="E66" activeCellId="0" sqref="E66:E66"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1191,95 +1188,95 @@
     <x:row r="1" spans="1:9">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C1" s="13" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D1" s="13"/>
-      <x:c r="E1" s="13"/>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D1" s="12"/>
+      <x:c r="E1" s="12"/>
       <x:c r="F1" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="14" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="15"/>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="16"/>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="16"/>
+      <x:c r="A2" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B2" s="14"/>
+      <x:c r="C2" s="14"/>
+      <x:c r="D2" s="14"/>
+      <x:c r="E2" s="14"/>
+      <x:c r="F2" s="15"/>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="15"/>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" s="2">
         <x:v>0.81399999999999995</x:v>
@@ -1308,7 +1305,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>0.70899999999999996</x:v>
@@ -1337,7 +1334,7 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B7" s="4">
         <x:v>0.63900000000000001</x:v>
@@ -1366,7 +1363,7 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B8" s="4">
         <x:v>0.65600000000000003</x:v>
@@ -1395,7 +1392,7 @@
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B9" s="6">
         <x:v>0.498</x:v>
@@ -1424,7 +1421,7 @@
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B10" s="6">
         <x:v>0.60899999999999999</x:v>
@@ -1453,7 +1450,7 @@
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>0.65200000000000002</x:v>
@@ -1482,7 +1479,7 @@
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="7">
         <x:v>0.62</x:v>
@@ -1511,7 +1508,7 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B13" s="7">
         <x:v>0.59799999999999998</x:v>
@@ -1540,7 +1537,7 @@
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B14" s="7">
         <x:v>0.63500000000000001</x:v>
@@ -1569,1205 +1566,1377 @@
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="11" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B15" s="10"/>
-      <x:c r="C15" s="10"/>
-      <x:c r="D15" s="10"/>
-      <x:c r="E15" s="10"/>
-      <x:c r="F15" s="10"/>
-      <x:c r="G15" s="12"/>
-      <x:c r="H15" s="10"/>
-      <x:c r="I15" s="10"/>
-    </x:row>
-    <x:row r="17" spans="1:9">
-      <x:c r="A17" s="1"/>
-      <x:c r="B17" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="10">
+        <x:f>AVERAGE(B6:B14)</x:f>
+        <x:v>0.624</x:v>
+      </x:c>
+      <x:c r="C15" s="10">
+        <x:f>AVERAGE(C6:C14)</x:f>
+        <x:v>0.61344444444444457</x:v>
+      </x:c>
+      <x:c r="D15" s="10">
+        <x:f t="shared" ref="D15:I15" si="0">AVERAGE(D6:D14)</x:f>
+        <x:v>0.6003333333333335</x:v>
+      </x:c>
+      <x:c r="E15" s="10">
+        <x:f t="shared" si="0"/>
+        <x:v>0.59166666666666667</x:v>
+      </x:c>
+      <x:c r="F15" s="10">
+        <x:f t="shared" si="0"/>
+        <x:v>0.63911111111111107</x:v>
+      </x:c>
+      <x:c r="G15" s="10">
+        <x:f t="shared" si="0"/>
+        <x:v>0.60544444444444445</x:v>
+      </x:c>
+      <x:c r="H15" s="10">
+        <x:f t="shared" si="0"/>
+        <x:v>0.54455555555555568</x:v>
+      </x:c>
+      <x:c r="I15" s="16">
+        <x:f t="shared" si="0"/>
+        <x:v>0.66055555555555556</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:15" customFormat="1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B16" s="10"/>
+      <x:c r="C16" s="10"/>
+      <x:c r="D16" s="10"/>
+      <x:c r="E16" s="10"/>
+      <x:c r="F16" s="10"/>
+      <x:c r="G16" s="10"/>
+      <x:c r="H16" s="10"/>
+      <x:c r="I16" s="10"/>
+      <x:c r="J16" s="1"/>
+      <x:c r="K16" s="1"/>
+      <x:c r="L16" s="1"/>
+      <x:c r="M16" s="1"/>
+      <x:c r="N16" s="1"/>
+      <x:c r="O16" s="1"/>
+    </x:row>
+    <x:row r="18" spans="1:9">
+      <x:c r="A18" s="1"/>
+      <x:c r="B18" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C18" s="12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D18" s="12"/>
+      <x:c r="E18" s="12"/>
+      <x:c r="F18" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:9">
+      <x:c r="A19" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B19" s="14"/>
+      <x:c r="C19" s="14"/>
+      <x:c r="D19" s="14"/>
+      <x:c r="E19" s="14"/>
+      <x:c r="F19" s="15"/>
+      <x:c r="G19" s="15"/>
+      <x:c r="H19" s="15"/>
+      <x:c r="I19" s="15"/>
+    </x:row>
+    <x:row r="20" spans="1:9">
+      <x:c r="A20" s="2"/>
+      <x:c r="B20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G20" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C17" s="13" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="13"/>
-      <x:c r="E17" s="13"/>
-      <x:c r="F17" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:9">
-      <x:c r="A18" s="14" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B18" s="15"/>
-      <x:c r="C18" s="15"/>
-      <x:c r="D18" s="15"/>
-      <x:c r="E18" s="15"/>
-      <x:c r="F18" s="16"/>
-      <x:c r="G18" s="16"/>
-      <x:c r="H18" s="16"/>
-      <x:c r="I18" s="16"/>
-    </x:row>
-    <x:row r="19" spans="1:9">
-      <x:c r="A19" s="2"/>
-      <x:c r="B19" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E19" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G19" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H19" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I19" s="2" t="s">
+      <x:c r="H20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:9">
-      <x:c r="A20" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E20" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G20" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H20" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="I20" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B21" s="2">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E21" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G21" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H21" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I21" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:9">
+      <x:c r="A22" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B22" s="2">
         <x:v>0.90800000000000003</x:v>
       </x:c>
-      <x:c r="C21" s="2">
+      <x:c r="C22" s="2">
         <x:v>0.97499999999999998</x:v>
       </x:c>
-      <x:c r="D21" s="2">
+      <x:c r="D22" s="2">
         <x:v>0.97399999999999998</x:v>
       </x:c>
-      <x:c r="E21" s="2">
+      <x:c r="E22" s="2">
         <x:v>0.97899999999999998</x:v>
       </x:c>
-      <x:c r="F21" s="2">
+      <x:c r="F22" s="2">
         <x:v>0.755</x:v>
       </x:c>
-      <x:c r="G21" s="2">
+      <x:c r="G22" s="2">
         <x:v>0.70699999999999996</x:v>
       </x:c>
-      <x:c r="H21" s="2">
+      <x:c r="H22" s="2">
         <x:v>0.94699999999999995</x:v>
       </x:c>
-      <x:c r="I21" s="2">
+      <x:c r="I22" s="2">
         <x:v>0.71299999999999997</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:9">
-      <x:c r="A22" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B22" s="4">
-        <x:v>0.67600000000000005</x:v>
-      </x:c>
-      <x:c r="C22" s="4">
-        <x:v>0.66700000000000004</x:v>
-      </x:c>
-      <x:c r="D22" s="4">
-        <x:v>0.63100000000000001</x:v>
-      </x:c>
-      <x:c r="E22" s="4">
-        <x:v>0.61299999999999999</x:v>
-      </x:c>
-      <x:c r="F22" s="4">
-        <x:v>0.746</x:v>
-      </x:c>
-      <x:c r="G22" s="4">
-        <x:v>0.70199999999999996</x:v>
-      </x:c>
-      <x:c r="H22" s="4">
-        <x:v>0.61099999999999999</x:v>
-      </x:c>
-      <x:c r="I22" s="9">
-        <x:v>0.748</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B23" s="4">
-        <x:v>0.63700000000000001</x:v>
+        <x:v>0.67600000000000005</x:v>
       </x:c>
       <x:c r="C23" s="4">
-        <x:v>0.628</x:v>
+        <x:v>0.66700000000000004</x:v>
       </x:c>
       <x:c r="D23" s="4">
-        <x:v>0.55900000000000005</x:v>
+        <x:v>0.63100000000000001</x:v>
       </x:c>
       <x:c r="E23" s="4">
-        <x:v>0.53900000000000003</x:v>
+        <x:v>0.61299999999999999</x:v>
       </x:c>
       <x:c r="F23" s="4">
-        <x:v>0.69799999999999995</x:v>
+        <x:v>0.746</x:v>
       </x:c>
       <x:c r="G23" s="4">
-        <x:v>0.70399999999999996</x:v>
+        <x:v>0.70199999999999996</x:v>
       </x:c>
       <x:c r="H23" s="4">
-        <x:v>0.53300000000000003</x:v>
+        <x:v>0.61099999999999999</x:v>
       </x:c>
       <x:c r="I23" s="9">
-        <x:v>0.72399999999999998</x:v>
+        <x:v>0.748</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B24" s="4">
+        <x:v>0.63700000000000001</x:v>
+      </x:c>
+      <x:c r="C24" s="4">
+        <x:v>0.628</x:v>
+      </x:c>
+      <x:c r="D24" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="E24" s="4">
+        <x:v>0.53900000000000003</x:v>
+      </x:c>
+      <x:c r="F24" s="4">
+        <x:v>0.69799999999999995</x:v>
+      </x:c>
+      <x:c r="G24" s="4">
+        <x:v>0.70399999999999996</x:v>
+      </x:c>
+      <x:c r="H24" s="4">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+      <x:c r="I24" s="9">
+        <x:v>0.72399999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:9">
+      <x:c r="A25" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B25" s="4">
         <x:v>0.64300000000000002</x:v>
       </x:c>
-      <x:c r="C24" s="4">
+      <x:c r="C25" s="4">
         <x:v>0.71299999999999997</x:v>
       </x:c>
-      <x:c r="D24" s="4">
+      <x:c r="D25" s="4">
         <x:v>0.58699999999999997</x:v>
       </x:c>
-      <x:c r="E24" s="4">
+      <x:c r="E25" s="4">
         <x:v>0.62</x:v>
       </x:c>
-      <x:c r="F24" s="9">
+      <x:c r="F25" s="9">
         <x:v>0.76500000000000001</x:v>
       </x:c>
-      <x:c r="G24" s="4">
+      <x:c r="G25" s="4">
         <x:v>0.58699999999999997</x:v>
       </x:c>
-      <x:c r="H24" s="4">
+      <x:c r="H25" s="4">
         <x:v>0.53900000000000003</x:v>
       </x:c>
-      <x:c r="I24" s="4">
+      <x:c r="I25" s="4">
         <x:v>0.746</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:9">
-      <x:c r="A25" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B25" s="6">
-        <x:v>0.443</x:v>
-      </x:c>
-      <x:c r="C25" s="6">
-        <x:v>0.47399999999999998</x:v>
-      </x:c>
-      <x:c r="D25" s="6">
-        <x:v>0.40400000000000003</x:v>
-      </x:c>
-      <x:c r="E25" s="6">
-        <x:v>0.41999999999999998</x:v>
-      </x:c>
-      <x:c r="F25" s="9">
-        <x:v>0.59399999999999997</x:v>
-      </x:c>
-      <x:c r="G25" s="6">
-        <x:v>0.41499999999999998</x:v>
-      </x:c>
-      <x:c r="H25" s="6">
-        <x:v>0.45600000000000002</x:v>
-      </x:c>
-      <x:c r="I25" s="6">
-        <x:v>0.54300000000000004</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B26" s="6">
-        <x:v>0.51300000000000001</x:v>
-      </x:c>
-      <x:c r="C26" s="9">
-        <x:v>0.61099999999999999</x:v>
+        <x:v>0.443</x:v>
+      </x:c>
+      <x:c r="C26" s="6">
+        <x:v>0.47399999999999998</x:v>
       </x:c>
       <x:c r="D26" s="6">
-        <x:v>0.51900000000000002</x:v>
+        <x:v>0.40400000000000003</x:v>
       </x:c>
       <x:c r="E26" s="6">
-        <x:v>0.56899999999999995</x:v>
-      </x:c>
-      <x:c r="F26" s="6">
-        <x:v>0.60599999999999998</x:v>
+        <x:v>0.41999999999999998</x:v>
+      </x:c>
+      <x:c r="F26" s="9">
+        <x:v>0.59399999999999997</x:v>
       </x:c>
       <x:c r="G26" s="6">
-        <x:v>0.54600000000000004</x:v>
+        <x:v>0.41499999999999998</x:v>
       </x:c>
       <x:c r="H26" s="6">
-        <x:v>0.51100000000000001</x:v>
+        <x:v>0.45600000000000002</x:v>
       </x:c>
       <x:c r="I26" s="6">
-        <x:v>0.60899999999999999</x:v>
+        <x:v>0.54300000000000004</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="6">
+        <x:v>0.51300000000000001</x:v>
+      </x:c>
+      <x:c r="C27" s="9">
+        <x:v>0.61099999999999999</x:v>
+      </x:c>
+      <x:c r="D27" s="6">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
+      <x:c r="E27" s="6">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
+      <x:c r="F27" s="6">
+        <x:v>0.60599999999999998</x:v>
+      </x:c>
+      <x:c r="G27" s="6">
+        <x:v>0.54600000000000004</x:v>
+      </x:c>
+      <x:c r="H27" s="6">
+        <x:v>0.51100000000000001</x:v>
+      </x:c>
+      <x:c r="I27" s="6">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:9">
+      <x:c r="A28" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B28" s="6">
         <x:v>0.61299999999999999</x:v>
       </x:c>
-      <x:c r="C27" s="6">
+      <x:c r="C28" s="6">
         <x:v>0.67800000000000005</x:v>
       </x:c>
-      <x:c r="D27" s="6">
+      <x:c r="D28" s="6">
         <x:v>0.55700000000000005</x:v>
       </x:c>
-      <x:c r="E27" s="6">
+      <x:c r="E28" s="6">
         <x:v>0.504</x:v>
       </x:c>
-      <x:c r="F27" s="9">
+      <x:c r="F28" s="9">
         <x:v>0.746</x:v>
       </x:c>
-      <x:c r="G27" s="6">
+      <x:c r="G28" s="6">
         <x:v>0.66100000000000003</x:v>
       </x:c>
-      <x:c r="H27" s="6">
+      <x:c r="H28" s="6">
         <x:v>0.54400000000000004</x:v>
       </x:c>
-      <x:c r="I27" s="6">
+      <x:c r="I28" s="6">
         <x:v>0.73899999999999999</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:9">
-      <x:c r="A28" s="8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B28" s="7">
-        <x:v>0.60599999999999998</x:v>
-      </x:c>
-      <x:c r="C28" s="7">
-        <x:v>0.55400000000000005</x:v>
-      </x:c>
-      <x:c r="D28" s="7">
-        <x:v>0.47799999999999998</x:v>
-      </x:c>
-      <x:c r="E28" s="7">
-        <x:v>0.50700000000000001</x:v>
-      </x:c>
-      <x:c r="F28" s="7">
-        <x:v>0.60699999999999998</x:v>
-      </x:c>
-      <x:c r="G28" s="7">
-        <x:v>0.60899999999999999</x:v>
-      </x:c>
-      <x:c r="H28" s="7">
-        <x:v>0.51500000000000001</x:v>
-      </x:c>
-      <x:c r="I28" s="9">
-        <x:v>0.68700000000000006</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B29" s="7">
-        <x:v>0.61699999999999999</x:v>
+        <x:v>0.60599999999999998</x:v>
       </x:c>
       <x:c r="C29" s="7">
-        <x:v>0.64100000000000001</x:v>
+        <x:v>0.55400000000000005</x:v>
       </x:c>
       <x:c r="D29" s="7">
-        <x:v>0.57999999999999996</x:v>
+        <x:v>0.47799999999999998</x:v>
       </x:c>
       <x:c r="E29" s="7">
-        <x:v>0.57599999999999996</x:v>
+        <x:v>0.50700000000000001</x:v>
       </x:c>
       <x:c r="F29" s="7">
-        <x:v>0.63100000000000001</x:v>
+        <x:v>0.60699999999999998</x:v>
       </x:c>
       <x:c r="G29" s="7">
-        <x:v>0.52000000000000002</x:v>
+        <x:v>0.60899999999999999</x:v>
       </x:c>
       <x:c r="H29" s="7">
-        <x:v>0.55900000000000005</x:v>
+        <x:v>0.51500000000000001</x:v>
       </x:c>
       <x:c r="I29" s="9">
-        <x:v>0.66300000000000003</x:v>
+        <x:v>0.68700000000000006</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B30" s="7">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="C30" s="7">
+        <x:v>0.64100000000000001</x:v>
+      </x:c>
+      <x:c r="D30" s="7">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="E30" s="7">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
+      <x:c r="F30" s="7">
+        <x:v>0.63100000000000001</x:v>
+      </x:c>
+      <x:c r="G30" s="7">
+        <x:v>0.52000000000000002</x:v>
+      </x:c>
+      <x:c r="H30" s="7">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="I30" s="9">
+        <x:v>0.66300000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:9">
+      <x:c r="A31" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B31" s="7">
+        <x:v>0.68500000000000005</x:v>
+      </x:c>
+      <x:c r="C31" s="7">
+        <x:v>0.64300000000000002</x:v>
+      </x:c>
+      <x:c r="D31" s="7">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
+      <x:c r="E31" s="7">
+        <x:v>0.57399999999999995</x:v>
+      </x:c>
+      <x:c r="F31" s="7">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="G31" s="7">
+        <x:v>0.68000000000000005</x:v>
+      </x:c>
+      <x:c r="H31" s="7">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
+      <x:c r="I31" s="9">
+        <x:v>0.77200000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:9">
+      <x:c r="A32" s="11" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="10">
+        <x:f>AVERAGE(B23:B31)</x:f>
+        <x:v>0.60366666666666668</x:v>
+      </x:c>
+      <x:c r="C32" s="10">
+        <x:f t="shared" ref="C32:I32" si="1">AVERAGE(C23:C31)</x:f>
+        <x:v>0.62322222222222223</x:v>
+      </x:c>
+      <x:c r="D32" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>0.5434444444444444</x:v>
+      </x:c>
+      <x:c r="E32" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>0.54688888888888887</x:v>
+      </x:c>
+      <x:c r="F32" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>0.68255555555555558</x:v>
+      </x:c>
+      <x:c r="G32" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>0.60266666666666657</x:v>
+      </x:c>
+      <x:c r="H32" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>0.5374444444444445</x:v>
+      </x:c>
+      <x:c r="I32" s="16">
+        <x:f t="shared" si="1"/>
+        <x:v>0.69233333333333347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:15" customFormat="1">
+      <x:c r="A33" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B33" s="10"/>
+      <x:c r="C33" s="10"/>
+      <x:c r="D33" s="10"/>
+      <x:c r="E33" s="10"/>
+      <x:c r="F33" s="10"/>
+      <x:c r="G33" s="10"/>
+      <x:c r="H33" s="10"/>
+      <x:c r="I33" s="10"/>
+      <x:c r="J33" s="1"/>
+      <x:c r="K33" s="1"/>
+      <x:c r="L33" s="1"/>
+      <x:c r="M33" s="1"/>
+      <x:c r="N33" s="1"/>
+      <x:c r="O33" s="1"/>
+    </x:row>
+    <x:row r="35" spans="1:9">
+      <x:c r="A35" s="1"/>
+      <x:c r="B35" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C35" s="12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D35" s="12"/>
+      <x:c r="E35" s="12"/>
+      <x:c r="F35" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H35" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I35" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:9">
+      <x:c r="A36" s="13" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B36" s="14"/>
+      <x:c r="C36" s="14"/>
+      <x:c r="D36" s="14"/>
+      <x:c r="E36" s="14"/>
+      <x:c r="F36" s="15"/>
+      <x:c r="G36" s="15"/>
+      <x:c r="H36" s="15"/>
+      <x:c r="I36" s="15"/>
+    </x:row>
+    <x:row r="37" spans="1:9">
+      <x:c r="A37" s="2"/>
+      <x:c r="B37" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E37" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G37" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H37" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I37" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:9">
+      <x:c r="A38" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E38" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B30" s="7">
-        <x:v>0.68500000000000005</x:v>
-      </x:c>
-      <x:c r="C30" s="7">
-        <x:v>0.64300000000000002</x:v>
-      </x:c>
-      <x:c r="D30" s="7">
-        <x:v>0.57599999999999996</x:v>
-      </x:c>
-      <x:c r="E30" s="7">
-        <x:v>0.57399999999999995</x:v>
-      </x:c>
-      <x:c r="F30" s="7">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="G30" s="7">
-        <x:v>0.68000000000000005</x:v>
-      </x:c>
-      <x:c r="H30" s="7">
-        <x:v>0.56899999999999995</x:v>
-      </x:c>
-      <x:c r="I30" s="9">
-        <x:v>0.77200000000000002</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:9">
-      <x:c r="A31" s="11" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B31" s="10"/>
-      <x:c r="C31" s="10"/>
-      <x:c r="D31" s="10"/>
-      <x:c r="E31" s="10"/>
-      <x:c r="F31" s="10"/>
-      <x:c r="G31" s="10"/>
-      <x:c r="H31" s="10"/>
-      <x:c r="I31" s="10"/>
-    </x:row>
-    <x:row r="33" spans="1:9">
-      <x:c r="A33" s="1"/>
-      <x:c r="B33" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C33" s="13" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D33" s="13"/>
-      <x:c r="E33" s="13"/>
-      <x:c r="F33" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H33" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I33" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:9">
-      <x:c r="A34" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B34" s="15"/>
-      <x:c r="C34" s="15"/>
-      <x:c r="D34" s="15"/>
-      <x:c r="E34" s="15"/>
-      <x:c r="F34" s="16"/>
-      <x:c r="G34" s="16"/>
-      <x:c r="H34" s="16"/>
-      <x:c r="I34" s="16"/>
-    </x:row>
-    <x:row r="35" spans="1:9">
-      <x:c r="A35" s="2"/>
-      <x:c r="B35" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E35" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G35" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H35" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I35" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:9">
-      <x:c r="A36" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E36" s="2" t="s">
+      <x:c r="G38" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H38" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F36" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G36" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H36" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I36" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:9">
-      <x:c r="A37" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B37" s="2">
+      <x:c r="I38" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:9">
+      <x:c r="A39" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="2">
         <x:v>0.82399999999999995</x:v>
       </x:c>
-      <x:c r="C37" s="2">
+      <x:c r="C39" s="2">
         <x:v>0.89100000000000001</x:v>
       </x:c>
-      <x:c r="D37" s="2">
+      <x:c r="D39" s="2">
         <x:v>0.90300000000000002</x:v>
       </x:c>
-      <x:c r="E37" s="2">
+      <x:c r="E39" s="2">
         <x:v>0.91100000000000003</x:v>
       </x:c>
-      <x:c r="F37" s="2">
+      <x:c r="F39" s="2">
         <x:v>0.748</x:v>
       </x:c>
-      <x:c r="G37" s="2">
+      <x:c r="G39" s="2">
         <x:v>0.68600000000000005</x:v>
       </x:c>
-      <x:c r="H37" s="2">
+      <x:c r="H39" s="2">
         <x:v>0.85599999999999998</x:v>
       </x:c>
-      <x:c r="I37" s="2">
+      <x:c r="I39" s="2">
         <x:v>0.76600000000000001</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:9">
-      <x:c r="A38" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B38" s="4">
-        <x:v>0.54400000000000004</x:v>
-      </x:c>
-      <x:c r="C38" s="4">
-        <x:v>0.55000000000000004</x:v>
-      </x:c>
-      <x:c r="D38" s="4">
-        <x:v>0.53700000000000003</x:v>
-      </x:c>
-      <x:c r="E38" s="4">
-        <x:v>0.53000000000000003</x:v>
-      </x:c>
-      <x:c r="F38" s="4">
-        <x:v>0.48699999999999999</x:v>
-      </x:c>
-      <x:c r="G38" s="9">
-        <x:v>0.61899999999999999</x:v>
-      </x:c>
-      <x:c r="H38" s="4">
-        <x:v>0.48499999999999999</x:v>
-      </x:c>
-      <x:c r="I38" s="4">
-        <x:v>0.55200000000000005</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:9">
-      <x:c r="A39" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B39" s="4">
-        <x:v>0.52400000000000002</x:v>
-      </x:c>
-      <x:c r="C39" s="4">
-        <x:v>0.56899999999999995</x:v>
-      </x:c>
-      <x:c r="D39" s="4">
-        <x:v>0.50900000000000001</x:v>
-      </x:c>
-      <x:c r="E39" s="4">
-        <x:v>0.53100000000000003</x:v>
-      </x:c>
-      <x:c r="F39" s="4">
-        <x:v>0.48899999999999999</x:v>
-      </x:c>
-      <x:c r="G39" s="9">
-        <x:v>0.57599999999999996</x:v>
-      </x:c>
-      <x:c r="H39" s="4">
-        <x:v>0.41499999999999998</x:v>
-      </x:c>
-      <x:c r="I39" s="4">
-        <x:v>0.54600000000000004</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B40" s="4">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+      <x:c r="C40" s="4">
+        <x:v>0.55000000000000004</x:v>
+      </x:c>
+      <x:c r="D40" s="4">
+        <x:v>0.53700000000000003</x:v>
+      </x:c>
+      <x:c r="E40" s="4">
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
+      <x:c r="F40" s="4">
+        <x:v>0.48699999999999999</x:v>
+      </x:c>
+      <x:c r="G40" s="9">
+        <x:v>0.61899999999999999</x:v>
+      </x:c>
+      <x:c r="H40" s="4">
+        <x:v>0.48499999999999999</x:v>
+      </x:c>
+      <x:c r="I40" s="4">
+        <x:v>0.55200000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:9">
+      <x:c r="A41" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B41" s="4">
+        <x:v>0.52400000000000002</x:v>
+      </x:c>
+      <x:c r="C41" s="4">
+        <x:v>0.56899999999999995</x:v>
+      </x:c>
+      <x:c r="D41" s="4">
+        <x:v>0.50900000000000001</x:v>
+      </x:c>
+      <x:c r="E41" s="4">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
+      <x:c r="F41" s="4">
+        <x:v>0.48899999999999999</x:v>
+      </x:c>
+      <x:c r="G41" s="9">
+        <x:v>0.57599999999999996</x:v>
+      </x:c>
+      <x:c r="H41" s="4">
+        <x:v>0.41499999999999998</x:v>
+      </x:c>
+      <x:c r="I41" s="4">
+        <x:v>0.54600000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:9">
+      <x:c r="A42" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B42" s="4">
         <x:v>0.439</x:v>
       </x:c>
-      <x:c r="C40" s="4">
+      <x:c r="C42" s="4">
         <x:v>0.54800000000000004</x:v>
       </x:c>
-      <x:c r="D40" s="4">
+      <x:c r="D42" s="4">
         <x:v>0.55900000000000005</x:v>
       </x:c>
-      <x:c r="E40" s="9">
+      <x:c r="E42" s="9">
         <x:v>0.58899999999999997</x:v>
       </x:c>
-      <x:c r="F40" s="4">
+      <x:c r="F42" s="4">
         <x:v>0.41299999999999998</x:v>
       </x:c>
-      <x:c r="G40" s="4">
+      <x:c r="G42" s="4">
         <x:v>0.56999999999999995</x:v>
       </x:c>
-      <x:c r="H40" s="4">
+      <x:c r="H42" s="4">
         <x:v>0.372</x:v>
       </x:c>
-      <x:c r="I40" s="4">
+      <x:c r="I42" s="4">
         <x:v>0.52600000000000002</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:9">
-      <x:c r="A41" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B41" s="6">
-        <x:v>0.35699999999999998</x:v>
-      </x:c>
-      <x:c r="C41" s="6">
-        <x:v>0.41099999999999998</x:v>
-      </x:c>
-      <x:c r="D41" s="6">
-        <x:v>0.39400000000000002</x:v>
-      </x:c>
-      <x:c r="E41" s="6">
-        <x:v>0.38700000000000001</x:v>
-      </x:c>
-      <x:c r="F41" s="6">
-        <x:v>0.45200000000000001</x:v>
-      </x:c>
-      <x:c r="G41" s="9">
-        <x:v>0.48699999999999999</x:v>
-      </x:c>
-      <x:c r="H41" s="6">
-        <x:v>0.35899999999999999</x:v>
-      </x:c>
-      <x:c r="I41" s="6">
-        <x:v>0.41299999999999998</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:9">
-      <x:c r="A42" s="5" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B42" s="6">
-        <x:v>0.49399999999999999</x:v>
-      </x:c>
-      <x:c r="C42" s="9">
-        <x:v>0.58299999999999996</x:v>
-      </x:c>
-      <x:c r="D42" s="6">
-        <x:v>0.51700000000000002</x:v>
-      </x:c>
-      <x:c r="E42" s="6">
-        <x:v>0.52200000000000002</x:v>
-      </x:c>
-      <x:c r="F42" s="6">
-        <x:v>0.49099999999999999</x:v>
-      </x:c>
-      <x:c r="G42" s="6">
-        <x:v>0.55600000000000005</x:v>
-      </x:c>
-      <x:c r="H42" s="6">
-        <x:v>0.443</x:v>
-      </x:c>
-      <x:c r="I42" s="6">
-        <x:v>0.50600000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B43" s="6">
+        <x:v>0.35699999999999998</x:v>
+      </x:c>
+      <x:c r="C43" s="6">
+        <x:v>0.41099999999999998</x:v>
+      </x:c>
+      <x:c r="D43" s="6">
+        <x:v>0.39400000000000002</x:v>
+      </x:c>
+      <x:c r="E43" s="6">
+        <x:v>0.38700000000000001</x:v>
+      </x:c>
+      <x:c r="F43" s="6">
+        <x:v>0.45200000000000001</x:v>
+      </x:c>
+      <x:c r="G43" s="9">
+        <x:v>0.48699999999999999</x:v>
+      </x:c>
+      <x:c r="H43" s="6">
+        <x:v>0.35899999999999999</x:v>
+      </x:c>
+      <x:c r="I43" s="6">
+        <x:v>0.41299999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:9">
+      <x:c r="A44" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B44" s="6">
+        <x:v>0.49399999999999999</x:v>
+      </x:c>
+      <x:c r="C44" s="9">
+        <x:v>0.58299999999999996</x:v>
+      </x:c>
+      <x:c r="D44" s="6">
         <x:v>0.51700000000000002</x:v>
       </x:c>
-      <x:c r="C43" s="9">
+      <x:c r="E44" s="6">
+        <x:v>0.52200000000000002</x:v>
+      </x:c>
+      <x:c r="F44" s="6">
+        <x:v>0.49099999999999999</x:v>
+      </x:c>
+      <x:c r="G44" s="6">
+        <x:v>0.55600000000000005</x:v>
+      </x:c>
+      <x:c r="H44" s="6">
+        <x:v>0.443</x:v>
+      </x:c>
+      <x:c r="I44" s="6">
+        <x:v>0.50600000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:9">
+      <x:c r="A45" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B45" s="6">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="C45" s="9">
         <x:v>0.59999999999999998</x:v>
       </x:c>
-      <x:c r="D43" s="6">
+      <x:c r="D45" s="6">
         <x:v>0.48899999999999999</x:v>
       </x:c>
-      <x:c r="E43" s="6">
+      <x:c r="E45" s="6">
         <x:v>0.56299999999999994</x:v>
       </x:c>
-      <x:c r="F43" s="6">
+      <x:c r="F45" s="6">
         <x:v>0.46500000000000002</x:v>
       </x:c>
-      <x:c r="G43" s="6">
+      <x:c r="G45" s="6">
         <x:v>0.53300000000000003</x:v>
       </x:c>
-      <x:c r="H43" s="6">
+      <x:c r="H45" s="6">
         <x:v>0.41999999999999998</x:v>
       </x:c>
-      <x:c r="I43" s="6">
+      <x:c r="I45" s="6">
         <x:v>0.57199999999999995</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:9">
-      <x:c r="A44" s="8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B44" s="7">
-        <x:v>0.504</x:v>
-      </x:c>
-      <x:c r="C44" s="7">
-        <x:v>0.56499999999999995</x:v>
-      </x:c>
-      <x:c r="D44" s="7">
-        <x:v>0.53300000000000003</x:v>
-      </x:c>
-      <x:c r="E44" s="7">
-        <x:v>0.51900000000000002</x:v>
-      </x:c>
-      <x:c r="F44" s="7">
-        <x:v>0.502</x:v>
-      </x:c>
-      <x:c r="G44" s="9">
-        <x:v>0.65200000000000002</x:v>
-      </x:c>
-      <x:c r="H44" s="7">
-        <x:v>0.47999999999999998</x:v>
-      </x:c>
-      <x:c r="I44" s="7">
-        <x:v>0.52000000000000002</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:9">
-      <x:c r="A45" s="8" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B45" s="7">
-        <x:v>0.51700000000000002</x:v>
-      </x:c>
-      <x:c r="C45" s="7">
-        <x:v>0.54600000000000004</x:v>
-      </x:c>
-      <x:c r="D45" s="7">
-        <x:v>0.53000000000000003</x:v>
-      </x:c>
-      <x:c r="E45" s="7">
-        <x:v>0.53300000000000003</x:v>
-      </x:c>
-      <x:c r="F45" s="7">
-        <x:v>0.49299999999999999</x:v>
-      </x:c>
-      <x:c r="G45" s="7">
-        <x:v>0.55200000000000005</x:v>
-      </x:c>
-      <x:c r="H45" s="7">
-        <x:v>0.40000000000000002</x:v>
-      </x:c>
-      <x:c r="I45" s="9">
-        <x:v>0.56100000000000005</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B46" s="7">
+        <x:v>0.504</x:v>
+      </x:c>
+      <x:c r="C46" s="7">
+        <x:v>0.56499999999999995</x:v>
+      </x:c>
+      <x:c r="D46" s="7">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+      <x:c r="E46" s="7">
+        <x:v>0.51900000000000002</x:v>
+      </x:c>
+      <x:c r="F46" s="7">
+        <x:v>0.502</x:v>
+      </x:c>
+      <x:c r="G46" s="9">
+        <x:v>0.65200000000000002</x:v>
+      </x:c>
+      <x:c r="H46" s="7">
+        <x:v>0.47999999999999998</x:v>
+      </x:c>
+      <x:c r="I46" s="7">
+        <x:v>0.52000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:9">
+      <x:c r="A47" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B47" s="7">
+        <x:v>0.51700000000000002</x:v>
+      </x:c>
+      <x:c r="C47" s="7">
+        <x:v>0.54600000000000004</x:v>
+      </x:c>
+      <x:c r="D47" s="7">
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
+      <x:c r="E47" s="7">
+        <x:v>0.53300000000000003</x:v>
+      </x:c>
+      <x:c r="F47" s="7">
+        <x:v>0.49299999999999999</x:v>
+      </x:c>
+      <x:c r="G47" s="7">
+        <x:v>0.55200000000000005</x:v>
+      </x:c>
+      <x:c r="H47" s="7">
+        <x:v>0.40000000000000002</x:v>
+      </x:c>
+      <x:c r="I47" s="9">
+        <x:v>0.56100000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:9">
+      <x:c r="A48" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B48" s="7">
         <x:v>0.54400000000000004</x:v>
       </x:c>
-      <x:c r="C46" s="7">
+      <x:c r="C48" s="7">
         <x:v>0.55400000000000005</x:v>
       </x:c>
-      <x:c r="D46" s="7">
+      <x:c r="D48" s="7">
         <x:v>0.52800000000000002</x:v>
       </x:c>
-      <x:c r="E46" s="7">
+      <x:c r="E48" s="7">
         <x:v>0.54400000000000004</x:v>
       </x:c>
-      <x:c r="F46" s="7">
+      <x:c r="F48" s="7">
         <x:v>0.46999999999999997</x:v>
       </x:c>
-      <x:c r="G46" s="9">
+      <x:c r="G48" s="9">
         <x:v>0.59599999999999997</x:v>
       </x:c>
-      <x:c r="H46" s="7">
+      <x:c r="H48" s="7">
         <x:v>0.42599999999999999</x:v>
       </x:c>
-      <x:c r="I46" s="7">
+      <x:c r="I48" s="7">
         <x:v>0.57399999999999995</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:9">
-      <x:c r="A47" s="11" t="s">
+    <x:row r="49" spans="1:9">
+      <x:c r="A49" s="11" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="10">
+        <x:f>AVERAGE(B40:B48)</x:f>
+        <x:v>0.49333333333333329</x:v>
+      </x:c>
+      <x:c r="C49" s="10">
+        <x:f t="shared" ref="C49:I49" si="2">AVERAGE(C40:C48)</x:f>
+        <x:v>0.54733333333333334</x:v>
+      </x:c>
+      <x:c r="D49" s="10">
+        <x:f t="shared" si="2"/>
+        <x:v>0.51066666666666671</x:v>
+      </x:c>
+      <x:c r="E49" s="10">
+        <x:f t="shared" si="2"/>
+        <x:v>0.52422222222222226</x:v>
+      </x:c>
+      <x:c r="F49" s="10">
+        <x:f t="shared" si="2"/>
+        <x:v>0.47355555555555551</x:v>
+      </x:c>
+      <x:c r="G49" s="16">
+        <x:f t="shared" si="2"/>
+        <x:v>0.57122222222222219</x:v>
+      </x:c>
+      <x:c r="H49" s="10">
+        <x:f t="shared" si="2"/>
+        <x:v>0.42222222222222222</x:v>
+      </x:c>
+      <x:c r="I49" s="10">
+        <x:f t="shared" si="2"/>
+        <x:v>0.53000000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:15" customFormat="1">
+      <x:c r="A50" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B50" s="10"/>
+      <x:c r="C50" s="10"/>
+      <x:c r="D50" s="10"/>
+      <x:c r="E50" s="10"/>
+      <x:c r="F50" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G50" s="10"/>
+      <x:c r="H50" s="10"/>
+      <x:c r="I50" s="10"/>
+      <x:c r="J50" s="1"/>
+      <x:c r="K50" s="1"/>
+      <x:c r="L50" s="1"/>
+      <x:c r="M50" s="1"/>
+      <x:c r="N50" s="1"/>
+      <x:c r="O50" s="1"/>
+    </x:row>
+    <x:row r="52" spans="1:9">
+      <x:c r="A52" s="1"/>
+      <x:c r="B52" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C52" s="12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D52" s="12"/>
+      <x:c r="E52" s="12"/>
+      <x:c r="F52" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H52" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I52" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:9">
+      <x:c r="A53" s="13" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B53" s="14"/>
+      <x:c r="C53" s="14"/>
+      <x:c r="D53" s="14"/>
+      <x:c r="E53" s="14"/>
+      <x:c r="F53" s="15"/>
+      <x:c r="G53" s="15"/>
+      <x:c r="H53" s="15"/>
+      <x:c r="I53" s="15"/>
+    </x:row>
+    <x:row r="54" spans="1:9">
+      <x:c r="A54" s="2"/>
+      <x:c r="B54" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E54" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G54" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H54" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I54" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:9">
+      <x:c r="A55" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E55" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="B47" s="10"/>
-      <x:c r="C47" s="10"/>
-      <x:c r="D47" s="10"/>
-      <x:c r="E47" s="10"/>
-      <x:c r="F47" s="10" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G47" s="10"/>
-      <x:c r="H47" s="10"/>
-      <x:c r="I47" s="10"/>
-    </x:row>
-    <x:row r="49" spans="1:9">
-      <x:c r="A49" s="1"/>
-      <x:c r="B49" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C49" s="13" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D49" s="13"/>
-      <x:c r="E49" s="13"/>
-      <x:c r="F49" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H49" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I49" s="1" t="s">
+      <x:c r="G55" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H55" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I55" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:9">
+      <x:c r="A56" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B56" s="2">
+        <x:v>0.93400000000000005</x:v>
+      </x:c>
+      <x:c r="C56" s="2">
+        <x:v>0.97899999999999998</x:v>
+      </x:c>
+      <x:c r="D56" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
+      <x:c r="E56" s="2">
+        <x:v>0.98099999999999998</x:v>
+      </x:c>
+      <x:c r="F56" s="2">
+        <x:v>0.79800000000000004</x:v>
+      </x:c>
+      <x:c r="G56" s="2">
+        <x:v>0.69999999999999996</x:v>
+      </x:c>
+      <x:c r="H56" s="2">
+        <x:v>0.93300000000000005</x:v>
+      </x:c>
+      <x:c r="I56" s="2">
+        <x:v>0.74199999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:9">
+      <x:c r="A57" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B57" s="4">
+        <x:v>0.67400000000000004</x:v>
+      </x:c>
+      <x:c r="C57" s="9">
+        <x:v>0.73499999999999999</x:v>
+      </x:c>
+      <x:c r="D57" s="4">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
+      <x:c r="E57" s="4">
+        <x:v>0.68000000000000005</x:v>
+      </x:c>
+      <x:c r="F57" s="4">
+        <x:v>0.69599999999999995</x:v>
+      </x:c>
+      <x:c r="G57" s="4">
+        <x:v>0.72399999999999998</x:v>
+      </x:c>
+      <x:c r="H57" s="4">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="I57" s="4">
+        <x:v>0.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:9">
+      <x:c r="A58" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B58" s="4">
+        <x:v>0.61299999999999999</x:v>
+      </x:c>
+      <x:c r="C58" s="4">
+        <x:v>0.60599999999999998</x:v>
+      </x:c>
+      <x:c r="D58" s="4">
+        <x:v>0.53100000000000003</x:v>
+      </x:c>
+      <x:c r="E58" s="4">
+        <x:v>0.60699999999999998</x:v>
+      </x:c>
+      <x:c r="F58" s="4">
+        <x:v>0.56100000000000005</x:v>
+      </x:c>
+      <x:c r="G58" s="9">
+        <x:v>0.67000000000000004</x:v>
+      </x:c>
+      <x:c r="H58" s="4">
+        <x:v>0.443</x:v>
+      </x:c>
+      <x:c r="I58" s="4">
+        <x:v>0.58699999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:9">
+      <x:c r="A59" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B59" s="4">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="C59" s="9">
+        <x:v>0.70699999999999996</x:v>
+      </x:c>
+      <x:c r="D59" s="4">
+        <x:v>0.64800000000000002</x:v>
+      </x:c>
+      <x:c r="E59" s="4">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
+      <x:c r="F59" s="4">
+        <x:v>0.63700000000000001</x:v>
+      </x:c>
+      <x:c r="G59" s="4">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
+      <x:c r="H59" s="4">
+        <x:v>0.55400000000000005</x:v>
+      </x:c>
+      <x:c r="I59" s="4">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:9">
+      <x:c r="A60" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B60" s="6">
+        <x:v>0.41099999999999998</x:v>
+      </x:c>
+      <x:c r="C60" s="9">
+        <x:v>0.52000000000000002</x:v>
+      </x:c>
+      <x:c r="D60" s="6">
+        <x:v>0.36099999999999999</x:v>
+      </x:c>
+      <x:c r="E60" s="6">
+        <x:v>0.435</x:v>
+      </x:c>
+      <x:c r="F60" s="6">
+        <x:v>0.47799999999999998</x:v>
+      </x:c>
+      <x:c r="G60" s="6">
+        <x:v>0.51300000000000001</x:v>
+      </x:c>
+      <x:c r="H60" s="6">
+        <x:v>0.36899999999999999</x:v>
+      </x:c>
+      <x:c r="I60" s="6">
+        <x:v>0.48899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:9">
+      <x:c r="A61" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B61" s="6">
+        <x:v>0.56499999999999995</x:v>
+      </x:c>
+      <x:c r="C61" s="9">
+        <x:v>0.63100000000000001</x:v>
+      </x:c>
+      <x:c r="D61" s="6">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="E61" s="6">
+        <x:v>0.59799999999999998</x:v>
+      </x:c>
+      <x:c r="F61" s="6">
+        <x:v>0.61699999999999999</x:v>
+      </x:c>
+      <x:c r="G61" s="6">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
+      <x:c r="H61" s="6">
+        <x:v>0.47599999999999998</x:v>
+      </x:c>
+      <x:c r="I61" s="6">
+        <x:v>0.54100000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:9">
+      <x:c r="A62" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B62" s="6">
+        <x:v>0.626</x:v>
+      </x:c>
+      <x:c r="C62" s="6">
+        <x:v>0.69099999999999995</x:v>
+      </x:c>
+      <x:c r="D62" s="6">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
+      <x:c r="E62" s="6">
+        <x:v>0.68100000000000005</x:v>
+      </x:c>
+      <x:c r="F62" s="6">
+        <x:v>0.67400000000000004</x:v>
+      </x:c>
+      <x:c r="G62" s="9">
+        <x:v>0.73299999999999998</x:v>
+      </x:c>
+      <x:c r="H62" s="6">
+        <x:v>0.46500000000000002</x:v>
+      </x:c>
+      <x:c r="I62" s="6">
+        <x:v>0.59599999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:9">
+      <x:c r="A63" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B63" s="7">
+        <x:v>0.56999999999999995</x:v>
+      </x:c>
+      <x:c r="C63" s="7">
+        <x:v>0.66100000000000003</x:v>
+      </x:c>
+      <x:c r="D63" s="7">
+        <x:v>0.57999999999999996</x:v>
+      </x:c>
+      <x:c r="E63" s="7">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
+      <x:c r="F63" s="7">
+        <x:v>0.65000000000000002</x:v>
+      </x:c>
+      <x:c r="G63" s="9">
+        <x:v>0.67200000000000004</x:v>
+      </x:c>
+      <x:c r="H63" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+      <x:c r="I63" s="7">
+        <x:v>0.624</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:9">
+      <x:c r="A64" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B64" s="7">
+        <x:v>0.59399999999999997</x:v>
+      </x:c>
+      <x:c r="C64" s="7">
+        <x:v>0.61499999999999999</x:v>
+      </x:c>
+      <x:c r="D64" s="7">
+        <x:v>0.55900000000000005</x:v>
+      </x:c>
+      <x:c r="E64" s="7">
+        <x:v>0.59999999999999998</x:v>
+      </x:c>
+      <x:c r="F64" s="7">
+        <x:v>0.46700000000000003</x:v>
+      </x:c>
+      <x:c r="G64" s="9">
+        <x:v>0.64400000000000002</x:v>
+      </x:c>
+      <x:c r="H64" s="7">
+        <x:v>0.47799999999999998</x:v>
+      </x:c>
+      <x:c r="I64" s="7">
+        <x:v>0.58499999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:9">
+      <x:c r="A65" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B65" s="7">
+        <x:v>0.63900000000000001</x:v>
+      </x:c>
+      <x:c r="C65" s="7">
+        <x:v>0.66500000000000004</x:v>
+      </x:c>
+      <x:c r="D65" s="7">
+        <x:v>0.61899999999999999</x:v>
+      </x:c>
+      <x:c r="E65" s="7">
+        <x:v>0.67600000000000005</x:v>
+      </x:c>
+      <x:c r="F65" s="7">
+        <x:v>0.60899999999999999</x:v>
+      </x:c>
+      <x:c r="G65" s="9">
+        <x:v>0.73499999999999999</x:v>
+      </x:c>
+      <x:c r="H65" s="7">
+        <x:v>0.54400000000000004</x:v>
+      </x:c>
+      <x:c r="I65" s="7">
+        <x:v>0.59599999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:9">
+      <x:c r="A66" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="50" spans="1:9">
-      <x:c r="A50" s="14" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B50" s="15"/>
-      <x:c r="C50" s="15"/>
-      <x:c r="D50" s="15"/>
-      <x:c r="E50" s="15"/>
-      <x:c r="F50" s="16"/>
-      <x:c r="G50" s="16"/>
-      <x:c r="H50" s="16"/>
-      <x:c r="I50" s="16"/>
-    </x:row>
-    <x:row r="51" spans="1:9">
-      <x:c r="A51" s="2"/>
-      <x:c r="B51" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E51" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F51" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G51" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H51" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I51" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:9">
-      <x:c r="A52" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E52" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G52" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H52" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="I52" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:9">
-      <x:c r="A53" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B53" s="2">
-        <x:v>0.93400000000000005</x:v>
-      </x:c>
-      <x:c r="C53" s="2">
-        <x:v>0.97899999999999998</x:v>
-      </x:c>
-      <x:c r="D53" s="2">
-        <x:v>0.98099999999999998</x:v>
-      </x:c>
-      <x:c r="E53" s="2">
-        <x:v>0.98099999999999998</x:v>
-      </x:c>
-      <x:c r="F53" s="2">
-        <x:v>0.79800000000000004</x:v>
-      </x:c>
-      <x:c r="G53" s="2">
-        <x:v>0.69999999999999996</x:v>
-      </x:c>
-      <x:c r="H53" s="2">
-        <x:v>0.93300000000000005</x:v>
-      </x:c>
-      <x:c r="I53" s="2">
-        <x:v>0.74199999999999999</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:9">
-      <x:c r="A54" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B54" s="4">
-        <x:v>0.67400000000000004</x:v>
-      </x:c>
-      <x:c r="C54" s="9">
-        <x:v>0.73499999999999999</x:v>
-      </x:c>
-      <x:c r="D54" s="4">
-        <x:v>0.67600000000000005</x:v>
-      </x:c>
-      <x:c r="E54" s="4">
-        <x:v>0.68000000000000005</x:v>
-      </x:c>
-      <x:c r="F54" s="4">
-        <x:v>0.69599999999999995</x:v>
-      </x:c>
-      <x:c r="G54" s="4">
-        <x:v>0.72399999999999998</x:v>
-      </x:c>
-      <x:c r="H54" s="4">
-        <x:v>0.57999999999999996</x:v>
-      </x:c>
-      <x:c r="I54" s="4">
-        <x:v>0.63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:9">
-      <x:c r="A55" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B55" s="4">
-        <x:v>0.61299999999999999</x:v>
-      </x:c>
-      <x:c r="C55" s="4">
-        <x:v>0.60599999999999998</x:v>
-      </x:c>
-      <x:c r="D55" s="4">
-        <x:v>0.53100000000000003</x:v>
-      </x:c>
-      <x:c r="E55" s="4">
-        <x:v>0.60699999999999998</x:v>
-      </x:c>
-      <x:c r="F55" s="4">
-        <x:v>0.56100000000000005</x:v>
-      </x:c>
-      <x:c r="G55" s="9">
-        <x:v>0.67000000000000004</x:v>
-      </x:c>
-      <x:c r="H55" s="4">
-        <x:v>0.443</x:v>
-      </x:c>
-      <x:c r="I55" s="4">
-        <x:v>0.58699999999999997</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:9">
-      <x:c r="A56" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B56" s="4">
-        <x:v>0.61699999999999999</x:v>
-      </x:c>
-      <x:c r="C56" s="9">
-        <x:v>0.70699999999999996</x:v>
-      </x:c>
-      <x:c r="D56" s="4">
-        <x:v>0.64800000000000002</x:v>
-      </x:c>
-      <x:c r="E56" s="4">
-        <x:v>0.68100000000000005</x:v>
-      </x:c>
-      <x:c r="F56" s="4">
-        <x:v>0.63700000000000001</x:v>
-      </x:c>
-      <x:c r="G56" s="4">
-        <x:v>0.61499999999999999</x:v>
-      </x:c>
-      <x:c r="H56" s="4">
-        <x:v>0.55400000000000005</x:v>
-      </x:c>
-      <x:c r="I56" s="4">
-        <x:v>0.55900000000000005</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:9">
-      <x:c r="A57" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B57" s="6">
-        <x:v>0.41099999999999998</x:v>
-      </x:c>
-      <x:c r="C57" s="9">
-        <x:v>0.52000000000000002</x:v>
-      </x:c>
-      <x:c r="D57" s="6">
-        <x:v>0.36099999999999999</x:v>
-      </x:c>
-      <x:c r="E57" s="6">
-        <x:v>0.435</x:v>
-      </x:c>
-      <x:c r="F57" s="6">
-        <x:v>0.47799999999999998</x:v>
-      </x:c>
-      <x:c r="G57" s="6">
-        <x:v>0.51300000000000001</x:v>
-      </x:c>
-      <x:c r="H57" s="6">
-        <x:v>0.36899999999999999</x:v>
-      </x:c>
-      <x:c r="I57" s="6">
-        <x:v>0.48899999999999999</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:9">
-      <x:c r="A58" s="5" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B58" s="6">
-        <x:v>0.56499999999999995</x:v>
-      </x:c>
-      <x:c r="C58" s="9">
-        <x:v>0.63100000000000001</x:v>
-      </x:c>
-      <x:c r="D58" s="6">
-        <x:v>0.57999999999999996</x:v>
-      </x:c>
-      <x:c r="E58" s="6">
-        <x:v>0.59799999999999998</x:v>
-      </x:c>
-      <x:c r="F58" s="6">
-        <x:v>0.61699999999999999</x:v>
-      </x:c>
-      <x:c r="G58" s="6">
-        <x:v>0.59999999999999998</x:v>
-      </x:c>
-      <x:c r="H58" s="6">
-        <x:v>0.47599999999999998</x:v>
-      </x:c>
-      <x:c r="I58" s="6">
-        <x:v>0.54100000000000004</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:9">
-      <x:c r="A59" s="5" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B59" s="6">
-        <x:v>0.626</x:v>
-      </x:c>
-      <x:c r="C59" s="6">
-        <x:v>0.69099999999999995</x:v>
-      </x:c>
-      <x:c r="D59" s="6">
-        <x:v>0.60899999999999999</x:v>
-      </x:c>
-      <x:c r="E59" s="6">
-        <x:v>0.68100000000000005</x:v>
-      </x:c>
-      <x:c r="F59" s="6">
-        <x:v>0.67400000000000004</x:v>
-      </x:c>
-      <x:c r="G59" s="9">
-        <x:v>0.73299999999999998</x:v>
-      </x:c>
-      <x:c r="H59" s="6">
-        <x:v>0.46500000000000002</x:v>
-      </x:c>
-      <x:c r="I59" s="6">
-        <x:v>0.59599999999999997</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:9">
-      <x:c r="A60" s="8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B60" s="7">
-        <x:v>0.56999999999999995</x:v>
-      </x:c>
-      <x:c r="C60" s="7">
-        <x:v>0.66100000000000003</x:v>
-      </x:c>
-      <x:c r="D60" s="7">
-        <x:v>0.57999999999999996</x:v>
-      </x:c>
-      <x:c r="E60" s="7">
-        <x:v>0.61499999999999999</x:v>
-      </x:c>
-      <x:c r="F60" s="7">
-        <x:v>0.65000000000000002</x:v>
-      </x:c>
-      <x:c r="G60" s="9">
-        <x:v>0.67200000000000004</x:v>
-      </x:c>
-      <x:c r="H60" s="7">
-        <x:v>0.54400000000000004</x:v>
-      </x:c>
-      <x:c r="I60" s="7">
-        <x:v>0.624</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:9">
-      <x:c r="A61" s="8" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B61" s="7">
-        <x:v>0.59399999999999997</x:v>
-      </x:c>
-      <x:c r="C61" s="7">
-        <x:v>0.61499999999999999</x:v>
-      </x:c>
-      <x:c r="D61" s="7">
-        <x:v>0.55900000000000005</x:v>
-      </x:c>
-      <x:c r="E61" s="7">
-        <x:v>0.59999999999999998</x:v>
-      </x:c>
-      <x:c r="F61" s="7">
-        <x:v>0.46700000000000003</x:v>
-      </x:c>
-      <x:c r="G61" s="9">
-        <x:v>0.64400000000000002</x:v>
-      </x:c>
-      <x:c r="H61" s="7">
-        <x:v>0.47799999999999998</x:v>
-      </x:c>
-      <x:c r="I61" s="7">
-        <x:v>0.58499999999999996</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:9">
-      <x:c r="A62" s="8" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B62" s="7">
-        <x:v>0.63900000000000001</x:v>
-      </x:c>
-      <x:c r="C62" s="7">
-        <x:v>0.66500000000000004</x:v>
-      </x:c>
-      <x:c r="D62" s="7">
-        <x:v>0.61899999999999999</x:v>
-      </x:c>
-      <x:c r="E62" s="7">
-        <x:v>0.67600000000000005</x:v>
-      </x:c>
-      <x:c r="F62" s="7">
-        <x:v>0.60899999999999999</x:v>
-      </x:c>
-      <x:c r="G62" s="9">
-        <x:v>0.73499999999999999</x:v>
-      </x:c>
-      <x:c r="H62" s="7">
-        <x:v>0.54400000000000004</x:v>
-      </x:c>
-      <x:c r="I62" s="7">
-        <x:v>0.59599999999999997</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:9">
-      <x:c r="A63" s="11" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B63" s="10"/>
-      <x:c r="C63" s="10"/>
-      <x:c r="D63" s="10"/>
-      <x:c r="E63" s="10"/>
-      <x:c r="F63" s="10"/>
-      <x:c r="G63" s="10"/>
-      <x:c r="H63" s="10"/>
-      <x:c r="I63" s="10"/>
+      <x:c r="B66" s="10">
+        <x:f>AVERAGE(B57:B65)</x:f>
+        <x:v>0.58988888888888891</x:v>
+      </x:c>
+      <x:c r="C66" s="10">
+        <x:f t="shared" ref="C66:I66" si="3">AVERAGE(C57:C65)</x:f>
+        <x:v>0.64788888888888896</x:v>
+      </x:c>
+      <x:c r="D66" s="10">
+        <x:f t="shared" si="3"/>
+        <x:v>0.57366666666666666</x:v>
+      </x:c>
+      <x:c r="E66" s="10">
+        <x:f t="shared" si="3"/>
+        <x:v>0.61922222222222212</x:v>
+      </x:c>
+      <x:c r="F66" s="10">
+        <x:f t="shared" si="3"/>
+        <x:v>0.59877777777777774</x:v>
+      </x:c>
+      <x:c r="G66" s="16">
+        <x:f t="shared" si="3"/>
+        <x:v>0.65622222222222226</x:v>
+      </x:c>
+      <x:c r="H66" s="10">
+        <x:f t="shared" si="3"/>
+        <x:v>0.49477777777777771</x:v>
+      </x:c>
+      <x:c r="I66" s="10">
+        <x:f t="shared" si="3"/>
+        <x:v>0.57855555555555549</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:15" customFormat="1">
+      <x:c r="A67" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B67" s="10"/>
+      <x:c r="C67" s="10"/>
+      <x:c r="D67" s="10"/>
+      <x:c r="E67" s="10"/>
+      <x:c r="F67" s="10"/>
+      <x:c r="G67" s="10"/>
+      <x:c r="H67" s="10"/>
+      <x:c r="I67" s="10"/>
+      <x:c r="J67" s="1"/>
+      <x:c r="K67" s="1"/>
+      <x:c r="L67" s="1"/>
+      <x:c r="M67" s="1"/>
+      <x:c r="N67" s="1"/>
+      <x:c r="O67" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="8">
     <x:mergeCell ref="C1:E1"/>
     <x:mergeCell ref="A2:I2"/>
-    <x:mergeCell ref="C17:E17"/>
-    <x:mergeCell ref="A18:I18"/>
-    <x:mergeCell ref="C33:E33"/>
-    <x:mergeCell ref="A34:I34"/>
-    <x:mergeCell ref="C49:E49"/>
-    <x:mergeCell ref="A50:I50"/>
+    <x:mergeCell ref="C18:E18"/>
+    <x:mergeCell ref="A19:I19"/>
+    <x:mergeCell ref="C35:E35"/>
+    <x:mergeCell ref="A36:I36"/>
+    <x:mergeCell ref="C52:E52"/>
+    <x:mergeCell ref="A53:I53"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
